--- a/Network_Protocol_Socket.xlsx
+++ b/Network_Protocol_Socket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Protocol" sheetId="11" r:id="rId5"/>
     <sheet name="HTTP" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1628,9 +1628,6 @@
     <t>In case of network failure</t>
   </si>
   <si>
-    <t>Does NOT throw an error, keep tryuntil the delivery is successful.</t>
-  </si>
-  <si>
     <t>Throws exception and need to code to handle the error and add logic to resend the message.</t>
   </si>
   <si>
@@ -1687,6 +1684,9 @@
   </si>
   <si>
     <t>HTTP Res</t>
+  </si>
+  <si>
+    <t>Does NOT throw an error, keep try until the delivery is successful.</t>
   </si>
 </sst>
 </file>
@@ -3605,38 +3605,38 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="63.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" ht="22.9" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" ht="22.9" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3676,12 +3676,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3748,8 +3748,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3757,7 +3757,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="F31" s="81"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="F32" s="83"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>20</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="F33" s="83"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" ht="57" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>20</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="F34" s="83"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:7" ht="57" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="F35" s="83"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="F36" s="85"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -3849,7 +3849,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
@@ -3890,12 +3890,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>62</v>
       </c>
@@ -3970,12 +3970,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="99.77734375" customWidth="1"/>
+    <col min="4" max="4" width="99.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="172.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="172.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3986,24 +3986,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="49"/>
-    <col min="2" max="2" width="5.77734375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" style="49" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="1" width="8.85546875" style="49"/>
+    <col min="2" max="2" width="5.7109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="59" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -4011,35 +4011,35 @@
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>229</v>
-      </c>
       <c r="G4" s="65"/>
     </row>
-    <row r="5" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>232</v>
-      </c>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70" t="s">
@@ -4049,49 +4049,49 @@
         <v>38</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="71"/>
     </row>
-    <row r="8" spans="2:7" s="59" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" s="59" customFormat="1" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>239</v>
-      </c>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="2:7" s="59" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" s="59" customFormat="1" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="F9" s="70" t="s">
         <v>241</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>242</v>
       </c>
       <c r="G9" s="71"/>
     </row>
@@ -4111,19 +4111,19 @@
       <c r="F11" s="73"/>
       <c r="G11" s="74"/>
     </row>
-    <row r="12" spans="2:7" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13"/>
     </row>
-    <row r="14" spans="2:7" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="2:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="50"/>
       <c r="C16" s="75" t="s">
         <v>35</v>
@@ -4132,7 +4132,7 @@
       <c r="E16" s="86"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="50"/>
       <c r="C17" s="75" t="s">
         <v>36</v>
@@ -4141,7 +4141,7 @@
       <c r="E17" s="87"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="50"/>
       <c r="C18" s="75" t="s">
         <v>37</v>
@@ -4150,7 +4150,7 @@
       <c r="E18" s="87"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50"/>
       <c r="C19" s="75" t="s">
         <v>38</v>
@@ -4159,7 +4159,7 @@
       <c r="E19" s="87"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
       <c r="C20" s="75" t="s">
         <v>39</v>
@@ -4168,7 +4168,7 @@
       <c r="E20" s="87"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50"/>
       <c r="C21" s="75" t="s">
         <v>40</v>
@@ -4177,7 +4177,7 @@
       <c r="E21" s="87"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="2:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="50"/>
       <c r="C22" s="75" t="s">
         <v>41</v>
@@ -4186,34 +4186,34 @@
       <c r="E22" s="88"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="77"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
       <c r="F23" s="79"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="49" t="s">
         <v>212</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="49" t="s">
         <v>210</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="49" t="s">
         <v>208</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="49" t="s">
         <v>206</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="49" t="s">
         <v>204</v>
       </c>
@@ -4253,17 +4253,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C58" s="49" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C59" s="49" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="49" t="s">
         <v>200</v>
       </c>
@@ -4285,26 +4285,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="62.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
@@ -4315,12 +4315,12 @@
       <c r="D4" s="33"/>
     </row>
     <row r="6" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
         <v>71</v>
@@ -4340,7 +4340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>75</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>123</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>78</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="22.9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>81</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>87</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>90</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="22.9" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>93</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34.15" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>101</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
         <v>104</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
         <v>107</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
         <v>110</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
         <v>116</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="26" t="s">
         <v>119</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
         <v>113</v>
       </c>
@@ -4525,23 +4525,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="30" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>217</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="49" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>217</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="49" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>217</v>
       </c>
@@ -4577,24 +4577,24 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="31"/>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
     </row>
-    <row r="38" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="55"/>
       <c r="C39" s="56"/>
       <c r="D39" s="57"/>
     </row>
-    <row r="40" spans="1:4" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>224</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>224</v>
       </c>
@@ -4614,18 +4614,18 @@
         <v>225</v>
       </c>
       <c r="C41" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="33"/>
@@ -4648,779 +4648,779 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.5546875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="36" customWidth="1"/>
     <col min="6" max="6" width="55" style="36" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="36" customWidth="1"/>
     <col min="9" max="9" width="30" style="36" customWidth="1"/>
     <col min="10" max="10" width="31" style="36" customWidth="1"/>
     <col min="11" max="11" width="33" style="36" customWidth="1"/>
-    <col min="12" max="256" width="9.33203125" style="36"/>
-    <col min="257" max="257" width="5.44140625" style="36" customWidth="1"/>
-    <col min="258" max="258" width="18.33203125" style="36" customWidth="1"/>
-    <col min="259" max="259" width="69.6640625" style="36" customWidth="1"/>
-    <col min="260" max="260" width="65.33203125" style="36" customWidth="1"/>
-    <col min="261" max="261" width="56.5546875" style="36" customWidth="1"/>
+    <col min="12" max="256" width="9.28515625" style="36"/>
+    <col min="257" max="257" width="5.42578125" style="36" customWidth="1"/>
+    <col min="258" max="258" width="18.28515625" style="36" customWidth="1"/>
+    <col min="259" max="259" width="69.7109375" style="36" customWidth="1"/>
+    <col min="260" max="260" width="65.28515625" style="36" customWidth="1"/>
+    <col min="261" max="261" width="56.5703125" style="36" customWidth="1"/>
     <col min="262" max="262" width="55" style="36" customWidth="1"/>
-    <col min="263" max="263" width="32.44140625" style="36" customWidth="1"/>
-    <col min="264" max="264" width="34.33203125" style="36" customWidth="1"/>
+    <col min="263" max="263" width="32.42578125" style="36" customWidth="1"/>
+    <col min="264" max="264" width="34.28515625" style="36" customWidth="1"/>
     <col min="265" max="265" width="30" style="36" customWidth="1"/>
     <col min="266" max="266" width="31" style="36" customWidth="1"/>
     <col min="267" max="267" width="33" style="36" customWidth="1"/>
-    <col min="268" max="512" width="9.33203125" style="36"/>
-    <col min="513" max="513" width="5.44140625" style="36" customWidth="1"/>
-    <col min="514" max="514" width="18.33203125" style="36" customWidth="1"/>
-    <col min="515" max="515" width="69.6640625" style="36" customWidth="1"/>
-    <col min="516" max="516" width="65.33203125" style="36" customWidth="1"/>
-    <col min="517" max="517" width="56.5546875" style="36" customWidth="1"/>
+    <col min="268" max="512" width="9.28515625" style="36"/>
+    <col min="513" max="513" width="5.42578125" style="36" customWidth="1"/>
+    <col min="514" max="514" width="18.28515625" style="36" customWidth="1"/>
+    <col min="515" max="515" width="69.7109375" style="36" customWidth="1"/>
+    <col min="516" max="516" width="65.28515625" style="36" customWidth="1"/>
+    <col min="517" max="517" width="56.5703125" style="36" customWidth="1"/>
     <col min="518" max="518" width="55" style="36" customWidth="1"/>
-    <col min="519" max="519" width="32.44140625" style="36" customWidth="1"/>
-    <col min="520" max="520" width="34.33203125" style="36" customWidth="1"/>
+    <col min="519" max="519" width="32.42578125" style="36" customWidth="1"/>
+    <col min="520" max="520" width="34.28515625" style="36" customWidth="1"/>
     <col min="521" max="521" width="30" style="36" customWidth="1"/>
     <col min="522" max="522" width="31" style="36" customWidth="1"/>
     <col min="523" max="523" width="33" style="36" customWidth="1"/>
-    <col min="524" max="768" width="9.33203125" style="36"/>
-    <col min="769" max="769" width="5.44140625" style="36" customWidth="1"/>
-    <col min="770" max="770" width="18.33203125" style="36" customWidth="1"/>
-    <col min="771" max="771" width="69.6640625" style="36" customWidth="1"/>
-    <col min="772" max="772" width="65.33203125" style="36" customWidth="1"/>
-    <col min="773" max="773" width="56.5546875" style="36" customWidth="1"/>
+    <col min="524" max="768" width="9.28515625" style="36"/>
+    <col min="769" max="769" width="5.42578125" style="36" customWidth="1"/>
+    <col min="770" max="770" width="18.28515625" style="36" customWidth="1"/>
+    <col min="771" max="771" width="69.7109375" style="36" customWidth="1"/>
+    <col min="772" max="772" width="65.28515625" style="36" customWidth="1"/>
+    <col min="773" max="773" width="56.5703125" style="36" customWidth="1"/>
     <col min="774" max="774" width="55" style="36" customWidth="1"/>
-    <col min="775" max="775" width="32.44140625" style="36" customWidth="1"/>
-    <col min="776" max="776" width="34.33203125" style="36" customWidth="1"/>
+    <col min="775" max="775" width="32.42578125" style="36" customWidth="1"/>
+    <col min="776" max="776" width="34.28515625" style="36" customWidth="1"/>
     <col min="777" max="777" width="30" style="36" customWidth="1"/>
     <col min="778" max="778" width="31" style="36" customWidth="1"/>
     <col min="779" max="779" width="33" style="36" customWidth="1"/>
-    <col min="780" max="1024" width="9.33203125" style="36"/>
-    <col min="1025" max="1025" width="5.44140625" style="36" customWidth="1"/>
-    <col min="1026" max="1026" width="18.33203125" style="36" customWidth="1"/>
-    <col min="1027" max="1027" width="69.6640625" style="36" customWidth="1"/>
-    <col min="1028" max="1028" width="65.33203125" style="36" customWidth="1"/>
-    <col min="1029" max="1029" width="56.5546875" style="36" customWidth="1"/>
+    <col min="780" max="1024" width="9.28515625" style="36"/>
+    <col min="1025" max="1025" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1026" max="1026" width="18.28515625" style="36" customWidth="1"/>
+    <col min="1027" max="1027" width="69.7109375" style="36" customWidth="1"/>
+    <col min="1028" max="1028" width="65.28515625" style="36" customWidth="1"/>
+    <col min="1029" max="1029" width="56.5703125" style="36" customWidth="1"/>
     <col min="1030" max="1030" width="55" style="36" customWidth="1"/>
-    <col min="1031" max="1031" width="32.44140625" style="36" customWidth="1"/>
-    <col min="1032" max="1032" width="34.33203125" style="36" customWidth="1"/>
+    <col min="1031" max="1031" width="32.42578125" style="36" customWidth="1"/>
+    <col min="1032" max="1032" width="34.28515625" style="36" customWidth="1"/>
     <col min="1033" max="1033" width="30" style="36" customWidth="1"/>
     <col min="1034" max="1034" width="31" style="36" customWidth="1"/>
     <col min="1035" max="1035" width="33" style="36" customWidth="1"/>
-    <col min="1036" max="1280" width="9.33203125" style="36"/>
-    <col min="1281" max="1281" width="5.44140625" style="36" customWidth="1"/>
-    <col min="1282" max="1282" width="18.33203125" style="36" customWidth="1"/>
-    <col min="1283" max="1283" width="69.6640625" style="36" customWidth="1"/>
-    <col min="1284" max="1284" width="65.33203125" style="36" customWidth="1"/>
-    <col min="1285" max="1285" width="56.5546875" style="36" customWidth="1"/>
+    <col min="1036" max="1280" width="9.28515625" style="36"/>
+    <col min="1281" max="1281" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1282" max="1282" width="18.28515625" style="36" customWidth="1"/>
+    <col min="1283" max="1283" width="69.7109375" style="36" customWidth="1"/>
+    <col min="1284" max="1284" width="65.28515625" style="36" customWidth="1"/>
+    <col min="1285" max="1285" width="56.5703125" style="36" customWidth="1"/>
     <col min="1286" max="1286" width="55" style="36" customWidth="1"/>
-    <col min="1287" max="1287" width="32.44140625" style="36" customWidth="1"/>
-    <col min="1288" max="1288" width="34.33203125" style="36" customWidth="1"/>
+    <col min="1287" max="1287" width="32.42578125" style="36" customWidth="1"/>
+    <col min="1288" max="1288" width="34.28515625" style="36" customWidth="1"/>
     <col min="1289" max="1289" width="30" style="36" customWidth="1"/>
     <col min="1290" max="1290" width="31" style="36" customWidth="1"/>
     <col min="1291" max="1291" width="33" style="36" customWidth="1"/>
-    <col min="1292" max="1536" width="9.33203125" style="36"/>
-    <col min="1537" max="1537" width="5.44140625" style="36" customWidth="1"/>
-    <col min="1538" max="1538" width="18.33203125" style="36" customWidth="1"/>
-    <col min="1539" max="1539" width="69.6640625" style="36" customWidth="1"/>
-    <col min="1540" max="1540" width="65.33203125" style="36" customWidth="1"/>
-    <col min="1541" max="1541" width="56.5546875" style="36" customWidth="1"/>
+    <col min="1292" max="1536" width="9.28515625" style="36"/>
+    <col min="1537" max="1537" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1538" max="1538" width="18.28515625" style="36" customWidth="1"/>
+    <col min="1539" max="1539" width="69.7109375" style="36" customWidth="1"/>
+    <col min="1540" max="1540" width="65.28515625" style="36" customWidth="1"/>
+    <col min="1541" max="1541" width="56.5703125" style="36" customWidth="1"/>
     <col min="1542" max="1542" width="55" style="36" customWidth="1"/>
-    <col min="1543" max="1543" width="32.44140625" style="36" customWidth="1"/>
-    <col min="1544" max="1544" width="34.33203125" style="36" customWidth="1"/>
+    <col min="1543" max="1543" width="32.42578125" style="36" customWidth="1"/>
+    <col min="1544" max="1544" width="34.28515625" style="36" customWidth="1"/>
     <col min="1545" max="1545" width="30" style="36" customWidth="1"/>
     <col min="1546" max="1546" width="31" style="36" customWidth="1"/>
     <col min="1547" max="1547" width="33" style="36" customWidth="1"/>
-    <col min="1548" max="1792" width="9.33203125" style="36"/>
-    <col min="1793" max="1793" width="5.44140625" style="36" customWidth="1"/>
-    <col min="1794" max="1794" width="18.33203125" style="36" customWidth="1"/>
-    <col min="1795" max="1795" width="69.6640625" style="36" customWidth="1"/>
-    <col min="1796" max="1796" width="65.33203125" style="36" customWidth="1"/>
-    <col min="1797" max="1797" width="56.5546875" style="36" customWidth="1"/>
+    <col min="1548" max="1792" width="9.28515625" style="36"/>
+    <col min="1793" max="1793" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1794" max="1794" width="18.28515625" style="36" customWidth="1"/>
+    <col min="1795" max="1795" width="69.7109375" style="36" customWidth="1"/>
+    <col min="1796" max="1796" width="65.28515625" style="36" customWidth="1"/>
+    <col min="1797" max="1797" width="56.5703125" style="36" customWidth="1"/>
     <col min="1798" max="1798" width="55" style="36" customWidth="1"/>
-    <col min="1799" max="1799" width="32.44140625" style="36" customWidth="1"/>
-    <col min="1800" max="1800" width="34.33203125" style="36" customWidth="1"/>
+    <col min="1799" max="1799" width="32.42578125" style="36" customWidth="1"/>
+    <col min="1800" max="1800" width="34.28515625" style="36" customWidth="1"/>
     <col min="1801" max="1801" width="30" style="36" customWidth="1"/>
     <col min="1802" max="1802" width="31" style="36" customWidth="1"/>
     <col min="1803" max="1803" width="33" style="36" customWidth="1"/>
-    <col min="1804" max="2048" width="9.33203125" style="36"/>
-    <col min="2049" max="2049" width="5.44140625" style="36" customWidth="1"/>
-    <col min="2050" max="2050" width="18.33203125" style="36" customWidth="1"/>
-    <col min="2051" max="2051" width="69.6640625" style="36" customWidth="1"/>
-    <col min="2052" max="2052" width="65.33203125" style="36" customWidth="1"/>
-    <col min="2053" max="2053" width="56.5546875" style="36" customWidth="1"/>
+    <col min="1804" max="2048" width="9.28515625" style="36"/>
+    <col min="2049" max="2049" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2050" max="2050" width="18.28515625" style="36" customWidth="1"/>
+    <col min="2051" max="2051" width="69.7109375" style="36" customWidth="1"/>
+    <col min="2052" max="2052" width="65.28515625" style="36" customWidth="1"/>
+    <col min="2053" max="2053" width="56.5703125" style="36" customWidth="1"/>
     <col min="2054" max="2054" width="55" style="36" customWidth="1"/>
-    <col min="2055" max="2055" width="32.44140625" style="36" customWidth="1"/>
-    <col min="2056" max="2056" width="34.33203125" style="36" customWidth="1"/>
+    <col min="2055" max="2055" width="32.42578125" style="36" customWidth="1"/>
+    <col min="2056" max="2056" width="34.28515625" style="36" customWidth="1"/>
     <col min="2057" max="2057" width="30" style="36" customWidth="1"/>
     <col min="2058" max="2058" width="31" style="36" customWidth="1"/>
     <col min="2059" max="2059" width="33" style="36" customWidth="1"/>
-    <col min="2060" max="2304" width="9.33203125" style="36"/>
-    <col min="2305" max="2305" width="5.44140625" style="36" customWidth="1"/>
-    <col min="2306" max="2306" width="18.33203125" style="36" customWidth="1"/>
-    <col min="2307" max="2307" width="69.6640625" style="36" customWidth="1"/>
-    <col min="2308" max="2308" width="65.33203125" style="36" customWidth="1"/>
-    <col min="2309" max="2309" width="56.5546875" style="36" customWidth="1"/>
+    <col min="2060" max="2304" width="9.28515625" style="36"/>
+    <col min="2305" max="2305" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2306" max="2306" width="18.28515625" style="36" customWidth="1"/>
+    <col min="2307" max="2307" width="69.7109375" style="36" customWidth="1"/>
+    <col min="2308" max="2308" width="65.28515625" style="36" customWidth="1"/>
+    <col min="2309" max="2309" width="56.5703125" style="36" customWidth="1"/>
     <col min="2310" max="2310" width="55" style="36" customWidth="1"/>
-    <col min="2311" max="2311" width="32.44140625" style="36" customWidth="1"/>
-    <col min="2312" max="2312" width="34.33203125" style="36" customWidth="1"/>
+    <col min="2311" max="2311" width="32.42578125" style="36" customWidth="1"/>
+    <col min="2312" max="2312" width="34.28515625" style="36" customWidth="1"/>
     <col min="2313" max="2313" width="30" style="36" customWidth="1"/>
     <col min="2314" max="2314" width="31" style="36" customWidth="1"/>
     <col min="2315" max="2315" width="33" style="36" customWidth="1"/>
-    <col min="2316" max="2560" width="9.33203125" style="36"/>
-    <col min="2561" max="2561" width="5.44140625" style="36" customWidth="1"/>
-    <col min="2562" max="2562" width="18.33203125" style="36" customWidth="1"/>
-    <col min="2563" max="2563" width="69.6640625" style="36" customWidth="1"/>
-    <col min="2564" max="2564" width="65.33203125" style="36" customWidth="1"/>
-    <col min="2565" max="2565" width="56.5546875" style="36" customWidth="1"/>
+    <col min="2316" max="2560" width="9.28515625" style="36"/>
+    <col min="2561" max="2561" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2562" max="2562" width="18.28515625" style="36" customWidth="1"/>
+    <col min="2563" max="2563" width="69.7109375" style="36" customWidth="1"/>
+    <col min="2564" max="2564" width="65.28515625" style="36" customWidth="1"/>
+    <col min="2565" max="2565" width="56.5703125" style="36" customWidth="1"/>
     <col min="2566" max="2566" width="55" style="36" customWidth="1"/>
-    <col min="2567" max="2567" width="32.44140625" style="36" customWidth="1"/>
-    <col min="2568" max="2568" width="34.33203125" style="36" customWidth="1"/>
+    <col min="2567" max="2567" width="32.42578125" style="36" customWidth="1"/>
+    <col min="2568" max="2568" width="34.28515625" style="36" customWidth="1"/>
     <col min="2569" max="2569" width="30" style="36" customWidth="1"/>
     <col min="2570" max="2570" width="31" style="36" customWidth="1"/>
     <col min="2571" max="2571" width="33" style="36" customWidth="1"/>
-    <col min="2572" max="2816" width="9.33203125" style="36"/>
-    <col min="2817" max="2817" width="5.44140625" style="36" customWidth="1"/>
-    <col min="2818" max="2818" width="18.33203125" style="36" customWidth="1"/>
-    <col min="2819" max="2819" width="69.6640625" style="36" customWidth="1"/>
-    <col min="2820" max="2820" width="65.33203125" style="36" customWidth="1"/>
-    <col min="2821" max="2821" width="56.5546875" style="36" customWidth="1"/>
+    <col min="2572" max="2816" width="9.28515625" style="36"/>
+    <col min="2817" max="2817" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2818" max="2818" width="18.28515625" style="36" customWidth="1"/>
+    <col min="2819" max="2819" width="69.7109375" style="36" customWidth="1"/>
+    <col min="2820" max="2820" width="65.28515625" style="36" customWidth="1"/>
+    <col min="2821" max="2821" width="56.5703125" style="36" customWidth="1"/>
     <col min="2822" max="2822" width="55" style="36" customWidth="1"/>
-    <col min="2823" max="2823" width="32.44140625" style="36" customWidth="1"/>
-    <col min="2824" max="2824" width="34.33203125" style="36" customWidth="1"/>
+    <col min="2823" max="2823" width="32.42578125" style="36" customWidth="1"/>
+    <col min="2824" max="2824" width="34.28515625" style="36" customWidth="1"/>
     <col min="2825" max="2825" width="30" style="36" customWidth="1"/>
     <col min="2826" max="2826" width="31" style="36" customWidth="1"/>
     <col min="2827" max="2827" width="33" style="36" customWidth="1"/>
-    <col min="2828" max="3072" width="9.33203125" style="36"/>
-    <col min="3073" max="3073" width="5.44140625" style="36" customWidth="1"/>
-    <col min="3074" max="3074" width="18.33203125" style="36" customWidth="1"/>
-    <col min="3075" max="3075" width="69.6640625" style="36" customWidth="1"/>
-    <col min="3076" max="3076" width="65.33203125" style="36" customWidth="1"/>
-    <col min="3077" max="3077" width="56.5546875" style="36" customWidth="1"/>
+    <col min="2828" max="3072" width="9.28515625" style="36"/>
+    <col min="3073" max="3073" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3074" max="3074" width="18.28515625" style="36" customWidth="1"/>
+    <col min="3075" max="3075" width="69.7109375" style="36" customWidth="1"/>
+    <col min="3076" max="3076" width="65.28515625" style="36" customWidth="1"/>
+    <col min="3077" max="3077" width="56.5703125" style="36" customWidth="1"/>
     <col min="3078" max="3078" width="55" style="36" customWidth="1"/>
-    <col min="3079" max="3079" width="32.44140625" style="36" customWidth="1"/>
-    <col min="3080" max="3080" width="34.33203125" style="36" customWidth="1"/>
+    <col min="3079" max="3079" width="32.42578125" style="36" customWidth="1"/>
+    <col min="3080" max="3080" width="34.28515625" style="36" customWidth="1"/>
     <col min="3081" max="3081" width="30" style="36" customWidth="1"/>
     <col min="3082" max="3082" width="31" style="36" customWidth="1"/>
     <col min="3083" max="3083" width="33" style="36" customWidth="1"/>
-    <col min="3084" max="3328" width="9.33203125" style="36"/>
-    <col min="3329" max="3329" width="5.44140625" style="36" customWidth="1"/>
-    <col min="3330" max="3330" width="18.33203125" style="36" customWidth="1"/>
-    <col min="3331" max="3331" width="69.6640625" style="36" customWidth="1"/>
-    <col min="3332" max="3332" width="65.33203125" style="36" customWidth="1"/>
-    <col min="3333" max="3333" width="56.5546875" style="36" customWidth="1"/>
+    <col min="3084" max="3328" width="9.28515625" style="36"/>
+    <col min="3329" max="3329" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3330" max="3330" width="18.28515625" style="36" customWidth="1"/>
+    <col min="3331" max="3331" width="69.7109375" style="36" customWidth="1"/>
+    <col min="3332" max="3332" width="65.28515625" style="36" customWidth="1"/>
+    <col min="3333" max="3333" width="56.5703125" style="36" customWidth="1"/>
     <col min="3334" max="3334" width="55" style="36" customWidth="1"/>
-    <col min="3335" max="3335" width="32.44140625" style="36" customWidth="1"/>
-    <col min="3336" max="3336" width="34.33203125" style="36" customWidth="1"/>
+    <col min="3335" max="3335" width="32.42578125" style="36" customWidth="1"/>
+    <col min="3336" max="3336" width="34.28515625" style="36" customWidth="1"/>
     <col min="3337" max="3337" width="30" style="36" customWidth="1"/>
     <col min="3338" max="3338" width="31" style="36" customWidth="1"/>
     <col min="3339" max="3339" width="33" style="36" customWidth="1"/>
-    <col min="3340" max="3584" width="9.33203125" style="36"/>
-    <col min="3585" max="3585" width="5.44140625" style="36" customWidth="1"/>
-    <col min="3586" max="3586" width="18.33203125" style="36" customWidth="1"/>
-    <col min="3587" max="3587" width="69.6640625" style="36" customWidth="1"/>
-    <col min="3588" max="3588" width="65.33203125" style="36" customWidth="1"/>
-    <col min="3589" max="3589" width="56.5546875" style="36" customWidth="1"/>
+    <col min="3340" max="3584" width="9.28515625" style="36"/>
+    <col min="3585" max="3585" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3586" max="3586" width="18.28515625" style="36" customWidth="1"/>
+    <col min="3587" max="3587" width="69.7109375" style="36" customWidth="1"/>
+    <col min="3588" max="3588" width="65.28515625" style="36" customWidth="1"/>
+    <col min="3589" max="3589" width="56.5703125" style="36" customWidth="1"/>
     <col min="3590" max="3590" width="55" style="36" customWidth="1"/>
-    <col min="3591" max="3591" width="32.44140625" style="36" customWidth="1"/>
-    <col min="3592" max="3592" width="34.33203125" style="36" customWidth="1"/>
+    <col min="3591" max="3591" width="32.42578125" style="36" customWidth="1"/>
+    <col min="3592" max="3592" width="34.28515625" style="36" customWidth="1"/>
     <col min="3593" max="3593" width="30" style="36" customWidth="1"/>
     <col min="3594" max="3594" width="31" style="36" customWidth="1"/>
     <col min="3595" max="3595" width="33" style="36" customWidth="1"/>
-    <col min="3596" max="3840" width="9.33203125" style="36"/>
-    <col min="3841" max="3841" width="5.44140625" style="36" customWidth="1"/>
-    <col min="3842" max="3842" width="18.33203125" style="36" customWidth="1"/>
-    <col min="3843" max="3843" width="69.6640625" style="36" customWidth="1"/>
-    <col min="3844" max="3844" width="65.33203125" style="36" customWidth="1"/>
-    <col min="3845" max="3845" width="56.5546875" style="36" customWidth="1"/>
+    <col min="3596" max="3840" width="9.28515625" style="36"/>
+    <col min="3841" max="3841" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3842" max="3842" width="18.28515625" style="36" customWidth="1"/>
+    <col min="3843" max="3843" width="69.7109375" style="36" customWidth="1"/>
+    <col min="3844" max="3844" width="65.28515625" style="36" customWidth="1"/>
+    <col min="3845" max="3845" width="56.5703125" style="36" customWidth="1"/>
     <col min="3846" max="3846" width="55" style="36" customWidth="1"/>
-    <col min="3847" max="3847" width="32.44140625" style="36" customWidth="1"/>
-    <col min="3848" max="3848" width="34.33203125" style="36" customWidth="1"/>
+    <col min="3847" max="3847" width="32.42578125" style="36" customWidth="1"/>
+    <col min="3848" max="3848" width="34.28515625" style="36" customWidth="1"/>
     <col min="3849" max="3849" width="30" style="36" customWidth="1"/>
     <col min="3850" max="3850" width="31" style="36" customWidth="1"/>
     <col min="3851" max="3851" width="33" style="36" customWidth="1"/>
-    <col min="3852" max="4096" width="9.33203125" style="36"/>
-    <col min="4097" max="4097" width="5.44140625" style="36" customWidth="1"/>
-    <col min="4098" max="4098" width="18.33203125" style="36" customWidth="1"/>
-    <col min="4099" max="4099" width="69.6640625" style="36" customWidth="1"/>
-    <col min="4100" max="4100" width="65.33203125" style="36" customWidth="1"/>
-    <col min="4101" max="4101" width="56.5546875" style="36" customWidth="1"/>
+    <col min="3852" max="4096" width="9.28515625" style="36"/>
+    <col min="4097" max="4097" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4098" max="4098" width="18.28515625" style="36" customWidth="1"/>
+    <col min="4099" max="4099" width="69.7109375" style="36" customWidth="1"/>
+    <col min="4100" max="4100" width="65.28515625" style="36" customWidth="1"/>
+    <col min="4101" max="4101" width="56.5703125" style="36" customWidth="1"/>
     <col min="4102" max="4102" width="55" style="36" customWidth="1"/>
-    <col min="4103" max="4103" width="32.44140625" style="36" customWidth="1"/>
-    <col min="4104" max="4104" width="34.33203125" style="36" customWidth="1"/>
+    <col min="4103" max="4103" width="32.42578125" style="36" customWidth="1"/>
+    <col min="4104" max="4104" width="34.28515625" style="36" customWidth="1"/>
     <col min="4105" max="4105" width="30" style="36" customWidth="1"/>
     <col min="4106" max="4106" width="31" style="36" customWidth="1"/>
     <col min="4107" max="4107" width="33" style="36" customWidth="1"/>
-    <col min="4108" max="4352" width="9.33203125" style="36"/>
-    <col min="4353" max="4353" width="5.44140625" style="36" customWidth="1"/>
-    <col min="4354" max="4354" width="18.33203125" style="36" customWidth="1"/>
-    <col min="4355" max="4355" width="69.6640625" style="36" customWidth="1"/>
-    <col min="4356" max="4356" width="65.33203125" style="36" customWidth="1"/>
-    <col min="4357" max="4357" width="56.5546875" style="36" customWidth="1"/>
+    <col min="4108" max="4352" width="9.28515625" style="36"/>
+    <col min="4353" max="4353" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4354" max="4354" width="18.28515625" style="36" customWidth="1"/>
+    <col min="4355" max="4355" width="69.7109375" style="36" customWidth="1"/>
+    <col min="4356" max="4356" width="65.28515625" style="36" customWidth="1"/>
+    <col min="4357" max="4357" width="56.5703125" style="36" customWidth="1"/>
     <col min="4358" max="4358" width="55" style="36" customWidth="1"/>
-    <col min="4359" max="4359" width="32.44140625" style="36" customWidth="1"/>
-    <col min="4360" max="4360" width="34.33203125" style="36" customWidth="1"/>
+    <col min="4359" max="4359" width="32.42578125" style="36" customWidth="1"/>
+    <col min="4360" max="4360" width="34.28515625" style="36" customWidth="1"/>
     <col min="4361" max="4361" width="30" style="36" customWidth="1"/>
     <col min="4362" max="4362" width="31" style="36" customWidth="1"/>
     <col min="4363" max="4363" width="33" style="36" customWidth="1"/>
-    <col min="4364" max="4608" width="9.33203125" style="36"/>
-    <col min="4609" max="4609" width="5.44140625" style="36" customWidth="1"/>
-    <col min="4610" max="4610" width="18.33203125" style="36" customWidth="1"/>
-    <col min="4611" max="4611" width="69.6640625" style="36" customWidth="1"/>
-    <col min="4612" max="4612" width="65.33203125" style="36" customWidth="1"/>
-    <col min="4613" max="4613" width="56.5546875" style="36" customWidth="1"/>
+    <col min="4364" max="4608" width="9.28515625" style="36"/>
+    <col min="4609" max="4609" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4610" max="4610" width="18.28515625" style="36" customWidth="1"/>
+    <col min="4611" max="4611" width="69.7109375" style="36" customWidth="1"/>
+    <col min="4612" max="4612" width="65.28515625" style="36" customWidth="1"/>
+    <col min="4613" max="4613" width="56.5703125" style="36" customWidth="1"/>
     <col min="4614" max="4614" width="55" style="36" customWidth="1"/>
-    <col min="4615" max="4615" width="32.44140625" style="36" customWidth="1"/>
-    <col min="4616" max="4616" width="34.33203125" style="36" customWidth="1"/>
+    <col min="4615" max="4615" width="32.42578125" style="36" customWidth="1"/>
+    <col min="4616" max="4616" width="34.28515625" style="36" customWidth="1"/>
     <col min="4617" max="4617" width="30" style="36" customWidth="1"/>
     <col min="4618" max="4618" width="31" style="36" customWidth="1"/>
     <col min="4619" max="4619" width="33" style="36" customWidth="1"/>
-    <col min="4620" max="4864" width="9.33203125" style="36"/>
-    <col min="4865" max="4865" width="5.44140625" style="36" customWidth="1"/>
-    <col min="4866" max="4866" width="18.33203125" style="36" customWidth="1"/>
-    <col min="4867" max="4867" width="69.6640625" style="36" customWidth="1"/>
-    <col min="4868" max="4868" width="65.33203125" style="36" customWidth="1"/>
-    <col min="4869" max="4869" width="56.5546875" style="36" customWidth="1"/>
+    <col min="4620" max="4864" width="9.28515625" style="36"/>
+    <col min="4865" max="4865" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4866" max="4866" width="18.28515625" style="36" customWidth="1"/>
+    <col min="4867" max="4867" width="69.7109375" style="36" customWidth="1"/>
+    <col min="4868" max="4868" width="65.28515625" style="36" customWidth="1"/>
+    <col min="4869" max="4869" width="56.5703125" style="36" customWidth="1"/>
     <col min="4870" max="4870" width="55" style="36" customWidth="1"/>
-    <col min="4871" max="4871" width="32.44140625" style="36" customWidth="1"/>
-    <col min="4872" max="4872" width="34.33203125" style="36" customWidth="1"/>
+    <col min="4871" max="4871" width="32.42578125" style="36" customWidth="1"/>
+    <col min="4872" max="4872" width="34.28515625" style="36" customWidth="1"/>
     <col min="4873" max="4873" width="30" style="36" customWidth="1"/>
     <col min="4874" max="4874" width="31" style="36" customWidth="1"/>
     <col min="4875" max="4875" width="33" style="36" customWidth="1"/>
-    <col min="4876" max="5120" width="9.33203125" style="36"/>
-    <col min="5121" max="5121" width="5.44140625" style="36" customWidth="1"/>
-    <col min="5122" max="5122" width="18.33203125" style="36" customWidth="1"/>
-    <col min="5123" max="5123" width="69.6640625" style="36" customWidth="1"/>
-    <col min="5124" max="5124" width="65.33203125" style="36" customWidth="1"/>
-    <col min="5125" max="5125" width="56.5546875" style="36" customWidth="1"/>
+    <col min="4876" max="5120" width="9.28515625" style="36"/>
+    <col min="5121" max="5121" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5122" max="5122" width="18.28515625" style="36" customWidth="1"/>
+    <col min="5123" max="5123" width="69.7109375" style="36" customWidth="1"/>
+    <col min="5124" max="5124" width="65.28515625" style="36" customWidth="1"/>
+    <col min="5125" max="5125" width="56.5703125" style="36" customWidth="1"/>
     <col min="5126" max="5126" width="55" style="36" customWidth="1"/>
-    <col min="5127" max="5127" width="32.44140625" style="36" customWidth="1"/>
-    <col min="5128" max="5128" width="34.33203125" style="36" customWidth="1"/>
+    <col min="5127" max="5127" width="32.42578125" style="36" customWidth="1"/>
+    <col min="5128" max="5128" width="34.28515625" style="36" customWidth="1"/>
     <col min="5129" max="5129" width="30" style="36" customWidth="1"/>
     <col min="5130" max="5130" width="31" style="36" customWidth="1"/>
     <col min="5131" max="5131" width="33" style="36" customWidth="1"/>
-    <col min="5132" max="5376" width="9.33203125" style="36"/>
-    <col min="5377" max="5377" width="5.44140625" style="36" customWidth="1"/>
-    <col min="5378" max="5378" width="18.33203125" style="36" customWidth="1"/>
-    <col min="5379" max="5379" width="69.6640625" style="36" customWidth="1"/>
-    <col min="5380" max="5380" width="65.33203125" style="36" customWidth="1"/>
-    <col min="5381" max="5381" width="56.5546875" style="36" customWidth="1"/>
+    <col min="5132" max="5376" width="9.28515625" style="36"/>
+    <col min="5377" max="5377" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5378" max="5378" width="18.28515625" style="36" customWidth="1"/>
+    <col min="5379" max="5379" width="69.7109375" style="36" customWidth="1"/>
+    <col min="5380" max="5380" width="65.28515625" style="36" customWidth="1"/>
+    <col min="5381" max="5381" width="56.5703125" style="36" customWidth="1"/>
     <col min="5382" max="5382" width="55" style="36" customWidth="1"/>
-    <col min="5383" max="5383" width="32.44140625" style="36" customWidth="1"/>
-    <col min="5384" max="5384" width="34.33203125" style="36" customWidth="1"/>
+    <col min="5383" max="5383" width="32.42578125" style="36" customWidth="1"/>
+    <col min="5384" max="5384" width="34.28515625" style="36" customWidth="1"/>
     <col min="5385" max="5385" width="30" style="36" customWidth="1"/>
     <col min="5386" max="5386" width="31" style="36" customWidth="1"/>
     <col min="5387" max="5387" width="33" style="36" customWidth="1"/>
-    <col min="5388" max="5632" width="9.33203125" style="36"/>
-    <col min="5633" max="5633" width="5.44140625" style="36" customWidth="1"/>
-    <col min="5634" max="5634" width="18.33203125" style="36" customWidth="1"/>
-    <col min="5635" max="5635" width="69.6640625" style="36" customWidth="1"/>
-    <col min="5636" max="5636" width="65.33203125" style="36" customWidth="1"/>
-    <col min="5637" max="5637" width="56.5546875" style="36" customWidth="1"/>
+    <col min="5388" max="5632" width="9.28515625" style="36"/>
+    <col min="5633" max="5633" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5634" max="5634" width="18.28515625" style="36" customWidth="1"/>
+    <col min="5635" max="5635" width="69.7109375" style="36" customWidth="1"/>
+    <col min="5636" max="5636" width="65.28515625" style="36" customWidth="1"/>
+    <col min="5637" max="5637" width="56.5703125" style="36" customWidth="1"/>
     <col min="5638" max="5638" width="55" style="36" customWidth="1"/>
-    <col min="5639" max="5639" width="32.44140625" style="36" customWidth="1"/>
-    <col min="5640" max="5640" width="34.33203125" style="36" customWidth="1"/>
+    <col min="5639" max="5639" width="32.42578125" style="36" customWidth="1"/>
+    <col min="5640" max="5640" width="34.28515625" style="36" customWidth="1"/>
     <col min="5641" max="5641" width="30" style="36" customWidth="1"/>
     <col min="5642" max="5642" width="31" style="36" customWidth="1"/>
     <col min="5643" max="5643" width="33" style="36" customWidth="1"/>
-    <col min="5644" max="5888" width="9.33203125" style="36"/>
-    <col min="5889" max="5889" width="5.44140625" style="36" customWidth="1"/>
-    <col min="5890" max="5890" width="18.33203125" style="36" customWidth="1"/>
-    <col min="5891" max="5891" width="69.6640625" style="36" customWidth="1"/>
-    <col min="5892" max="5892" width="65.33203125" style="36" customWidth="1"/>
-    <col min="5893" max="5893" width="56.5546875" style="36" customWidth="1"/>
+    <col min="5644" max="5888" width="9.28515625" style="36"/>
+    <col min="5889" max="5889" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5890" max="5890" width="18.28515625" style="36" customWidth="1"/>
+    <col min="5891" max="5891" width="69.7109375" style="36" customWidth="1"/>
+    <col min="5892" max="5892" width="65.28515625" style="36" customWidth="1"/>
+    <col min="5893" max="5893" width="56.5703125" style="36" customWidth="1"/>
     <col min="5894" max="5894" width="55" style="36" customWidth="1"/>
-    <col min="5895" max="5895" width="32.44140625" style="36" customWidth="1"/>
-    <col min="5896" max="5896" width="34.33203125" style="36" customWidth="1"/>
+    <col min="5895" max="5895" width="32.42578125" style="36" customWidth="1"/>
+    <col min="5896" max="5896" width="34.28515625" style="36" customWidth="1"/>
     <col min="5897" max="5897" width="30" style="36" customWidth="1"/>
     <col min="5898" max="5898" width="31" style="36" customWidth="1"/>
     <col min="5899" max="5899" width="33" style="36" customWidth="1"/>
-    <col min="5900" max="6144" width="9.33203125" style="36"/>
-    <col min="6145" max="6145" width="5.44140625" style="36" customWidth="1"/>
-    <col min="6146" max="6146" width="18.33203125" style="36" customWidth="1"/>
-    <col min="6147" max="6147" width="69.6640625" style="36" customWidth="1"/>
-    <col min="6148" max="6148" width="65.33203125" style="36" customWidth="1"/>
-    <col min="6149" max="6149" width="56.5546875" style="36" customWidth="1"/>
+    <col min="5900" max="6144" width="9.28515625" style="36"/>
+    <col min="6145" max="6145" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6146" max="6146" width="18.28515625" style="36" customWidth="1"/>
+    <col min="6147" max="6147" width="69.7109375" style="36" customWidth="1"/>
+    <col min="6148" max="6148" width="65.28515625" style="36" customWidth="1"/>
+    <col min="6149" max="6149" width="56.5703125" style="36" customWidth="1"/>
     <col min="6150" max="6150" width="55" style="36" customWidth="1"/>
-    <col min="6151" max="6151" width="32.44140625" style="36" customWidth="1"/>
-    <col min="6152" max="6152" width="34.33203125" style="36" customWidth="1"/>
+    <col min="6151" max="6151" width="32.42578125" style="36" customWidth="1"/>
+    <col min="6152" max="6152" width="34.28515625" style="36" customWidth="1"/>
     <col min="6153" max="6153" width="30" style="36" customWidth="1"/>
     <col min="6154" max="6154" width="31" style="36" customWidth="1"/>
     <col min="6155" max="6155" width="33" style="36" customWidth="1"/>
-    <col min="6156" max="6400" width="9.33203125" style="36"/>
-    <col min="6401" max="6401" width="5.44140625" style="36" customWidth="1"/>
-    <col min="6402" max="6402" width="18.33203125" style="36" customWidth="1"/>
-    <col min="6403" max="6403" width="69.6640625" style="36" customWidth="1"/>
-    <col min="6404" max="6404" width="65.33203125" style="36" customWidth="1"/>
-    <col min="6405" max="6405" width="56.5546875" style="36" customWidth="1"/>
+    <col min="6156" max="6400" width="9.28515625" style="36"/>
+    <col min="6401" max="6401" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6402" max="6402" width="18.28515625" style="36" customWidth="1"/>
+    <col min="6403" max="6403" width="69.7109375" style="36" customWidth="1"/>
+    <col min="6404" max="6404" width="65.28515625" style="36" customWidth="1"/>
+    <col min="6405" max="6405" width="56.5703125" style="36" customWidth="1"/>
     <col min="6406" max="6406" width="55" style="36" customWidth="1"/>
-    <col min="6407" max="6407" width="32.44140625" style="36" customWidth="1"/>
-    <col min="6408" max="6408" width="34.33203125" style="36" customWidth="1"/>
+    <col min="6407" max="6407" width="32.42578125" style="36" customWidth="1"/>
+    <col min="6408" max="6408" width="34.28515625" style="36" customWidth="1"/>
     <col min="6409" max="6409" width="30" style="36" customWidth="1"/>
     <col min="6410" max="6410" width="31" style="36" customWidth="1"/>
     <col min="6411" max="6411" width="33" style="36" customWidth="1"/>
-    <col min="6412" max="6656" width="9.33203125" style="36"/>
-    <col min="6657" max="6657" width="5.44140625" style="36" customWidth="1"/>
-    <col min="6658" max="6658" width="18.33203125" style="36" customWidth="1"/>
-    <col min="6659" max="6659" width="69.6640625" style="36" customWidth="1"/>
-    <col min="6660" max="6660" width="65.33203125" style="36" customWidth="1"/>
-    <col min="6661" max="6661" width="56.5546875" style="36" customWidth="1"/>
+    <col min="6412" max="6656" width="9.28515625" style="36"/>
+    <col min="6657" max="6657" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6658" max="6658" width="18.28515625" style="36" customWidth="1"/>
+    <col min="6659" max="6659" width="69.7109375" style="36" customWidth="1"/>
+    <col min="6660" max="6660" width="65.28515625" style="36" customWidth="1"/>
+    <col min="6661" max="6661" width="56.5703125" style="36" customWidth="1"/>
     <col min="6662" max="6662" width="55" style="36" customWidth="1"/>
-    <col min="6663" max="6663" width="32.44140625" style="36" customWidth="1"/>
-    <col min="6664" max="6664" width="34.33203125" style="36" customWidth="1"/>
+    <col min="6663" max="6663" width="32.42578125" style="36" customWidth="1"/>
+    <col min="6664" max="6664" width="34.28515625" style="36" customWidth="1"/>
     <col min="6665" max="6665" width="30" style="36" customWidth="1"/>
     <col min="6666" max="6666" width="31" style="36" customWidth="1"/>
     <col min="6667" max="6667" width="33" style="36" customWidth="1"/>
-    <col min="6668" max="6912" width="9.33203125" style="36"/>
-    <col min="6913" max="6913" width="5.44140625" style="36" customWidth="1"/>
-    <col min="6914" max="6914" width="18.33203125" style="36" customWidth="1"/>
-    <col min="6915" max="6915" width="69.6640625" style="36" customWidth="1"/>
-    <col min="6916" max="6916" width="65.33203125" style="36" customWidth="1"/>
-    <col min="6917" max="6917" width="56.5546875" style="36" customWidth="1"/>
+    <col min="6668" max="6912" width="9.28515625" style="36"/>
+    <col min="6913" max="6913" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6914" max="6914" width="18.28515625" style="36" customWidth="1"/>
+    <col min="6915" max="6915" width="69.7109375" style="36" customWidth="1"/>
+    <col min="6916" max="6916" width="65.28515625" style="36" customWidth="1"/>
+    <col min="6917" max="6917" width="56.5703125" style="36" customWidth="1"/>
     <col min="6918" max="6918" width="55" style="36" customWidth="1"/>
-    <col min="6919" max="6919" width="32.44140625" style="36" customWidth="1"/>
-    <col min="6920" max="6920" width="34.33203125" style="36" customWidth="1"/>
+    <col min="6919" max="6919" width="32.42578125" style="36" customWidth="1"/>
+    <col min="6920" max="6920" width="34.28515625" style="36" customWidth="1"/>
     <col min="6921" max="6921" width="30" style="36" customWidth="1"/>
     <col min="6922" max="6922" width="31" style="36" customWidth="1"/>
     <col min="6923" max="6923" width="33" style="36" customWidth="1"/>
-    <col min="6924" max="7168" width="9.33203125" style="36"/>
-    <col min="7169" max="7169" width="5.44140625" style="36" customWidth="1"/>
-    <col min="7170" max="7170" width="18.33203125" style="36" customWidth="1"/>
-    <col min="7171" max="7171" width="69.6640625" style="36" customWidth="1"/>
-    <col min="7172" max="7172" width="65.33203125" style="36" customWidth="1"/>
-    <col min="7173" max="7173" width="56.5546875" style="36" customWidth="1"/>
+    <col min="6924" max="7168" width="9.28515625" style="36"/>
+    <col min="7169" max="7169" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7170" max="7170" width="18.28515625" style="36" customWidth="1"/>
+    <col min="7171" max="7171" width="69.7109375" style="36" customWidth="1"/>
+    <col min="7172" max="7172" width="65.28515625" style="36" customWidth="1"/>
+    <col min="7173" max="7173" width="56.5703125" style="36" customWidth="1"/>
     <col min="7174" max="7174" width="55" style="36" customWidth="1"/>
-    <col min="7175" max="7175" width="32.44140625" style="36" customWidth="1"/>
-    <col min="7176" max="7176" width="34.33203125" style="36" customWidth="1"/>
+    <col min="7175" max="7175" width="32.42578125" style="36" customWidth="1"/>
+    <col min="7176" max="7176" width="34.28515625" style="36" customWidth="1"/>
     <col min="7177" max="7177" width="30" style="36" customWidth="1"/>
     <col min="7178" max="7178" width="31" style="36" customWidth="1"/>
     <col min="7179" max="7179" width="33" style="36" customWidth="1"/>
-    <col min="7180" max="7424" width="9.33203125" style="36"/>
-    <col min="7425" max="7425" width="5.44140625" style="36" customWidth="1"/>
-    <col min="7426" max="7426" width="18.33203125" style="36" customWidth="1"/>
-    <col min="7427" max="7427" width="69.6640625" style="36" customWidth="1"/>
-    <col min="7428" max="7428" width="65.33203125" style="36" customWidth="1"/>
-    <col min="7429" max="7429" width="56.5546875" style="36" customWidth="1"/>
+    <col min="7180" max="7424" width="9.28515625" style="36"/>
+    <col min="7425" max="7425" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7426" max="7426" width="18.28515625" style="36" customWidth="1"/>
+    <col min="7427" max="7427" width="69.7109375" style="36" customWidth="1"/>
+    <col min="7428" max="7428" width="65.28515625" style="36" customWidth="1"/>
+    <col min="7429" max="7429" width="56.5703125" style="36" customWidth="1"/>
     <col min="7430" max="7430" width="55" style="36" customWidth="1"/>
-    <col min="7431" max="7431" width="32.44140625" style="36" customWidth="1"/>
-    <col min="7432" max="7432" width="34.33203125" style="36" customWidth="1"/>
+    <col min="7431" max="7431" width="32.42578125" style="36" customWidth="1"/>
+    <col min="7432" max="7432" width="34.28515625" style="36" customWidth="1"/>
     <col min="7433" max="7433" width="30" style="36" customWidth="1"/>
     <col min="7434" max="7434" width="31" style="36" customWidth="1"/>
     <col min="7435" max="7435" width="33" style="36" customWidth="1"/>
-    <col min="7436" max="7680" width="9.33203125" style="36"/>
-    <col min="7681" max="7681" width="5.44140625" style="36" customWidth="1"/>
-    <col min="7682" max="7682" width="18.33203125" style="36" customWidth="1"/>
-    <col min="7683" max="7683" width="69.6640625" style="36" customWidth="1"/>
-    <col min="7684" max="7684" width="65.33203125" style="36" customWidth="1"/>
-    <col min="7685" max="7685" width="56.5546875" style="36" customWidth="1"/>
+    <col min="7436" max="7680" width="9.28515625" style="36"/>
+    <col min="7681" max="7681" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7682" max="7682" width="18.28515625" style="36" customWidth="1"/>
+    <col min="7683" max="7683" width="69.7109375" style="36" customWidth="1"/>
+    <col min="7684" max="7684" width="65.28515625" style="36" customWidth="1"/>
+    <col min="7685" max="7685" width="56.5703125" style="36" customWidth="1"/>
     <col min="7686" max="7686" width="55" style="36" customWidth="1"/>
-    <col min="7687" max="7687" width="32.44140625" style="36" customWidth="1"/>
-    <col min="7688" max="7688" width="34.33203125" style="36" customWidth="1"/>
+    <col min="7687" max="7687" width="32.42578125" style="36" customWidth="1"/>
+    <col min="7688" max="7688" width="34.28515625" style="36" customWidth="1"/>
     <col min="7689" max="7689" width="30" style="36" customWidth="1"/>
     <col min="7690" max="7690" width="31" style="36" customWidth="1"/>
     <col min="7691" max="7691" width="33" style="36" customWidth="1"/>
-    <col min="7692" max="7936" width="9.33203125" style="36"/>
-    <col min="7937" max="7937" width="5.44140625" style="36" customWidth="1"/>
-    <col min="7938" max="7938" width="18.33203125" style="36" customWidth="1"/>
-    <col min="7939" max="7939" width="69.6640625" style="36" customWidth="1"/>
-    <col min="7940" max="7940" width="65.33203125" style="36" customWidth="1"/>
-    <col min="7941" max="7941" width="56.5546875" style="36" customWidth="1"/>
+    <col min="7692" max="7936" width="9.28515625" style="36"/>
+    <col min="7937" max="7937" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7938" max="7938" width="18.28515625" style="36" customWidth="1"/>
+    <col min="7939" max="7939" width="69.7109375" style="36" customWidth="1"/>
+    <col min="7940" max="7940" width="65.28515625" style="36" customWidth="1"/>
+    <col min="7941" max="7941" width="56.5703125" style="36" customWidth="1"/>
     <col min="7942" max="7942" width="55" style="36" customWidth="1"/>
-    <col min="7943" max="7943" width="32.44140625" style="36" customWidth="1"/>
-    <col min="7944" max="7944" width="34.33203125" style="36" customWidth="1"/>
+    <col min="7943" max="7943" width="32.42578125" style="36" customWidth="1"/>
+    <col min="7944" max="7944" width="34.28515625" style="36" customWidth="1"/>
     <col min="7945" max="7945" width="30" style="36" customWidth="1"/>
     <col min="7946" max="7946" width="31" style="36" customWidth="1"/>
     <col min="7947" max="7947" width="33" style="36" customWidth="1"/>
-    <col min="7948" max="8192" width="9.33203125" style="36"/>
-    <col min="8193" max="8193" width="5.44140625" style="36" customWidth="1"/>
-    <col min="8194" max="8194" width="18.33203125" style="36" customWidth="1"/>
-    <col min="8195" max="8195" width="69.6640625" style="36" customWidth="1"/>
-    <col min="8196" max="8196" width="65.33203125" style="36" customWidth="1"/>
-    <col min="8197" max="8197" width="56.5546875" style="36" customWidth="1"/>
+    <col min="7948" max="8192" width="9.28515625" style="36"/>
+    <col min="8193" max="8193" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8194" max="8194" width="18.28515625" style="36" customWidth="1"/>
+    <col min="8195" max="8195" width="69.7109375" style="36" customWidth="1"/>
+    <col min="8196" max="8196" width="65.28515625" style="36" customWidth="1"/>
+    <col min="8197" max="8197" width="56.5703125" style="36" customWidth="1"/>
     <col min="8198" max="8198" width="55" style="36" customWidth="1"/>
-    <col min="8199" max="8199" width="32.44140625" style="36" customWidth="1"/>
-    <col min="8200" max="8200" width="34.33203125" style="36" customWidth="1"/>
+    <col min="8199" max="8199" width="32.42578125" style="36" customWidth="1"/>
+    <col min="8200" max="8200" width="34.28515625" style="36" customWidth="1"/>
     <col min="8201" max="8201" width="30" style="36" customWidth="1"/>
     <col min="8202" max="8202" width="31" style="36" customWidth="1"/>
     <col min="8203" max="8203" width="33" style="36" customWidth="1"/>
-    <col min="8204" max="8448" width="9.33203125" style="36"/>
-    <col min="8449" max="8449" width="5.44140625" style="36" customWidth="1"/>
-    <col min="8450" max="8450" width="18.33203125" style="36" customWidth="1"/>
-    <col min="8451" max="8451" width="69.6640625" style="36" customWidth="1"/>
-    <col min="8452" max="8452" width="65.33203125" style="36" customWidth="1"/>
-    <col min="8453" max="8453" width="56.5546875" style="36" customWidth="1"/>
+    <col min="8204" max="8448" width="9.28515625" style="36"/>
+    <col min="8449" max="8449" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8450" max="8450" width="18.28515625" style="36" customWidth="1"/>
+    <col min="8451" max="8451" width="69.7109375" style="36" customWidth="1"/>
+    <col min="8452" max="8452" width="65.28515625" style="36" customWidth="1"/>
+    <col min="8453" max="8453" width="56.5703125" style="36" customWidth="1"/>
     <col min="8454" max="8454" width="55" style="36" customWidth="1"/>
-    <col min="8455" max="8455" width="32.44140625" style="36" customWidth="1"/>
-    <col min="8456" max="8456" width="34.33203125" style="36" customWidth="1"/>
+    <col min="8455" max="8455" width="32.42578125" style="36" customWidth="1"/>
+    <col min="8456" max="8456" width="34.28515625" style="36" customWidth="1"/>
     <col min="8457" max="8457" width="30" style="36" customWidth="1"/>
     <col min="8458" max="8458" width="31" style="36" customWidth="1"/>
     <col min="8459" max="8459" width="33" style="36" customWidth="1"/>
-    <col min="8460" max="8704" width="9.33203125" style="36"/>
-    <col min="8705" max="8705" width="5.44140625" style="36" customWidth="1"/>
-    <col min="8706" max="8706" width="18.33203125" style="36" customWidth="1"/>
-    <col min="8707" max="8707" width="69.6640625" style="36" customWidth="1"/>
-    <col min="8708" max="8708" width="65.33203125" style="36" customWidth="1"/>
-    <col min="8709" max="8709" width="56.5546875" style="36" customWidth="1"/>
+    <col min="8460" max="8704" width="9.28515625" style="36"/>
+    <col min="8705" max="8705" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8706" max="8706" width="18.28515625" style="36" customWidth="1"/>
+    <col min="8707" max="8707" width="69.7109375" style="36" customWidth="1"/>
+    <col min="8708" max="8708" width="65.28515625" style="36" customWidth="1"/>
+    <col min="8709" max="8709" width="56.5703125" style="36" customWidth="1"/>
     <col min="8710" max="8710" width="55" style="36" customWidth="1"/>
-    <col min="8711" max="8711" width="32.44140625" style="36" customWidth="1"/>
-    <col min="8712" max="8712" width="34.33203125" style="36" customWidth="1"/>
+    <col min="8711" max="8711" width="32.42578125" style="36" customWidth="1"/>
+    <col min="8712" max="8712" width="34.28515625" style="36" customWidth="1"/>
     <col min="8713" max="8713" width="30" style="36" customWidth="1"/>
     <col min="8714" max="8714" width="31" style="36" customWidth="1"/>
     <col min="8715" max="8715" width="33" style="36" customWidth="1"/>
-    <col min="8716" max="8960" width="9.33203125" style="36"/>
-    <col min="8961" max="8961" width="5.44140625" style="36" customWidth="1"/>
-    <col min="8962" max="8962" width="18.33203125" style="36" customWidth="1"/>
-    <col min="8963" max="8963" width="69.6640625" style="36" customWidth="1"/>
-    <col min="8964" max="8964" width="65.33203125" style="36" customWidth="1"/>
-    <col min="8965" max="8965" width="56.5546875" style="36" customWidth="1"/>
+    <col min="8716" max="8960" width="9.28515625" style="36"/>
+    <col min="8961" max="8961" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8962" max="8962" width="18.28515625" style="36" customWidth="1"/>
+    <col min="8963" max="8963" width="69.7109375" style="36" customWidth="1"/>
+    <col min="8964" max="8964" width="65.28515625" style="36" customWidth="1"/>
+    <col min="8965" max="8965" width="56.5703125" style="36" customWidth="1"/>
     <col min="8966" max="8966" width="55" style="36" customWidth="1"/>
-    <col min="8967" max="8967" width="32.44140625" style="36" customWidth="1"/>
-    <col min="8968" max="8968" width="34.33203125" style="36" customWidth="1"/>
+    <col min="8967" max="8967" width="32.42578125" style="36" customWidth="1"/>
+    <col min="8968" max="8968" width="34.28515625" style="36" customWidth="1"/>
     <col min="8969" max="8969" width="30" style="36" customWidth="1"/>
     <col min="8970" max="8970" width="31" style="36" customWidth="1"/>
     <col min="8971" max="8971" width="33" style="36" customWidth="1"/>
-    <col min="8972" max="9216" width="9.33203125" style="36"/>
-    <col min="9217" max="9217" width="5.44140625" style="36" customWidth="1"/>
-    <col min="9218" max="9218" width="18.33203125" style="36" customWidth="1"/>
-    <col min="9219" max="9219" width="69.6640625" style="36" customWidth="1"/>
-    <col min="9220" max="9220" width="65.33203125" style="36" customWidth="1"/>
-    <col min="9221" max="9221" width="56.5546875" style="36" customWidth="1"/>
+    <col min="8972" max="9216" width="9.28515625" style="36"/>
+    <col min="9217" max="9217" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9218" max="9218" width="18.28515625" style="36" customWidth="1"/>
+    <col min="9219" max="9219" width="69.7109375" style="36" customWidth="1"/>
+    <col min="9220" max="9220" width="65.28515625" style="36" customWidth="1"/>
+    <col min="9221" max="9221" width="56.5703125" style="36" customWidth="1"/>
     <col min="9222" max="9222" width="55" style="36" customWidth="1"/>
-    <col min="9223" max="9223" width="32.44140625" style="36" customWidth="1"/>
-    <col min="9224" max="9224" width="34.33203125" style="36" customWidth="1"/>
+    <col min="9223" max="9223" width="32.42578125" style="36" customWidth="1"/>
+    <col min="9224" max="9224" width="34.28515625" style="36" customWidth="1"/>
     <col min="9225" max="9225" width="30" style="36" customWidth="1"/>
     <col min="9226" max="9226" width="31" style="36" customWidth="1"/>
     <col min="9227" max="9227" width="33" style="36" customWidth="1"/>
-    <col min="9228" max="9472" width="9.33203125" style="36"/>
-    <col min="9473" max="9473" width="5.44140625" style="36" customWidth="1"/>
-    <col min="9474" max="9474" width="18.33203125" style="36" customWidth="1"/>
-    <col min="9475" max="9475" width="69.6640625" style="36" customWidth="1"/>
-    <col min="9476" max="9476" width="65.33203125" style="36" customWidth="1"/>
-    <col min="9477" max="9477" width="56.5546875" style="36" customWidth="1"/>
+    <col min="9228" max="9472" width="9.28515625" style="36"/>
+    <col min="9473" max="9473" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9474" max="9474" width="18.28515625" style="36" customWidth="1"/>
+    <col min="9475" max="9475" width="69.7109375" style="36" customWidth="1"/>
+    <col min="9476" max="9476" width="65.28515625" style="36" customWidth="1"/>
+    <col min="9477" max="9477" width="56.5703125" style="36" customWidth="1"/>
     <col min="9478" max="9478" width="55" style="36" customWidth="1"/>
-    <col min="9479" max="9479" width="32.44140625" style="36" customWidth="1"/>
-    <col min="9480" max="9480" width="34.33203125" style="36" customWidth="1"/>
+    <col min="9479" max="9479" width="32.42578125" style="36" customWidth="1"/>
+    <col min="9480" max="9480" width="34.28515625" style="36" customWidth="1"/>
     <col min="9481" max="9481" width="30" style="36" customWidth="1"/>
     <col min="9482" max="9482" width="31" style="36" customWidth="1"/>
     <col min="9483" max="9483" width="33" style="36" customWidth="1"/>
-    <col min="9484" max="9728" width="9.33203125" style="36"/>
-    <col min="9729" max="9729" width="5.44140625" style="36" customWidth="1"/>
-    <col min="9730" max="9730" width="18.33203125" style="36" customWidth="1"/>
-    <col min="9731" max="9731" width="69.6640625" style="36" customWidth="1"/>
-    <col min="9732" max="9732" width="65.33203125" style="36" customWidth="1"/>
-    <col min="9733" max="9733" width="56.5546875" style="36" customWidth="1"/>
+    <col min="9484" max="9728" width="9.28515625" style="36"/>
+    <col min="9729" max="9729" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9730" max="9730" width="18.28515625" style="36" customWidth="1"/>
+    <col min="9731" max="9731" width="69.7109375" style="36" customWidth="1"/>
+    <col min="9732" max="9732" width="65.28515625" style="36" customWidth="1"/>
+    <col min="9733" max="9733" width="56.5703125" style="36" customWidth="1"/>
     <col min="9734" max="9734" width="55" style="36" customWidth="1"/>
-    <col min="9735" max="9735" width="32.44140625" style="36" customWidth="1"/>
-    <col min="9736" max="9736" width="34.33203125" style="36" customWidth="1"/>
+    <col min="9735" max="9735" width="32.42578125" style="36" customWidth="1"/>
+    <col min="9736" max="9736" width="34.28515625" style="36" customWidth="1"/>
     <col min="9737" max="9737" width="30" style="36" customWidth="1"/>
     <col min="9738" max="9738" width="31" style="36" customWidth="1"/>
     <col min="9739" max="9739" width="33" style="36" customWidth="1"/>
-    <col min="9740" max="9984" width="9.33203125" style="36"/>
-    <col min="9985" max="9985" width="5.44140625" style="36" customWidth="1"/>
-    <col min="9986" max="9986" width="18.33203125" style="36" customWidth="1"/>
-    <col min="9987" max="9987" width="69.6640625" style="36" customWidth="1"/>
-    <col min="9988" max="9988" width="65.33203125" style="36" customWidth="1"/>
-    <col min="9989" max="9989" width="56.5546875" style="36" customWidth="1"/>
+    <col min="9740" max="9984" width="9.28515625" style="36"/>
+    <col min="9985" max="9985" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9986" max="9986" width="18.28515625" style="36" customWidth="1"/>
+    <col min="9987" max="9987" width="69.7109375" style="36" customWidth="1"/>
+    <col min="9988" max="9988" width="65.28515625" style="36" customWidth="1"/>
+    <col min="9989" max="9989" width="56.5703125" style="36" customWidth="1"/>
     <col min="9990" max="9990" width="55" style="36" customWidth="1"/>
-    <col min="9991" max="9991" width="32.44140625" style="36" customWidth="1"/>
-    <col min="9992" max="9992" width="34.33203125" style="36" customWidth="1"/>
+    <col min="9991" max="9991" width="32.42578125" style="36" customWidth="1"/>
+    <col min="9992" max="9992" width="34.28515625" style="36" customWidth="1"/>
     <col min="9993" max="9993" width="30" style="36" customWidth="1"/>
     <col min="9994" max="9994" width="31" style="36" customWidth="1"/>
     <col min="9995" max="9995" width="33" style="36" customWidth="1"/>
-    <col min="9996" max="10240" width="9.33203125" style="36"/>
-    <col min="10241" max="10241" width="5.44140625" style="36" customWidth="1"/>
-    <col min="10242" max="10242" width="18.33203125" style="36" customWidth="1"/>
-    <col min="10243" max="10243" width="69.6640625" style="36" customWidth="1"/>
-    <col min="10244" max="10244" width="65.33203125" style="36" customWidth="1"/>
-    <col min="10245" max="10245" width="56.5546875" style="36" customWidth="1"/>
+    <col min="9996" max="10240" width="9.28515625" style="36"/>
+    <col min="10241" max="10241" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10242" max="10242" width="18.28515625" style="36" customWidth="1"/>
+    <col min="10243" max="10243" width="69.7109375" style="36" customWidth="1"/>
+    <col min="10244" max="10244" width="65.28515625" style="36" customWidth="1"/>
+    <col min="10245" max="10245" width="56.5703125" style="36" customWidth="1"/>
     <col min="10246" max="10246" width="55" style="36" customWidth="1"/>
-    <col min="10247" max="10247" width="32.44140625" style="36" customWidth="1"/>
-    <col min="10248" max="10248" width="34.33203125" style="36" customWidth="1"/>
+    <col min="10247" max="10247" width="32.42578125" style="36" customWidth="1"/>
+    <col min="10248" max="10248" width="34.28515625" style="36" customWidth="1"/>
     <col min="10249" max="10249" width="30" style="36" customWidth="1"/>
     <col min="10250" max="10250" width="31" style="36" customWidth="1"/>
     <col min="10251" max="10251" width="33" style="36" customWidth="1"/>
-    <col min="10252" max="10496" width="9.33203125" style="36"/>
-    <col min="10497" max="10497" width="5.44140625" style="36" customWidth="1"/>
-    <col min="10498" max="10498" width="18.33203125" style="36" customWidth="1"/>
-    <col min="10499" max="10499" width="69.6640625" style="36" customWidth="1"/>
-    <col min="10500" max="10500" width="65.33203125" style="36" customWidth="1"/>
-    <col min="10501" max="10501" width="56.5546875" style="36" customWidth="1"/>
+    <col min="10252" max="10496" width="9.28515625" style="36"/>
+    <col min="10497" max="10497" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10498" max="10498" width="18.28515625" style="36" customWidth="1"/>
+    <col min="10499" max="10499" width="69.7109375" style="36" customWidth="1"/>
+    <col min="10500" max="10500" width="65.28515625" style="36" customWidth="1"/>
+    <col min="10501" max="10501" width="56.5703125" style="36" customWidth="1"/>
     <col min="10502" max="10502" width="55" style="36" customWidth="1"/>
-    <col min="10503" max="10503" width="32.44140625" style="36" customWidth="1"/>
-    <col min="10504" max="10504" width="34.33203125" style="36" customWidth="1"/>
+    <col min="10503" max="10503" width="32.42578125" style="36" customWidth="1"/>
+    <col min="10504" max="10504" width="34.28515625" style="36" customWidth="1"/>
     <col min="10505" max="10505" width="30" style="36" customWidth="1"/>
     <col min="10506" max="10506" width="31" style="36" customWidth="1"/>
     <col min="10507" max="10507" width="33" style="36" customWidth="1"/>
-    <col min="10508" max="10752" width="9.33203125" style="36"/>
-    <col min="10753" max="10753" width="5.44140625" style="36" customWidth="1"/>
-    <col min="10754" max="10754" width="18.33203125" style="36" customWidth="1"/>
-    <col min="10755" max="10755" width="69.6640625" style="36" customWidth="1"/>
-    <col min="10756" max="10756" width="65.33203125" style="36" customWidth="1"/>
-    <col min="10757" max="10757" width="56.5546875" style="36" customWidth="1"/>
+    <col min="10508" max="10752" width="9.28515625" style="36"/>
+    <col min="10753" max="10753" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10754" max="10754" width="18.28515625" style="36" customWidth="1"/>
+    <col min="10755" max="10755" width="69.7109375" style="36" customWidth="1"/>
+    <col min="10756" max="10756" width="65.28515625" style="36" customWidth="1"/>
+    <col min="10757" max="10757" width="56.5703125" style="36" customWidth="1"/>
     <col min="10758" max="10758" width="55" style="36" customWidth="1"/>
-    <col min="10759" max="10759" width="32.44140625" style="36" customWidth="1"/>
-    <col min="10760" max="10760" width="34.33203125" style="36" customWidth="1"/>
+    <col min="10759" max="10759" width="32.42578125" style="36" customWidth="1"/>
+    <col min="10760" max="10760" width="34.28515625" style="36" customWidth="1"/>
     <col min="10761" max="10761" width="30" style="36" customWidth="1"/>
     <col min="10762" max="10762" width="31" style="36" customWidth="1"/>
     <col min="10763" max="10763" width="33" style="36" customWidth="1"/>
-    <col min="10764" max="11008" width="9.33203125" style="36"/>
-    <col min="11009" max="11009" width="5.44140625" style="36" customWidth="1"/>
-    <col min="11010" max="11010" width="18.33203125" style="36" customWidth="1"/>
-    <col min="11011" max="11011" width="69.6640625" style="36" customWidth="1"/>
-    <col min="11012" max="11012" width="65.33203125" style="36" customWidth="1"/>
-    <col min="11013" max="11013" width="56.5546875" style="36" customWidth="1"/>
+    <col min="10764" max="11008" width="9.28515625" style="36"/>
+    <col min="11009" max="11009" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11010" max="11010" width="18.28515625" style="36" customWidth="1"/>
+    <col min="11011" max="11011" width="69.7109375" style="36" customWidth="1"/>
+    <col min="11012" max="11012" width="65.28515625" style="36" customWidth="1"/>
+    <col min="11013" max="11013" width="56.5703125" style="36" customWidth="1"/>
     <col min="11014" max="11014" width="55" style="36" customWidth="1"/>
-    <col min="11015" max="11015" width="32.44140625" style="36" customWidth="1"/>
-    <col min="11016" max="11016" width="34.33203125" style="36" customWidth="1"/>
+    <col min="11015" max="11015" width="32.42578125" style="36" customWidth="1"/>
+    <col min="11016" max="11016" width="34.28515625" style="36" customWidth="1"/>
     <col min="11017" max="11017" width="30" style="36" customWidth="1"/>
     <col min="11018" max="11018" width="31" style="36" customWidth="1"/>
     <col min="11019" max="11019" width="33" style="36" customWidth="1"/>
-    <col min="11020" max="11264" width="9.33203125" style="36"/>
-    <col min="11265" max="11265" width="5.44140625" style="36" customWidth="1"/>
-    <col min="11266" max="11266" width="18.33203125" style="36" customWidth="1"/>
-    <col min="11267" max="11267" width="69.6640625" style="36" customWidth="1"/>
-    <col min="11268" max="11268" width="65.33203125" style="36" customWidth="1"/>
-    <col min="11269" max="11269" width="56.5546875" style="36" customWidth="1"/>
+    <col min="11020" max="11264" width="9.28515625" style="36"/>
+    <col min="11265" max="11265" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11266" max="11266" width="18.28515625" style="36" customWidth="1"/>
+    <col min="11267" max="11267" width="69.7109375" style="36" customWidth="1"/>
+    <col min="11268" max="11268" width="65.28515625" style="36" customWidth="1"/>
+    <col min="11269" max="11269" width="56.5703125" style="36" customWidth="1"/>
     <col min="11270" max="11270" width="55" style="36" customWidth="1"/>
-    <col min="11271" max="11271" width="32.44140625" style="36" customWidth="1"/>
-    <col min="11272" max="11272" width="34.33203125" style="36" customWidth="1"/>
+    <col min="11271" max="11271" width="32.42578125" style="36" customWidth="1"/>
+    <col min="11272" max="11272" width="34.28515625" style="36" customWidth="1"/>
     <col min="11273" max="11273" width="30" style="36" customWidth="1"/>
     <col min="11274" max="11274" width="31" style="36" customWidth="1"/>
     <col min="11275" max="11275" width="33" style="36" customWidth="1"/>
-    <col min="11276" max="11520" width="9.33203125" style="36"/>
-    <col min="11521" max="11521" width="5.44140625" style="36" customWidth="1"/>
-    <col min="11522" max="11522" width="18.33203125" style="36" customWidth="1"/>
-    <col min="11523" max="11523" width="69.6640625" style="36" customWidth="1"/>
-    <col min="11524" max="11524" width="65.33203125" style="36" customWidth="1"/>
-    <col min="11525" max="11525" width="56.5546875" style="36" customWidth="1"/>
+    <col min="11276" max="11520" width="9.28515625" style="36"/>
+    <col min="11521" max="11521" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11522" max="11522" width="18.28515625" style="36" customWidth="1"/>
+    <col min="11523" max="11523" width="69.7109375" style="36" customWidth="1"/>
+    <col min="11524" max="11524" width="65.28515625" style="36" customWidth="1"/>
+    <col min="11525" max="11525" width="56.5703125" style="36" customWidth="1"/>
     <col min="11526" max="11526" width="55" style="36" customWidth="1"/>
-    <col min="11527" max="11527" width="32.44140625" style="36" customWidth="1"/>
-    <col min="11528" max="11528" width="34.33203125" style="36" customWidth="1"/>
+    <col min="11527" max="11527" width="32.42578125" style="36" customWidth="1"/>
+    <col min="11528" max="11528" width="34.28515625" style="36" customWidth="1"/>
     <col min="11529" max="11529" width="30" style="36" customWidth="1"/>
     <col min="11530" max="11530" width="31" style="36" customWidth="1"/>
     <col min="11531" max="11531" width="33" style="36" customWidth="1"/>
-    <col min="11532" max="11776" width="9.33203125" style="36"/>
-    <col min="11777" max="11777" width="5.44140625" style="36" customWidth="1"/>
-    <col min="11778" max="11778" width="18.33203125" style="36" customWidth="1"/>
-    <col min="11779" max="11779" width="69.6640625" style="36" customWidth="1"/>
-    <col min="11780" max="11780" width="65.33203125" style="36" customWidth="1"/>
-    <col min="11781" max="11781" width="56.5546875" style="36" customWidth="1"/>
+    <col min="11532" max="11776" width="9.28515625" style="36"/>
+    <col min="11777" max="11777" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11778" max="11778" width="18.28515625" style="36" customWidth="1"/>
+    <col min="11779" max="11779" width="69.7109375" style="36" customWidth="1"/>
+    <col min="11780" max="11780" width="65.28515625" style="36" customWidth="1"/>
+    <col min="11781" max="11781" width="56.5703125" style="36" customWidth="1"/>
     <col min="11782" max="11782" width="55" style="36" customWidth="1"/>
-    <col min="11783" max="11783" width="32.44140625" style="36" customWidth="1"/>
-    <col min="11784" max="11784" width="34.33203125" style="36" customWidth="1"/>
+    <col min="11783" max="11783" width="32.42578125" style="36" customWidth="1"/>
+    <col min="11784" max="11784" width="34.28515625" style="36" customWidth="1"/>
     <col min="11785" max="11785" width="30" style="36" customWidth="1"/>
     <col min="11786" max="11786" width="31" style="36" customWidth="1"/>
     <col min="11787" max="11787" width="33" style="36" customWidth="1"/>
-    <col min="11788" max="12032" width="9.33203125" style="36"/>
-    <col min="12033" max="12033" width="5.44140625" style="36" customWidth="1"/>
-    <col min="12034" max="12034" width="18.33203125" style="36" customWidth="1"/>
-    <col min="12035" max="12035" width="69.6640625" style="36" customWidth="1"/>
-    <col min="12036" max="12036" width="65.33203125" style="36" customWidth="1"/>
-    <col min="12037" max="12037" width="56.5546875" style="36" customWidth="1"/>
+    <col min="11788" max="12032" width="9.28515625" style="36"/>
+    <col min="12033" max="12033" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12034" max="12034" width="18.28515625" style="36" customWidth="1"/>
+    <col min="12035" max="12035" width="69.7109375" style="36" customWidth="1"/>
+    <col min="12036" max="12036" width="65.28515625" style="36" customWidth="1"/>
+    <col min="12037" max="12037" width="56.5703125" style="36" customWidth="1"/>
     <col min="12038" max="12038" width="55" style="36" customWidth="1"/>
-    <col min="12039" max="12039" width="32.44140625" style="36" customWidth="1"/>
-    <col min="12040" max="12040" width="34.33203125" style="36" customWidth="1"/>
+    <col min="12039" max="12039" width="32.42578125" style="36" customWidth="1"/>
+    <col min="12040" max="12040" width="34.28515625" style="36" customWidth="1"/>
     <col min="12041" max="12041" width="30" style="36" customWidth="1"/>
     <col min="12042" max="12042" width="31" style="36" customWidth="1"/>
     <col min="12043" max="12043" width="33" style="36" customWidth="1"/>
-    <col min="12044" max="12288" width="9.33203125" style="36"/>
-    <col min="12289" max="12289" width="5.44140625" style="36" customWidth="1"/>
-    <col min="12290" max="12290" width="18.33203125" style="36" customWidth="1"/>
-    <col min="12291" max="12291" width="69.6640625" style="36" customWidth="1"/>
-    <col min="12292" max="12292" width="65.33203125" style="36" customWidth="1"/>
-    <col min="12293" max="12293" width="56.5546875" style="36" customWidth="1"/>
+    <col min="12044" max="12288" width="9.28515625" style="36"/>
+    <col min="12289" max="12289" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12290" max="12290" width="18.28515625" style="36" customWidth="1"/>
+    <col min="12291" max="12291" width="69.7109375" style="36" customWidth="1"/>
+    <col min="12292" max="12292" width="65.28515625" style="36" customWidth="1"/>
+    <col min="12293" max="12293" width="56.5703125" style="36" customWidth="1"/>
     <col min="12294" max="12294" width="55" style="36" customWidth="1"/>
-    <col min="12295" max="12295" width="32.44140625" style="36" customWidth="1"/>
-    <col min="12296" max="12296" width="34.33203125" style="36" customWidth="1"/>
+    <col min="12295" max="12295" width="32.42578125" style="36" customWidth="1"/>
+    <col min="12296" max="12296" width="34.28515625" style="36" customWidth="1"/>
     <col min="12297" max="12297" width="30" style="36" customWidth="1"/>
     <col min="12298" max="12298" width="31" style="36" customWidth="1"/>
     <col min="12299" max="12299" width="33" style="36" customWidth="1"/>
-    <col min="12300" max="12544" width="9.33203125" style="36"/>
-    <col min="12545" max="12545" width="5.44140625" style="36" customWidth="1"/>
-    <col min="12546" max="12546" width="18.33203125" style="36" customWidth="1"/>
-    <col min="12547" max="12547" width="69.6640625" style="36" customWidth="1"/>
-    <col min="12548" max="12548" width="65.33203125" style="36" customWidth="1"/>
-    <col min="12549" max="12549" width="56.5546875" style="36" customWidth="1"/>
+    <col min="12300" max="12544" width="9.28515625" style="36"/>
+    <col min="12545" max="12545" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12546" max="12546" width="18.28515625" style="36" customWidth="1"/>
+    <col min="12547" max="12547" width="69.7109375" style="36" customWidth="1"/>
+    <col min="12548" max="12548" width="65.28515625" style="36" customWidth="1"/>
+    <col min="12549" max="12549" width="56.5703125" style="36" customWidth="1"/>
     <col min="12550" max="12550" width="55" style="36" customWidth="1"/>
-    <col min="12551" max="12551" width="32.44140625" style="36" customWidth="1"/>
-    <col min="12552" max="12552" width="34.33203125" style="36" customWidth="1"/>
+    <col min="12551" max="12551" width="32.42578125" style="36" customWidth="1"/>
+    <col min="12552" max="12552" width="34.28515625" style="36" customWidth="1"/>
     <col min="12553" max="12553" width="30" style="36" customWidth="1"/>
     <col min="12554" max="12554" width="31" style="36" customWidth="1"/>
     <col min="12555" max="12555" width="33" style="36" customWidth="1"/>
-    <col min="12556" max="12800" width="9.33203125" style="36"/>
-    <col min="12801" max="12801" width="5.44140625" style="36" customWidth="1"/>
-    <col min="12802" max="12802" width="18.33203125" style="36" customWidth="1"/>
-    <col min="12803" max="12803" width="69.6640625" style="36" customWidth="1"/>
-    <col min="12804" max="12804" width="65.33203125" style="36" customWidth="1"/>
-    <col min="12805" max="12805" width="56.5546875" style="36" customWidth="1"/>
+    <col min="12556" max="12800" width="9.28515625" style="36"/>
+    <col min="12801" max="12801" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12802" max="12802" width="18.28515625" style="36" customWidth="1"/>
+    <col min="12803" max="12803" width="69.7109375" style="36" customWidth="1"/>
+    <col min="12804" max="12804" width="65.28515625" style="36" customWidth="1"/>
+    <col min="12805" max="12805" width="56.5703125" style="36" customWidth="1"/>
     <col min="12806" max="12806" width="55" style="36" customWidth="1"/>
-    <col min="12807" max="12807" width="32.44140625" style="36" customWidth="1"/>
-    <col min="12808" max="12808" width="34.33203125" style="36" customWidth="1"/>
+    <col min="12807" max="12807" width="32.42578125" style="36" customWidth="1"/>
+    <col min="12808" max="12808" width="34.28515625" style="36" customWidth="1"/>
     <col min="12809" max="12809" width="30" style="36" customWidth="1"/>
     <col min="12810" max="12810" width="31" style="36" customWidth="1"/>
     <col min="12811" max="12811" width="33" style="36" customWidth="1"/>
-    <col min="12812" max="13056" width="9.33203125" style="36"/>
-    <col min="13057" max="13057" width="5.44140625" style="36" customWidth="1"/>
-    <col min="13058" max="13058" width="18.33203125" style="36" customWidth="1"/>
-    <col min="13059" max="13059" width="69.6640625" style="36" customWidth="1"/>
-    <col min="13060" max="13060" width="65.33203125" style="36" customWidth="1"/>
-    <col min="13061" max="13061" width="56.5546875" style="36" customWidth="1"/>
+    <col min="12812" max="13056" width="9.28515625" style="36"/>
+    <col min="13057" max="13057" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13058" max="13058" width="18.28515625" style="36" customWidth="1"/>
+    <col min="13059" max="13059" width="69.7109375" style="36" customWidth="1"/>
+    <col min="13060" max="13060" width="65.28515625" style="36" customWidth="1"/>
+    <col min="13061" max="13061" width="56.5703125" style="36" customWidth="1"/>
     <col min="13062" max="13062" width="55" style="36" customWidth="1"/>
-    <col min="13063" max="13063" width="32.44140625" style="36" customWidth="1"/>
-    <col min="13064" max="13064" width="34.33203125" style="36" customWidth="1"/>
+    <col min="13063" max="13063" width="32.42578125" style="36" customWidth="1"/>
+    <col min="13064" max="13064" width="34.28515625" style="36" customWidth="1"/>
     <col min="13065" max="13065" width="30" style="36" customWidth="1"/>
     <col min="13066" max="13066" width="31" style="36" customWidth="1"/>
     <col min="13067" max="13067" width="33" style="36" customWidth="1"/>
-    <col min="13068" max="13312" width="9.33203125" style="36"/>
-    <col min="13313" max="13313" width="5.44140625" style="36" customWidth="1"/>
-    <col min="13314" max="13314" width="18.33203125" style="36" customWidth="1"/>
-    <col min="13315" max="13315" width="69.6640625" style="36" customWidth="1"/>
-    <col min="13316" max="13316" width="65.33203125" style="36" customWidth="1"/>
-    <col min="13317" max="13317" width="56.5546875" style="36" customWidth="1"/>
+    <col min="13068" max="13312" width="9.28515625" style="36"/>
+    <col min="13313" max="13313" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13314" max="13314" width="18.28515625" style="36" customWidth="1"/>
+    <col min="13315" max="13315" width="69.7109375" style="36" customWidth="1"/>
+    <col min="13316" max="13316" width="65.28515625" style="36" customWidth="1"/>
+    <col min="13317" max="13317" width="56.5703125" style="36" customWidth="1"/>
     <col min="13318" max="13318" width="55" style="36" customWidth="1"/>
-    <col min="13319" max="13319" width="32.44140625" style="36" customWidth="1"/>
-    <col min="13320" max="13320" width="34.33203125" style="36" customWidth="1"/>
+    <col min="13319" max="13319" width="32.42578125" style="36" customWidth="1"/>
+    <col min="13320" max="13320" width="34.28515625" style="36" customWidth="1"/>
     <col min="13321" max="13321" width="30" style="36" customWidth="1"/>
     <col min="13322" max="13322" width="31" style="36" customWidth="1"/>
     <col min="13323" max="13323" width="33" style="36" customWidth="1"/>
-    <col min="13324" max="13568" width="9.33203125" style="36"/>
-    <col min="13569" max="13569" width="5.44140625" style="36" customWidth="1"/>
-    <col min="13570" max="13570" width="18.33203125" style="36" customWidth="1"/>
-    <col min="13571" max="13571" width="69.6640625" style="36" customWidth="1"/>
-    <col min="13572" max="13572" width="65.33203125" style="36" customWidth="1"/>
-    <col min="13573" max="13573" width="56.5546875" style="36" customWidth="1"/>
+    <col min="13324" max="13568" width="9.28515625" style="36"/>
+    <col min="13569" max="13569" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13570" max="13570" width="18.28515625" style="36" customWidth="1"/>
+    <col min="13571" max="13571" width="69.7109375" style="36" customWidth="1"/>
+    <col min="13572" max="13572" width="65.28515625" style="36" customWidth="1"/>
+    <col min="13573" max="13573" width="56.5703125" style="36" customWidth="1"/>
     <col min="13574" max="13574" width="55" style="36" customWidth="1"/>
-    <col min="13575" max="13575" width="32.44140625" style="36" customWidth="1"/>
-    <col min="13576" max="13576" width="34.33203125" style="36" customWidth="1"/>
+    <col min="13575" max="13575" width="32.42578125" style="36" customWidth="1"/>
+    <col min="13576" max="13576" width="34.28515625" style="36" customWidth="1"/>
     <col min="13577" max="13577" width="30" style="36" customWidth="1"/>
     <col min="13578" max="13578" width="31" style="36" customWidth="1"/>
     <col min="13579" max="13579" width="33" style="36" customWidth="1"/>
-    <col min="13580" max="13824" width="9.33203125" style="36"/>
-    <col min="13825" max="13825" width="5.44140625" style="36" customWidth="1"/>
-    <col min="13826" max="13826" width="18.33203125" style="36" customWidth="1"/>
-    <col min="13827" max="13827" width="69.6640625" style="36" customWidth="1"/>
-    <col min="13828" max="13828" width="65.33203125" style="36" customWidth="1"/>
-    <col min="13829" max="13829" width="56.5546875" style="36" customWidth="1"/>
+    <col min="13580" max="13824" width="9.28515625" style="36"/>
+    <col min="13825" max="13825" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13826" max="13826" width="18.28515625" style="36" customWidth="1"/>
+    <col min="13827" max="13827" width="69.7109375" style="36" customWidth="1"/>
+    <col min="13828" max="13828" width="65.28515625" style="36" customWidth="1"/>
+    <col min="13829" max="13829" width="56.5703125" style="36" customWidth="1"/>
     <col min="13830" max="13830" width="55" style="36" customWidth="1"/>
-    <col min="13831" max="13831" width="32.44140625" style="36" customWidth="1"/>
-    <col min="13832" max="13832" width="34.33203125" style="36" customWidth="1"/>
+    <col min="13831" max="13831" width="32.42578125" style="36" customWidth="1"/>
+    <col min="13832" max="13832" width="34.28515625" style="36" customWidth="1"/>
     <col min="13833" max="13833" width="30" style="36" customWidth="1"/>
     <col min="13834" max="13834" width="31" style="36" customWidth="1"/>
     <col min="13835" max="13835" width="33" style="36" customWidth="1"/>
-    <col min="13836" max="14080" width="9.33203125" style="36"/>
-    <col min="14081" max="14081" width="5.44140625" style="36" customWidth="1"/>
-    <col min="14082" max="14082" width="18.33203125" style="36" customWidth="1"/>
-    <col min="14083" max="14083" width="69.6640625" style="36" customWidth="1"/>
-    <col min="14084" max="14084" width="65.33203125" style="36" customWidth="1"/>
-    <col min="14085" max="14085" width="56.5546875" style="36" customWidth="1"/>
+    <col min="13836" max="14080" width="9.28515625" style="36"/>
+    <col min="14081" max="14081" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14082" max="14082" width="18.28515625" style="36" customWidth="1"/>
+    <col min="14083" max="14083" width="69.7109375" style="36" customWidth="1"/>
+    <col min="14084" max="14084" width="65.28515625" style="36" customWidth="1"/>
+    <col min="14085" max="14085" width="56.5703125" style="36" customWidth="1"/>
     <col min="14086" max="14086" width="55" style="36" customWidth="1"/>
-    <col min="14087" max="14087" width="32.44140625" style="36" customWidth="1"/>
-    <col min="14088" max="14088" width="34.33203125" style="36" customWidth="1"/>
+    <col min="14087" max="14087" width="32.42578125" style="36" customWidth="1"/>
+    <col min="14088" max="14088" width="34.28515625" style="36" customWidth="1"/>
     <col min="14089" max="14089" width="30" style="36" customWidth="1"/>
     <col min="14090" max="14090" width="31" style="36" customWidth="1"/>
     <col min="14091" max="14091" width="33" style="36" customWidth="1"/>
-    <col min="14092" max="14336" width="9.33203125" style="36"/>
-    <col min="14337" max="14337" width="5.44140625" style="36" customWidth="1"/>
-    <col min="14338" max="14338" width="18.33203125" style="36" customWidth="1"/>
-    <col min="14339" max="14339" width="69.6640625" style="36" customWidth="1"/>
-    <col min="14340" max="14340" width="65.33203125" style="36" customWidth="1"/>
-    <col min="14341" max="14341" width="56.5546875" style="36" customWidth="1"/>
+    <col min="14092" max="14336" width="9.28515625" style="36"/>
+    <col min="14337" max="14337" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14338" max="14338" width="18.28515625" style="36" customWidth="1"/>
+    <col min="14339" max="14339" width="69.7109375" style="36" customWidth="1"/>
+    <col min="14340" max="14340" width="65.28515625" style="36" customWidth="1"/>
+    <col min="14341" max="14341" width="56.5703125" style="36" customWidth="1"/>
     <col min="14342" max="14342" width="55" style="36" customWidth="1"/>
-    <col min="14343" max="14343" width="32.44140625" style="36" customWidth="1"/>
-    <col min="14344" max="14344" width="34.33203125" style="36" customWidth="1"/>
+    <col min="14343" max="14343" width="32.42578125" style="36" customWidth="1"/>
+    <col min="14344" max="14344" width="34.28515625" style="36" customWidth="1"/>
     <col min="14345" max="14345" width="30" style="36" customWidth="1"/>
     <col min="14346" max="14346" width="31" style="36" customWidth="1"/>
     <col min="14347" max="14347" width="33" style="36" customWidth="1"/>
-    <col min="14348" max="14592" width="9.33203125" style="36"/>
-    <col min="14593" max="14593" width="5.44140625" style="36" customWidth="1"/>
-    <col min="14594" max="14594" width="18.33203125" style="36" customWidth="1"/>
-    <col min="14595" max="14595" width="69.6640625" style="36" customWidth="1"/>
-    <col min="14596" max="14596" width="65.33203125" style="36" customWidth="1"/>
-    <col min="14597" max="14597" width="56.5546875" style="36" customWidth="1"/>
+    <col min="14348" max="14592" width="9.28515625" style="36"/>
+    <col min="14593" max="14593" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14594" max="14594" width="18.28515625" style="36" customWidth="1"/>
+    <col min="14595" max="14595" width="69.7109375" style="36" customWidth="1"/>
+    <col min="14596" max="14596" width="65.28515625" style="36" customWidth="1"/>
+    <col min="14597" max="14597" width="56.5703125" style="36" customWidth="1"/>
     <col min="14598" max="14598" width="55" style="36" customWidth="1"/>
-    <col min="14599" max="14599" width="32.44140625" style="36" customWidth="1"/>
-    <col min="14600" max="14600" width="34.33203125" style="36" customWidth="1"/>
+    <col min="14599" max="14599" width="32.42578125" style="36" customWidth="1"/>
+    <col min="14600" max="14600" width="34.28515625" style="36" customWidth="1"/>
     <col min="14601" max="14601" width="30" style="36" customWidth="1"/>
     <col min="14602" max="14602" width="31" style="36" customWidth="1"/>
     <col min="14603" max="14603" width="33" style="36" customWidth="1"/>
-    <col min="14604" max="14848" width="9.33203125" style="36"/>
-    <col min="14849" max="14849" width="5.44140625" style="36" customWidth="1"/>
-    <col min="14850" max="14850" width="18.33203125" style="36" customWidth="1"/>
-    <col min="14851" max="14851" width="69.6640625" style="36" customWidth="1"/>
-    <col min="14852" max="14852" width="65.33203125" style="36" customWidth="1"/>
-    <col min="14853" max="14853" width="56.5546875" style="36" customWidth="1"/>
+    <col min="14604" max="14848" width="9.28515625" style="36"/>
+    <col min="14849" max="14849" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14850" max="14850" width="18.28515625" style="36" customWidth="1"/>
+    <col min="14851" max="14851" width="69.7109375" style="36" customWidth="1"/>
+    <col min="14852" max="14852" width="65.28515625" style="36" customWidth="1"/>
+    <col min="14853" max="14853" width="56.5703125" style="36" customWidth="1"/>
     <col min="14854" max="14854" width="55" style="36" customWidth="1"/>
-    <col min="14855" max="14855" width="32.44140625" style="36" customWidth="1"/>
-    <col min="14856" max="14856" width="34.33203125" style="36" customWidth="1"/>
+    <col min="14855" max="14855" width="32.42578125" style="36" customWidth="1"/>
+    <col min="14856" max="14856" width="34.28515625" style="36" customWidth="1"/>
     <col min="14857" max="14857" width="30" style="36" customWidth="1"/>
     <col min="14858" max="14858" width="31" style="36" customWidth="1"/>
     <col min="14859" max="14859" width="33" style="36" customWidth="1"/>
-    <col min="14860" max="15104" width="9.33203125" style="36"/>
-    <col min="15105" max="15105" width="5.44140625" style="36" customWidth="1"/>
-    <col min="15106" max="15106" width="18.33203125" style="36" customWidth="1"/>
-    <col min="15107" max="15107" width="69.6640625" style="36" customWidth="1"/>
-    <col min="15108" max="15108" width="65.33203125" style="36" customWidth="1"/>
-    <col min="15109" max="15109" width="56.5546875" style="36" customWidth="1"/>
+    <col min="14860" max="15104" width="9.28515625" style="36"/>
+    <col min="15105" max="15105" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15106" max="15106" width="18.28515625" style="36" customWidth="1"/>
+    <col min="15107" max="15107" width="69.7109375" style="36" customWidth="1"/>
+    <col min="15108" max="15108" width="65.28515625" style="36" customWidth="1"/>
+    <col min="15109" max="15109" width="56.5703125" style="36" customWidth="1"/>
     <col min="15110" max="15110" width="55" style="36" customWidth="1"/>
-    <col min="15111" max="15111" width="32.44140625" style="36" customWidth="1"/>
-    <col min="15112" max="15112" width="34.33203125" style="36" customWidth="1"/>
+    <col min="15111" max="15111" width="32.42578125" style="36" customWidth="1"/>
+    <col min="15112" max="15112" width="34.28515625" style="36" customWidth="1"/>
     <col min="15113" max="15113" width="30" style="36" customWidth="1"/>
     <col min="15114" max="15114" width="31" style="36" customWidth="1"/>
     <col min="15115" max="15115" width="33" style="36" customWidth="1"/>
-    <col min="15116" max="15360" width="9.33203125" style="36"/>
-    <col min="15361" max="15361" width="5.44140625" style="36" customWidth="1"/>
-    <col min="15362" max="15362" width="18.33203125" style="36" customWidth="1"/>
-    <col min="15363" max="15363" width="69.6640625" style="36" customWidth="1"/>
-    <col min="15364" max="15364" width="65.33203125" style="36" customWidth="1"/>
-    <col min="15365" max="15365" width="56.5546875" style="36" customWidth="1"/>
+    <col min="15116" max="15360" width="9.28515625" style="36"/>
+    <col min="15361" max="15361" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15362" max="15362" width="18.28515625" style="36" customWidth="1"/>
+    <col min="15363" max="15363" width="69.7109375" style="36" customWidth="1"/>
+    <col min="15364" max="15364" width="65.28515625" style="36" customWidth="1"/>
+    <col min="15365" max="15365" width="56.5703125" style="36" customWidth="1"/>
     <col min="15366" max="15366" width="55" style="36" customWidth="1"/>
-    <col min="15367" max="15367" width="32.44140625" style="36" customWidth="1"/>
-    <col min="15368" max="15368" width="34.33203125" style="36" customWidth="1"/>
+    <col min="15367" max="15367" width="32.42578125" style="36" customWidth="1"/>
+    <col min="15368" max="15368" width="34.28515625" style="36" customWidth="1"/>
     <col min="15369" max="15369" width="30" style="36" customWidth="1"/>
     <col min="15370" max="15370" width="31" style="36" customWidth="1"/>
     <col min="15371" max="15371" width="33" style="36" customWidth="1"/>
-    <col min="15372" max="15616" width="9.33203125" style="36"/>
-    <col min="15617" max="15617" width="5.44140625" style="36" customWidth="1"/>
-    <col min="15618" max="15618" width="18.33203125" style="36" customWidth="1"/>
-    <col min="15619" max="15619" width="69.6640625" style="36" customWidth="1"/>
-    <col min="15620" max="15620" width="65.33203125" style="36" customWidth="1"/>
-    <col min="15621" max="15621" width="56.5546875" style="36" customWidth="1"/>
+    <col min="15372" max="15616" width="9.28515625" style="36"/>
+    <col min="15617" max="15617" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15618" max="15618" width="18.28515625" style="36" customWidth="1"/>
+    <col min="15619" max="15619" width="69.7109375" style="36" customWidth="1"/>
+    <col min="15620" max="15620" width="65.28515625" style="36" customWidth="1"/>
+    <col min="15621" max="15621" width="56.5703125" style="36" customWidth="1"/>
     <col min="15622" max="15622" width="55" style="36" customWidth="1"/>
-    <col min="15623" max="15623" width="32.44140625" style="36" customWidth="1"/>
-    <col min="15624" max="15624" width="34.33203125" style="36" customWidth="1"/>
+    <col min="15623" max="15623" width="32.42578125" style="36" customWidth="1"/>
+    <col min="15624" max="15624" width="34.28515625" style="36" customWidth="1"/>
     <col min="15625" max="15625" width="30" style="36" customWidth="1"/>
     <col min="15626" max="15626" width="31" style="36" customWidth="1"/>
     <col min="15627" max="15627" width="33" style="36" customWidth="1"/>
-    <col min="15628" max="15872" width="9.33203125" style="36"/>
-    <col min="15873" max="15873" width="5.44140625" style="36" customWidth="1"/>
-    <col min="15874" max="15874" width="18.33203125" style="36" customWidth="1"/>
-    <col min="15875" max="15875" width="69.6640625" style="36" customWidth="1"/>
-    <col min="15876" max="15876" width="65.33203125" style="36" customWidth="1"/>
-    <col min="15877" max="15877" width="56.5546875" style="36" customWidth="1"/>
+    <col min="15628" max="15872" width="9.28515625" style="36"/>
+    <col min="15873" max="15873" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15874" max="15874" width="18.28515625" style="36" customWidth="1"/>
+    <col min="15875" max="15875" width="69.7109375" style="36" customWidth="1"/>
+    <col min="15876" max="15876" width="65.28515625" style="36" customWidth="1"/>
+    <col min="15877" max="15877" width="56.5703125" style="36" customWidth="1"/>
     <col min="15878" max="15878" width="55" style="36" customWidth="1"/>
-    <col min="15879" max="15879" width="32.44140625" style="36" customWidth="1"/>
-    <col min="15880" max="15880" width="34.33203125" style="36" customWidth="1"/>
+    <col min="15879" max="15879" width="32.42578125" style="36" customWidth="1"/>
+    <col min="15880" max="15880" width="34.28515625" style="36" customWidth="1"/>
     <col min="15881" max="15881" width="30" style="36" customWidth="1"/>
     <col min="15882" max="15882" width="31" style="36" customWidth="1"/>
     <col min="15883" max="15883" width="33" style="36" customWidth="1"/>
-    <col min="15884" max="16128" width="9.33203125" style="36"/>
-    <col min="16129" max="16129" width="5.44140625" style="36" customWidth="1"/>
-    <col min="16130" max="16130" width="18.33203125" style="36" customWidth="1"/>
-    <col min="16131" max="16131" width="69.6640625" style="36" customWidth="1"/>
-    <col min="16132" max="16132" width="65.33203125" style="36" customWidth="1"/>
-    <col min="16133" max="16133" width="56.5546875" style="36" customWidth="1"/>
+    <col min="15884" max="16128" width="9.28515625" style="36"/>
+    <col min="16129" max="16129" width="5.42578125" style="36" customWidth="1"/>
+    <col min="16130" max="16130" width="18.28515625" style="36" customWidth="1"/>
+    <col min="16131" max="16131" width="69.7109375" style="36" customWidth="1"/>
+    <col min="16132" max="16132" width="65.28515625" style="36" customWidth="1"/>
+    <col min="16133" max="16133" width="56.5703125" style="36" customWidth="1"/>
     <col min="16134" max="16134" width="55" style="36" customWidth="1"/>
-    <col min="16135" max="16135" width="32.44140625" style="36" customWidth="1"/>
-    <col min="16136" max="16136" width="34.33203125" style="36" customWidth="1"/>
+    <col min="16135" max="16135" width="32.42578125" style="36" customWidth="1"/>
+    <col min="16136" max="16136" width="34.28515625" style="36" customWidth="1"/>
     <col min="16137" max="16137" width="30" style="36" customWidth="1"/>
     <col min="16138" max="16138" width="31" style="36" customWidth="1"/>
     <col min="16139" max="16139" width="33" style="36" customWidth="1"/>
-    <col min="16140" max="16384" width="9.33203125" style="36"/>
+    <col min="16140" max="16384" width="9.28515625" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="11.45" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
         <v>125</v>
@@ -5450,7 +5450,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="C3" s="91" t="s">
         <v>126</v>
@@ -5479,7 +5479,7 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
     </row>
-    <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="C4" s="91" t="s">
         <v>127</v>
@@ -5508,7 +5508,7 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="37" t="s">
         <v>128</v>
@@ -5543,7 +5543,7 @@
     <row r="6" spans="1:26" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:26" ht="102.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="101.25" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
         <v>130</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
       <c r="B8" s="37" t="s">
         <v>130</v>
@@ -5584,7 +5584,7 @@
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5612,7 +5612,7 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="C10" s="37" t="s">
         <v>133</v>
@@ -5641,7 +5641,7 @@
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="C11" s="37" t="s">
         <v>134</v>
@@ -5670,7 +5670,7 @@
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>135</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>138</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
         <v>141</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
         <v>144</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>147</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="42" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="42" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>149</v>
@@ -5754,7 +5754,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
     </row>
-    <row r="20" spans="1:26" s="42" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="42" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
         <v>151</v>
@@ -5790,7 +5790,7 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" s="42" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="42" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39" t="s">
         <v>155</v>
@@ -5824,7 +5824,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" s="42" customFormat="1" ht="102.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="42" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>158</v>
@@ -5872,7 +5872,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" s="44" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="44" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="39" t="s">
         <v>158</v>
@@ -5918,7 +5918,7 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
         <v>176</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="68.400000000000006" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
         <v>176</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="91.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>184</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
         <v>186</v>
       </c>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:26" ht="182.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="191.25" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
         <v>186</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
         <v>192</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
         <v>192</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
         <v>192</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>197</v>
       </c>
@@ -6033,26 +6033,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>243</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="49" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Network_Protocol_Socket.xlsx
+++ b/Network_Protocol_Socket.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
-    <sheet name="Internet" sheetId="3" r:id="rId2"/>
-    <sheet name="Socket-Network" sheetId="4" r:id="rId3"/>
-    <sheet name="X x Y" sheetId="9" r:id="rId4"/>
-    <sheet name="Protocol" sheetId="11" r:id="rId5"/>
-    <sheet name="HTTP" sheetId="12" r:id="rId6"/>
+    <sheet name="ref" sheetId="13" r:id="rId2"/>
+    <sheet name="Internet" sheetId="3" r:id="rId3"/>
+    <sheet name="Socket-Network" sheetId="4" r:id="rId4"/>
+    <sheet name="X x Y" sheetId="9" r:id="rId5"/>
+    <sheet name="Protocol" sheetId="11" r:id="rId6"/>
+    <sheet name="HTTP" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="282">
   <si>
     <t>Coupling</t>
   </si>
@@ -228,9 +229,6 @@
 --Data
 --Complete
 --Error </t>
-  </si>
-  <si>
-    <t>Programming</t>
   </si>
   <si>
     <t>Functional</t>
@@ -1688,11 +1686,133 @@
   <si>
     <t>Does NOT throw an error, keep try until the delivery is successful.</t>
   </si>
+  <si>
+    <t>Prog</t>
+  </si>
+  <si>
+    <t>Data Center Networking</t>
+  </si>
+  <si>
+    <t>Virtualization</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>OpenFlow</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Software Defined Networking</t>
+  </si>
+  <si>
+    <t>NFV</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>Software Defined Intelligence</t>
+  </si>
+  <si>
+    <t>Network Function Virtualization</t>
+  </si>
+  <si>
+    <t>NETCONF</t>
+  </si>
+  <si>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A SPECIAL FACILITY to manage, support critical computing resources for org;
+Special building encompasses following resources, CONTROLLED MANAGED remotely or locally;
+-- Network devices, cabling
+-- Cooling system
+-- Power backup
+-- Storage system
+-- Data security system
+-- Monitoring 
+-- Physical Security
+-- Server
+-- Mainframe
+</t>
+  </si>
+  <si>
+    <t>Why Virtualization?</t>
+  </si>
+  <si>
+    <t>How are servers Virtualized?</t>
+  </si>
+  <si>
+    <t>How are storage virtualized?</t>
+  </si>
+  <si>
+    <t>How networking components are virtualized?</t>
+  </si>
+  <si>
+    <t>What are networking standards related to virtualization?</t>
+  </si>
+  <si>
+    <t>What cloud computing?</t>
+  </si>
+  <si>
+    <t>What are different types of cloud computing?</t>
+  </si>
+  <si>
+    <t>How Cloud computing different from other computing like Grid, Cluster</t>
+  </si>
+  <si>
+    <t>Fog Computing</t>
+  </si>
+  <si>
+    <t>What is fog computing?</t>
+  </si>
+  <si>
+    <t>What is Big Data?</t>
+  </si>
+  <si>
+    <t>How networking help in solving big data probs?</t>
+  </si>
+  <si>
+    <t>What relationship cloud vs big-data?</t>
+  </si>
+  <si>
+    <t>OpenFlow operations</t>
+  </si>
+  <si>
+    <t>What is Software Defined Networking?</t>
+  </si>
+  <si>
+    <t>What are different flavors of SDN?</t>
+  </si>
+  <si>
+    <t>Difference between SDN and OpenFlow?</t>
+  </si>
+  <si>
+    <t>What is Network Function Virtualization?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QMGQbSOhLcM&amp;list=PLjGG94etKypJWOSPMh8Azcgy5e_10TiDw</t>
+  </si>
+  <si>
+    <t>https://www.cse.wustl.edu/~jain/index.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2146,7 +2266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2402,6 +2522,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2419,6 +2540,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2429,13 +2553,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657109</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3355,7 +3479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3390,7 +3514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3599,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G58"/>
+  <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3686,7 +3810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="57" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="57" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +3826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
@@ -3710,7 +3834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3718,7 +3842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="22.9" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3726,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +3861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3748,213 +3872,409 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
+        <v>22</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="41" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="45" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+    <row r="46" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>70</v>
+    <row r="65" spans="3:4" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E31:F36"/>
+    <mergeCell ref="E35:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3964,10 +4284,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,7 +4334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G60"/>
   <sheetViews>
@@ -4015,13 +4367,13 @@
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>227</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>228</v>
       </c>
       <c r="G4" s="65"/>
     </row>
@@ -4029,13 +4381,13 @@
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>231</v>
       </c>
       <c r="G5" s="68"/>
     </row>
@@ -4049,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="71"/>
     </row>
@@ -4057,13 +4409,13 @@
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G7" s="71"/>
     </row>
@@ -4071,13 +4423,13 @@
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>237</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>238</v>
       </c>
       <c r="G8" s="71"/>
     </row>
@@ -4085,13 +4437,13 @@
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="F9" s="70" t="s">
         <v>240</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>241</v>
       </c>
       <c r="G9" s="71"/>
     </row>
@@ -4186,7 +4538,7 @@
       <c r="E22" s="88"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="2:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="77"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
@@ -4195,80 +4547,80 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C58" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C59" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4281,11 +4633,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -4298,231 +4650,231 @@
     <col min="5" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="6" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="C10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="21" t="s">
+    </row>
+    <row r="14" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="22.9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="21" t="s">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="11.45" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="25" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="22.9" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>100</v>
-      </c>
       <c r="D25" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4543,38 +4895,38 @@
     </row>
     <row r="32" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="C32" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="52" t="s">
         <v>221</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="53"/>
       <c r="D34" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -4596,28 +4948,28 @@
     </row>
     <row r="40" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="C41" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>225</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -4640,7 +4992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z35"/>
   <sheetViews>
@@ -5420,10 +5772,10 @@
     <col min="16140" max="16384" width="9.28515625" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -5453,7 +5805,7 @@
     <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="C3" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="91"/>
       <c r="E3" s="34"/>
@@ -5482,7 +5834,7 @@
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="C4" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="34"/>
@@ -5511,10 +5863,10 @@
     <row r="5" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>129</v>
       </c>
       <c r="D5" s="92"/>
       <c r="E5" s="34"/>
@@ -5540,24 +5892,24 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6"/>
     </row>
     <row r="7" spans="1:26" ht="101.25" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
       <c r="B8" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -5615,7 +5967,7 @@
     <row r="10" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="C10" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -5644,7 +5996,7 @@
     <row r="11" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="C11" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -5672,63 +6024,63 @@
     </row>
     <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="D14" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="D16" s="36" t="s">
         <v>142</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="36" t="s">
         <v>145</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>147</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="42" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>150</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="38"/>
@@ -5757,16 +6109,16 @@
     <row r="20" spans="1:26" s="42" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="E20" s="38" t="s">
         <v>153</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>154</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -5793,13 +6145,13 @@
     <row r="21" spans="1:26" s="42" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>157</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
@@ -5827,34 +6179,34 @@
     <row r="22" spans="1:26" s="42" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="D22" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="F22" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="H22" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="I22" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="J22" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="K22" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>167</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
@@ -5875,32 +6227,32 @@
     <row r="23" spans="1:26" s="44" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="F23" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="G23" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="H23" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="I23" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="J23" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="K23" s="43" t="s">
         <v>174</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>175</v>
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
@@ -5920,102 +6272,102 @@
     </row>
     <row r="24" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="E24" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="F24" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>182</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>187</v>
       </c>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:26" ht="191.25" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="D31" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6029,7 +6381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
@@ -6039,20 +6391,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="49" t="s">
+    </row>
+    <row r="4" spans="2:3" s="49" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="49" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Network_Protocol_Socket.xlsx
+++ b/Network_Protocol_Socket.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4621A-3EFF-FF4F-9062-B7529C933DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -15,12 +16,12 @@
     <sheet name="Protocol" sheetId="11" r:id="rId6"/>
     <sheet name="HTTP" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="297">
   <si>
     <t>Coupling</t>
   </si>
@@ -1616,10 +1617,6 @@
     <t>The client to continue sending the remainder of the request,</t>
   </si>
   <si>
-    <t>Transfer-Encoding: chunked
-allows for streaming of response to the client instead of one big payload.</t>
-  </si>
-  <si>
     <t>JMS</t>
   </si>
   <si>
@@ -1808,12 +1805,80 @@
   <si>
     <t>https://www.cse.wustl.edu/~jain/index.html</t>
   </si>
+  <si>
+    <t>Long Lived Connection by having
+Persistent and Pipelined Connection</t>
+  </si>
+  <si>
+    <t>Terminated immediately after the response</t>
+  </si>
+  <si>
+    <t>GET, POST, HEAD</t>
+  </si>
+  <si>
+    <t>GET, POST, HEAD, PUT, TRACE, OPTIONS, DELETE</t>
+  </si>
+  <si>
+    <t>-- Chunked Transfer // Transfer-Encoding: chunked
+-- Virtual hosting (a server with a single IP Address hosting multiple domains)
+-- Streaming of response to the client instead of one big payload.
+-- Content Negotiation
+-- Cache support
+-- Compression/decompression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection: Keep-Alive
+Keep-Alive: timeout=5, max=1000
+-- These header options keep connection open for long time; </t>
+  </si>
+  <si>
+    <t>HTTP 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP2.0
+-- HTTP/2 Server Push : server proactively push assets (stylesheets, scripts, media) to the client cache in advance
+-- </t>
+  </si>
+  <si>
+    <t>-- SSE (Server Sent Events / EventSource)
+-- SSE connections can only push data to the browser. 
+-- Browsers can only subscribe to data updates originated by server, but cannot send any data to the server</t>
+  </si>
+  <si>
+    <t>Client to Server  ONLY</t>
+  </si>
+  <si>
+    <t>Client to Server
+Server to Client
+BOTH</t>
+  </si>
+  <si>
+    <t>Server to Client ONLY</t>
+  </si>
+  <si>
+    <t>Client to Server
+Server to Client
+BOTH - LIMITED</t>
+  </si>
+  <si>
+    <t>HTTP1.0, 1.1
+-- HTTP a uni-directional protocol; Only Brower initiate the request</t>
+  </si>
+  <si>
+    <t>-- Bi-directional protocol
+-- Single TCP connection : same connection Client and Server sends and receives on same;
+-- Great choice for handling long-lived bidirectional data streaming in near real-time manner</t>
+  </si>
+  <si>
+    <t>HTTP/2 Server Push
+-- Mutiplexing capable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2483,6 +2548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2522,7 +2588,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2564,7 +2641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2607,7 +2690,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://drrajivdesaimd.com/wp-content/uploads/2015/05/internet-path.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://drrajivdesaimd.com/wp-content/uploads/2015/05/internet-path.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2667,7 +2756,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2705,7 +2800,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="osi model - Google Search"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="osi model - Google Search">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2760,7 +2861,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="https://upload.wikimedia.org/wikipedia/commons/b/b2/Data_Flow_of_the_Internet_Protocol_Suite.PNG"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://upload.wikimedia.org/wikipedia/commons/b/b2/Data_Flow_of_the_Internet_Protocol_Suite.PNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2815,7 +2922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2870,7 +2983,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2925,7 +3044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Image result for http message"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Image result for http message">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2980,7 +3105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.tcpipguide.com/free/diagrams/httpresponse.png"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.tcpipguide.com/free/diagrams/httpresponse.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3040,7 +3171,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3108,7 +3245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3176,7 +3319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3244,7 +3393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 394"/>
+        <xdr:cNvPr id="5" name="Picture 394">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3312,7 +3467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 495" descr="http://i.technet.microsoft.com/dynimg/IC197700.gif"/>
+        <xdr:cNvPr id="6" name="Picture 495" descr="http://i.technet.microsoft.com/dynimg/IC197700.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3380,7 +3541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 511" descr="Cc958821.CNBB01(en-us,TechNet.10).gif"/>
+        <xdr:cNvPr id="7" name="Picture 511" descr="Cc958821.CNBB01(en-us,TechNet.10).gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3512,6 +3679,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3547,6 +3731,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3722,45 +3923,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="63.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:4" ht="13">
       <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" ht="13">
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="13">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="13">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" ht="26">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3768,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="13">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3776,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" ht="37.25" customHeight="1">
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3784,7 +3985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" ht="26">
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" ht="53.5" customHeight="1">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3800,17 +4001,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" ht="13">
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" ht="13">
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="65">
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +4019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" s="1" customFormat="1" ht="20.5" customHeight="1">
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3826,7 +4027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
@@ -3834,7 +4035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3842,7 +4043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="26">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3850,7 +4051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="13">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +4062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="13">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3872,40 +4073,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="13">
       <c r="C28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" spans="2:4" ht="13">
+      <c r="C29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="13">
+      <c r="C30" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="2:4" ht="13">
+      <c r="C31" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:7" ht="13" thickBot="1"/>
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3913,7 +4114,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="26">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -3923,11 +4124,11 @@
       <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="78">
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -3937,11 +4138,11 @@
       <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="78">
       <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
@@ -3951,11 +4152,11 @@
       <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="52">
       <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
@@ -3965,11 +4166,11 @@
       <c r="D38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="52">
       <c r="B39" s="6" t="s">
         <v>20</v>
       </c>
@@ -3979,11 +4180,11 @@
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="39">
       <c r="B40" s="6" t="s">
         <v>20</v>
       </c>
@@ -3993,11 +4194,11 @@
       <c r="D40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="13" thickBot="1">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -4005,7 +4206,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="26">
       <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
@@ -4016,7 +4217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="52">
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
@@ -4027,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13">
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
@@ -4038,7 +4239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="13">
       <c r="C54" s="2" t="s">
         <v>57</v>
       </c>
@@ -4046,12 +4247,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="13">
       <c r="C55" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="52">
       <c r="C56" s="2" t="s">
         <v>50</v>
       </c>
@@ -4059,17 +4260,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="13">
       <c r="B58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="13">
       <c r="B59" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>62</v>
@@ -4078,9 +4279,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="13">
       <c r="B60" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>63</v>
@@ -4089,9 +4290,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="13">
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>64</v>
@@ -4100,176 +4301,176 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="13">
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="3:4" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" ht="156">
       <c r="C65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="13">
+      <c r="C67" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
+    <row r="68" spans="3:4" ht="13">
+      <c r="C68" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" ht="13">
+      <c r="C69" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" ht="13">
+      <c r="C70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" ht="13">
+      <c r="C71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" ht="13">
+      <c r="C72" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" ht="13">
+      <c r="C73" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" ht="13">
+      <c r="C74" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" ht="13">
+      <c r="C75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" ht="13">
+      <c r="C77" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" ht="13">
+      <c r="C78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" ht="13">
+      <c r="C79" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" ht="13">
+      <c r="C80" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" ht="13">
+      <c r="C81" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" ht="13">
+      <c r="C82" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2" t="s">
+    </row>
+    <row r="83" spans="3:4" ht="13">
+      <c r="C83" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" ht="13">
+      <c r="C84" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" ht="13">
+      <c r="C85" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
+    <row r="86" spans="3:4" ht="13">
+      <c r="C86" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D86" s="2" t="s">
+    <row r="87" spans="3:4" ht="13">
+      <c r="C87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D87" s="2" t="s">
+    <row r="88" spans="3:4" ht="13">
+      <c r="C88" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4283,51 +4484,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="93" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="93" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2" s="80" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="80" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="99.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="96"/>
+    <col min="3" max="3" width="17.5" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.6640625" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="2" ht="172.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:4" ht="172.25" customHeight="1"/>
+    <row r="7" spans="3:4" ht="32">
+      <c r="C7" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="48">
+      <c r="C8" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="48">
+      <c r="C9" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="48">
+      <c r="C10" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4335,27 +4571,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="49"/>
-    <col min="2" max="2" width="5.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="49"/>
+    <col min="1" max="1" width="8.83203125" style="49"/>
+    <col min="2" max="2" width="5.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="49" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="59" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="59" customFormat="1" ht="13" thickBot="1"/>
+    <row r="3" spans="2:7" s="59" customFormat="1" ht="12">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -4363,35 +4599,35 @@
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="59" customFormat="1" ht="13">
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>227</v>
-      </c>
       <c r="G4" s="65"/>
     </row>
-    <row r="5" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" s="59" customFormat="1" ht="13">
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>230</v>
-      </c>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" s="59" customFormat="1" ht="13">
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70" t="s">
@@ -4401,61 +4637,61 @@
         <v>38</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="59" customFormat="1" ht="13">
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G7" s="71"/>
     </row>
-    <row r="8" spans="2:7" s="59" customFormat="1" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" s="59" customFormat="1" ht="26">
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>237</v>
-      </c>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="2:7" s="59" customFormat="1" ht="22.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" s="59" customFormat="1" ht="13">
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="F9" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="70" t="s">
-        <v>240</v>
-      </c>
       <c r="G9" s="71"/>
     </row>
-    <row r="10" spans="2:7" s="59" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" s="59" customFormat="1" ht="117.5" customHeight="1">
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" spans="2:7" s="59" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+    </row>
+    <row r="11" spans="2:7" s="59" customFormat="1" ht="13" thickBot="1">
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
@@ -4463,109 +4699,109 @@
       <c r="F11" s="73"/>
       <c r="G11" s="74"/>
     </row>
-    <row r="12" spans="2:7" s="59" customFormat="1" ht="11.45" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" s="59" customFormat="1" ht="12"/>
+    <row r="13" spans="2:7">
       <c r="E13"/>
     </row>
-    <row r="14" spans="2:7" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="49.25" customHeight="1" thickBot="1"/>
+    <row r="15" spans="2:7" ht="20" customHeight="1">
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="2:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="50.5" customHeight="1">
       <c r="B16" s="50"/>
       <c r="C16" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="75"/>
-      <c r="E16" s="86"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="50.5" customHeight="1">
       <c r="B17" s="50"/>
       <c r="C17" s="75" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="75"/>
-      <c r="E17" s="87"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="50.5" customHeight="1">
       <c r="B18" s="50"/>
       <c r="C18" s="75" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="75"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="50.5" customHeight="1">
       <c r="B19" s="50"/>
       <c r="C19" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="75"/>
-      <c r="E19" s="87"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="50.5" customHeight="1">
       <c r="B20" s="50"/>
       <c r="C20" s="75" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="75"/>
-      <c r="E20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="50.5" customHeight="1">
       <c r="B21" s="50"/>
       <c r="C21" s="75" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="75"/>
-      <c r="E21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="50.5" customHeight="1">
       <c r="B22" s="50"/>
       <c r="C22" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="75"/>
-      <c r="E22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="2:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="17.5" customHeight="1" thickBot="1">
       <c r="B23" s="77"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
       <c r="F23" s="79"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" ht="16">
       <c r="C49" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" ht="16">
       <c r="C50" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" ht="32">
       <c r="C51" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" ht="16">
       <c r="C52" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" ht="16">
       <c r="C53" s="49" t="s">
         <v>211</v>
       </c>
@@ -4573,7 +4809,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" ht="16">
       <c r="C54" s="49" t="s">
         <v>209</v>
       </c>
@@ -4581,7 +4817,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" ht="16">
       <c r="C55" s="49" t="s">
         <v>207</v>
       </c>
@@ -4589,7 +4825,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" ht="16">
       <c r="C56" s="49" t="s">
         <v>205</v>
       </c>
@@ -4597,7 +4833,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" ht="16">
       <c r="C57" s="49" t="s">
         <v>203</v>
       </c>
@@ -4605,17 +4841,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" ht="32">
       <c r="C58" s="49" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" ht="16">
       <c r="C59" s="49" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" ht="32">
       <c r="C60" s="49" t="s">
         <v>199</v>
       </c>
@@ -4634,45 +4870,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="12"/>
+    <col min="3" max="3" width="62.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="63" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="13" thickBot="1"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="13" thickBot="1">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="6" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" ht="13" thickBot="1"/>
+    <row r="7" spans="2:4">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" ht="13">
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
         <v>70</v>
@@ -4681,7 +4918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="33.5" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>72</v>
       </c>
@@ -4692,7 +4929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="26" customHeight="1">
       <c r="B10" s="19" t="s">
         <v>74</v>
       </c>
@@ -4703,7 +4940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" ht="26" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>122</v>
       </c>
@@ -4712,7 +4949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" ht="13">
       <c r="B12" s="19" t="s">
         <v>83</v>
       </c>
@@ -4723,7 +4960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" ht="39">
       <c r="B13" s="19" t="s">
         <v>77</v>
       </c>
@@ -4734,7 +4971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" ht="26">
       <c r="B14" s="19" t="s">
         <v>80</v>
       </c>
@@ -4745,7 +4982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" ht="26">
       <c r="B15" s="19" t="s">
         <v>86</v>
       </c>
@@ -4756,7 +4993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="13">
       <c r="B16" s="23" t="s">
         <v>89</v>
       </c>
@@ -4767,7 +5004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="26">
       <c r="B17" s="26" t="s">
         <v>92</v>
       </c>
@@ -4778,7 +5015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="39">
       <c r="B18" s="19" t="s">
         <v>100</v>
       </c>
@@ -4789,7 +5026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="26">
       <c r="B19" s="19" t="s">
         <v>103</v>
       </c>
@@ -4800,7 +5037,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="26">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
@@ -4811,7 +5048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="26">
       <c r="B21" s="19" t="s">
         <v>109</v>
       </c>
@@ -4822,7 +5059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="13">
       <c r="B22" s="26" t="s">
         <v>115</v>
       </c>
@@ -4833,7 +5070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="13">
       <c r="B23" s="26" t="s">
         <v>118</v>
       </c>
@@ -4844,7 +5081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="13">
       <c r="B24" s="23" t="s">
         <v>95</v>
       </c>
@@ -4855,7 +5092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="13">
       <c r="B25" s="26" t="s">
         <v>98</v>
       </c>
@@ -4866,7 +5103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="39">
       <c r="B26" s="19" t="s">
         <v>112</v>
       </c>
@@ -4877,23 +5114,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13" thickBot="1">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="30" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="13" thickBot="1"/>
+    <row r="31" spans="1:5">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="49" customFormat="1" ht="15">
       <c r="A32" s="48" t="s">
         <v>216</v>
       </c>
@@ -4906,8 +5143,11 @@
       <c r="D32" s="18" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E32" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="49" customFormat="1" ht="32">
       <c r="A33" s="48" t="s">
         <v>216</v>
       </c>
@@ -4918,74 +5158,99 @@
       <c r="D33" s="52" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="E33" s="49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="49" customFormat="1" ht="15">
+      <c r="A34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="49" customFormat="1" ht="26">
+      <c r="A35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="49" customFormat="1" ht="78">
+      <c r="A36" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="52" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="39">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13" thickBot="1">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="40" spans="1:5" ht="13" thickBot="1"/>
+    <row r="41" spans="1:5" s="49" customFormat="1" ht="15">
+      <c r="A41" s="48"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="1:5" s="49" customFormat="1" ht="15">
+      <c r="A42" s="48" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="38" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:4" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-    </row>
-    <row r="40" spans="1:4" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="49" customFormat="1" ht="15">
+      <c r="A43" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="58" t="s">
+      <c r="C43" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C41" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" ht="13" thickBot="1">
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="http://www.diffen.com/difference/Internet_vs_World_Wide_Web"/>
-    <hyperlink ref="C15" r:id="rId2" display="http://www.diffen.com/difference/Data_vs_Information"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://www.diffen.com/difference/Internet_vs_World_Wide_Web" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" display="http://www.diffen.com/difference/Data_vs_Information" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4993,786 +5258,786 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="36" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="56.5" style="36" customWidth="1"/>
     <col min="6" max="6" width="55" style="36" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="36" customWidth="1"/>
     <col min="9" max="9" width="30" style="36" customWidth="1"/>
     <col min="10" max="10" width="31" style="36" customWidth="1"/>
     <col min="11" max="11" width="33" style="36" customWidth="1"/>
-    <col min="12" max="256" width="9.28515625" style="36"/>
-    <col min="257" max="257" width="5.42578125" style="36" customWidth="1"/>
-    <col min="258" max="258" width="18.28515625" style="36" customWidth="1"/>
-    <col min="259" max="259" width="69.7109375" style="36" customWidth="1"/>
-    <col min="260" max="260" width="65.28515625" style="36" customWidth="1"/>
-    <col min="261" max="261" width="56.5703125" style="36" customWidth="1"/>
+    <col min="12" max="256" width="9.33203125" style="36"/>
+    <col min="257" max="257" width="5.5" style="36" customWidth="1"/>
+    <col min="258" max="258" width="18.33203125" style="36" customWidth="1"/>
+    <col min="259" max="259" width="69.6640625" style="36" customWidth="1"/>
+    <col min="260" max="260" width="65.33203125" style="36" customWidth="1"/>
+    <col min="261" max="261" width="56.5" style="36" customWidth="1"/>
     <col min="262" max="262" width="55" style="36" customWidth="1"/>
-    <col min="263" max="263" width="32.42578125" style="36" customWidth="1"/>
-    <col min="264" max="264" width="34.28515625" style="36" customWidth="1"/>
+    <col min="263" max="263" width="32.5" style="36" customWidth="1"/>
+    <col min="264" max="264" width="34.33203125" style="36" customWidth="1"/>
     <col min="265" max="265" width="30" style="36" customWidth="1"/>
     <col min="266" max="266" width="31" style="36" customWidth="1"/>
     <col min="267" max="267" width="33" style="36" customWidth="1"/>
-    <col min="268" max="512" width="9.28515625" style="36"/>
-    <col min="513" max="513" width="5.42578125" style="36" customWidth="1"/>
-    <col min="514" max="514" width="18.28515625" style="36" customWidth="1"/>
-    <col min="515" max="515" width="69.7109375" style="36" customWidth="1"/>
-    <col min="516" max="516" width="65.28515625" style="36" customWidth="1"/>
-    <col min="517" max="517" width="56.5703125" style="36" customWidth="1"/>
+    <col min="268" max="512" width="9.33203125" style="36"/>
+    <col min="513" max="513" width="5.5" style="36" customWidth="1"/>
+    <col min="514" max="514" width="18.33203125" style="36" customWidth="1"/>
+    <col min="515" max="515" width="69.6640625" style="36" customWidth="1"/>
+    <col min="516" max="516" width="65.33203125" style="36" customWidth="1"/>
+    <col min="517" max="517" width="56.5" style="36" customWidth="1"/>
     <col min="518" max="518" width="55" style="36" customWidth="1"/>
-    <col min="519" max="519" width="32.42578125" style="36" customWidth="1"/>
-    <col min="520" max="520" width="34.28515625" style="36" customWidth="1"/>
+    <col min="519" max="519" width="32.5" style="36" customWidth="1"/>
+    <col min="520" max="520" width="34.33203125" style="36" customWidth="1"/>
     <col min="521" max="521" width="30" style="36" customWidth="1"/>
     <col min="522" max="522" width="31" style="36" customWidth="1"/>
     <col min="523" max="523" width="33" style="36" customWidth="1"/>
-    <col min="524" max="768" width="9.28515625" style="36"/>
-    <col min="769" max="769" width="5.42578125" style="36" customWidth="1"/>
-    <col min="770" max="770" width="18.28515625" style="36" customWidth="1"/>
-    <col min="771" max="771" width="69.7109375" style="36" customWidth="1"/>
-    <col min="772" max="772" width="65.28515625" style="36" customWidth="1"/>
-    <col min="773" max="773" width="56.5703125" style="36" customWidth="1"/>
+    <col min="524" max="768" width="9.33203125" style="36"/>
+    <col min="769" max="769" width="5.5" style="36" customWidth="1"/>
+    <col min="770" max="770" width="18.33203125" style="36" customWidth="1"/>
+    <col min="771" max="771" width="69.6640625" style="36" customWidth="1"/>
+    <col min="772" max="772" width="65.33203125" style="36" customWidth="1"/>
+    <col min="773" max="773" width="56.5" style="36" customWidth="1"/>
     <col min="774" max="774" width="55" style="36" customWidth="1"/>
-    <col min="775" max="775" width="32.42578125" style="36" customWidth="1"/>
-    <col min="776" max="776" width="34.28515625" style="36" customWidth="1"/>
+    <col min="775" max="775" width="32.5" style="36" customWidth="1"/>
+    <col min="776" max="776" width="34.33203125" style="36" customWidth="1"/>
     <col min="777" max="777" width="30" style="36" customWidth="1"/>
     <col min="778" max="778" width="31" style="36" customWidth="1"/>
     <col min="779" max="779" width="33" style="36" customWidth="1"/>
-    <col min="780" max="1024" width="9.28515625" style="36"/>
-    <col min="1025" max="1025" width="5.42578125" style="36" customWidth="1"/>
-    <col min="1026" max="1026" width="18.28515625" style="36" customWidth="1"/>
-    <col min="1027" max="1027" width="69.7109375" style="36" customWidth="1"/>
-    <col min="1028" max="1028" width="65.28515625" style="36" customWidth="1"/>
-    <col min="1029" max="1029" width="56.5703125" style="36" customWidth="1"/>
+    <col min="780" max="1024" width="9.33203125" style="36"/>
+    <col min="1025" max="1025" width="5.5" style="36" customWidth="1"/>
+    <col min="1026" max="1026" width="18.33203125" style="36" customWidth="1"/>
+    <col min="1027" max="1027" width="69.6640625" style="36" customWidth="1"/>
+    <col min="1028" max="1028" width="65.33203125" style="36" customWidth="1"/>
+    <col min="1029" max="1029" width="56.5" style="36" customWidth="1"/>
     <col min="1030" max="1030" width="55" style="36" customWidth="1"/>
-    <col min="1031" max="1031" width="32.42578125" style="36" customWidth="1"/>
-    <col min="1032" max="1032" width="34.28515625" style="36" customWidth="1"/>
+    <col min="1031" max="1031" width="32.5" style="36" customWidth="1"/>
+    <col min="1032" max="1032" width="34.33203125" style="36" customWidth="1"/>
     <col min="1033" max="1033" width="30" style="36" customWidth="1"/>
     <col min="1034" max="1034" width="31" style="36" customWidth="1"/>
     <col min="1035" max="1035" width="33" style="36" customWidth="1"/>
-    <col min="1036" max="1280" width="9.28515625" style="36"/>
-    <col min="1281" max="1281" width="5.42578125" style="36" customWidth="1"/>
-    <col min="1282" max="1282" width="18.28515625" style="36" customWidth="1"/>
-    <col min="1283" max="1283" width="69.7109375" style="36" customWidth="1"/>
-    <col min="1284" max="1284" width="65.28515625" style="36" customWidth="1"/>
-    <col min="1285" max="1285" width="56.5703125" style="36" customWidth="1"/>
+    <col min="1036" max="1280" width="9.33203125" style="36"/>
+    <col min="1281" max="1281" width="5.5" style="36" customWidth="1"/>
+    <col min="1282" max="1282" width="18.33203125" style="36" customWidth="1"/>
+    <col min="1283" max="1283" width="69.6640625" style="36" customWidth="1"/>
+    <col min="1284" max="1284" width="65.33203125" style="36" customWidth="1"/>
+    <col min="1285" max="1285" width="56.5" style="36" customWidth="1"/>
     <col min="1286" max="1286" width="55" style="36" customWidth="1"/>
-    <col min="1287" max="1287" width="32.42578125" style="36" customWidth="1"/>
-    <col min="1288" max="1288" width="34.28515625" style="36" customWidth="1"/>
+    <col min="1287" max="1287" width="32.5" style="36" customWidth="1"/>
+    <col min="1288" max="1288" width="34.33203125" style="36" customWidth="1"/>
     <col min="1289" max="1289" width="30" style="36" customWidth="1"/>
     <col min="1290" max="1290" width="31" style="36" customWidth="1"/>
     <col min="1291" max="1291" width="33" style="36" customWidth="1"/>
-    <col min="1292" max="1536" width="9.28515625" style="36"/>
-    <col min="1537" max="1537" width="5.42578125" style="36" customWidth="1"/>
-    <col min="1538" max="1538" width="18.28515625" style="36" customWidth="1"/>
-    <col min="1539" max="1539" width="69.7109375" style="36" customWidth="1"/>
-    <col min="1540" max="1540" width="65.28515625" style="36" customWidth="1"/>
-    <col min="1541" max="1541" width="56.5703125" style="36" customWidth="1"/>
+    <col min="1292" max="1536" width="9.33203125" style="36"/>
+    <col min="1537" max="1537" width="5.5" style="36" customWidth="1"/>
+    <col min="1538" max="1538" width="18.33203125" style="36" customWidth="1"/>
+    <col min="1539" max="1539" width="69.6640625" style="36" customWidth="1"/>
+    <col min="1540" max="1540" width="65.33203125" style="36" customWidth="1"/>
+    <col min="1541" max="1541" width="56.5" style="36" customWidth="1"/>
     <col min="1542" max="1542" width="55" style="36" customWidth="1"/>
-    <col min="1543" max="1543" width="32.42578125" style="36" customWidth="1"/>
-    <col min="1544" max="1544" width="34.28515625" style="36" customWidth="1"/>
+    <col min="1543" max="1543" width="32.5" style="36" customWidth="1"/>
+    <col min="1544" max="1544" width="34.33203125" style="36" customWidth="1"/>
     <col min="1545" max="1545" width="30" style="36" customWidth="1"/>
     <col min="1546" max="1546" width="31" style="36" customWidth="1"/>
     <col min="1547" max="1547" width="33" style="36" customWidth="1"/>
-    <col min="1548" max="1792" width="9.28515625" style="36"/>
-    <col min="1793" max="1793" width="5.42578125" style="36" customWidth="1"/>
-    <col min="1794" max="1794" width="18.28515625" style="36" customWidth="1"/>
-    <col min="1795" max="1795" width="69.7109375" style="36" customWidth="1"/>
-    <col min="1796" max="1796" width="65.28515625" style="36" customWidth="1"/>
-    <col min="1797" max="1797" width="56.5703125" style="36" customWidth="1"/>
+    <col min="1548" max="1792" width="9.33203125" style="36"/>
+    <col min="1793" max="1793" width="5.5" style="36" customWidth="1"/>
+    <col min="1794" max="1794" width="18.33203125" style="36" customWidth="1"/>
+    <col min="1795" max="1795" width="69.6640625" style="36" customWidth="1"/>
+    <col min="1796" max="1796" width="65.33203125" style="36" customWidth="1"/>
+    <col min="1797" max="1797" width="56.5" style="36" customWidth="1"/>
     <col min="1798" max="1798" width="55" style="36" customWidth="1"/>
-    <col min="1799" max="1799" width="32.42578125" style="36" customWidth="1"/>
-    <col min="1800" max="1800" width="34.28515625" style="36" customWidth="1"/>
+    <col min="1799" max="1799" width="32.5" style="36" customWidth="1"/>
+    <col min="1800" max="1800" width="34.33203125" style="36" customWidth="1"/>
     <col min="1801" max="1801" width="30" style="36" customWidth="1"/>
     <col min="1802" max="1802" width="31" style="36" customWidth="1"/>
     <col min="1803" max="1803" width="33" style="36" customWidth="1"/>
-    <col min="1804" max="2048" width="9.28515625" style="36"/>
-    <col min="2049" max="2049" width="5.42578125" style="36" customWidth="1"/>
-    <col min="2050" max="2050" width="18.28515625" style="36" customWidth="1"/>
-    <col min="2051" max="2051" width="69.7109375" style="36" customWidth="1"/>
-    <col min="2052" max="2052" width="65.28515625" style="36" customWidth="1"/>
-    <col min="2053" max="2053" width="56.5703125" style="36" customWidth="1"/>
+    <col min="1804" max="2048" width="9.33203125" style="36"/>
+    <col min="2049" max="2049" width="5.5" style="36" customWidth="1"/>
+    <col min="2050" max="2050" width="18.33203125" style="36" customWidth="1"/>
+    <col min="2051" max="2051" width="69.6640625" style="36" customWidth="1"/>
+    <col min="2052" max="2052" width="65.33203125" style="36" customWidth="1"/>
+    <col min="2053" max="2053" width="56.5" style="36" customWidth="1"/>
     <col min="2054" max="2054" width="55" style="36" customWidth="1"/>
-    <col min="2055" max="2055" width="32.42578125" style="36" customWidth="1"/>
-    <col min="2056" max="2056" width="34.28515625" style="36" customWidth="1"/>
+    <col min="2055" max="2055" width="32.5" style="36" customWidth="1"/>
+    <col min="2056" max="2056" width="34.33203125" style="36" customWidth="1"/>
     <col min="2057" max="2057" width="30" style="36" customWidth="1"/>
     <col min="2058" max="2058" width="31" style="36" customWidth="1"/>
     <col min="2059" max="2059" width="33" style="36" customWidth="1"/>
-    <col min="2060" max="2304" width="9.28515625" style="36"/>
-    <col min="2305" max="2305" width="5.42578125" style="36" customWidth="1"/>
-    <col min="2306" max="2306" width="18.28515625" style="36" customWidth="1"/>
-    <col min="2307" max="2307" width="69.7109375" style="36" customWidth="1"/>
-    <col min="2308" max="2308" width="65.28515625" style="36" customWidth="1"/>
-    <col min="2309" max="2309" width="56.5703125" style="36" customWidth="1"/>
+    <col min="2060" max="2304" width="9.33203125" style="36"/>
+    <col min="2305" max="2305" width="5.5" style="36" customWidth="1"/>
+    <col min="2306" max="2306" width="18.33203125" style="36" customWidth="1"/>
+    <col min="2307" max="2307" width="69.6640625" style="36" customWidth="1"/>
+    <col min="2308" max="2308" width="65.33203125" style="36" customWidth="1"/>
+    <col min="2309" max="2309" width="56.5" style="36" customWidth="1"/>
     <col min="2310" max="2310" width="55" style="36" customWidth="1"/>
-    <col min="2311" max="2311" width="32.42578125" style="36" customWidth="1"/>
-    <col min="2312" max="2312" width="34.28515625" style="36" customWidth="1"/>
+    <col min="2311" max="2311" width="32.5" style="36" customWidth="1"/>
+    <col min="2312" max="2312" width="34.33203125" style="36" customWidth="1"/>
     <col min="2313" max="2313" width="30" style="36" customWidth="1"/>
     <col min="2314" max="2314" width="31" style="36" customWidth="1"/>
     <col min="2315" max="2315" width="33" style="36" customWidth="1"/>
-    <col min="2316" max="2560" width="9.28515625" style="36"/>
-    <col min="2561" max="2561" width="5.42578125" style="36" customWidth="1"/>
-    <col min="2562" max="2562" width="18.28515625" style="36" customWidth="1"/>
-    <col min="2563" max="2563" width="69.7109375" style="36" customWidth="1"/>
-    <col min="2564" max="2564" width="65.28515625" style="36" customWidth="1"/>
-    <col min="2565" max="2565" width="56.5703125" style="36" customWidth="1"/>
+    <col min="2316" max="2560" width="9.33203125" style="36"/>
+    <col min="2561" max="2561" width="5.5" style="36" customWidth="1"/>
+    <col min="2562" max="2562" width="18.33203125" style="36" customWidth="1"/>
+    <col min="2563" max="2563" width="69.6640625" style="36" customWidth="1"/>
+    <col min="2564" max="2564" width="65.33203125" style="36" customWidth="1"/>
+    <col min="2565" max="2565" width="56.5" style="36" customWidth="1"/>
     <col min="2566" max="2566" width="55" style="36" customWidth="1"/>
-    <col min="2567" max="2567" width="32.42578125" style="36" customWidth="1"/>
-    <col min="2568" max="2568" width="34.28515625" style="36" customWidth="1"/>
+    <col min="2567" max="2567" width="32.5" style="36" customWidth="1"/>
+    <col min="2568" max="2568" width="34.33203125" style="36" customWidth="1"/>
     <col min="2569" max="2569" width="30" style="36" customWidth="1"/>
     <col min="2570" max="2570" width="31" style="36" customWidth="1"/>
     <col min="2571" max="2571" width="33" style="36" customWidth="1"/>
-    <col min="2572" max="2816" width="9.28515625" style="36"/>
-    <col min="2817" max="2817" width="5.42578125" style="36" customWidth="1"/>
-    <col min="2818" max="2818" width="18.28515625" style="36" customWidth="1"/>
-    <col min="2819" max="2819" width="69.7109375" style="36" customWidth="1"/>
-    <col min="2820" max="2820" width="65.28515625" style="36" customWidth="1"/>
-    <col min="2821" max="2821" width="56.5703125" style="36" customWidth="1"/>
+    <col min="2572" max="2816" width="9.33203125" style="36"/>
+    <col min="2817" max="2817" width="5.5" style="36" customWidth="1"/>
+    <col min="2818" max="2818" width="18.33203125" style="36" customWidth="1"/>
+    <col min="2819" max="2819" width="69.6640625" style="36" customWidth="1"/>
+    <col min="2820" max="2820" width="65.33203125" style="36" customWidth="1"/>
+    <col min="2821" max="2821" width="56.5" style="36" customWidth="1"/>
     <col min="2822" max="2822" width="55" style="36" customWidth="1"/>
-    <col min="2823" max="2823" width="32.42578125" style="36" customWidth="1"/>
-    <col min="2824" max="2824" width="34.28515625" style="36" customWidth="1"/>
+    <col min="2823" max="2823" width="32.5" style="36" customWidth="1"/>
+    <col min="2824" max="2824" width="34.33203125" style="36" customWidth="1"/>
     <col min="2825" max="2825" width="30" style="36" customWidth="1"/>
     <col min="2826" max="2826" width="31" style="36" customWidth="1"/>
     <col min="2827" max="2827" width="33" style="36" customWidth="1"/>
-    <col min="2828" max="3072" width="9.28515625" style="36"/>
-    <col min="3073" max="3073" width="5.42578125" style="36" customWidth="1"/>
-    <col min="3074" max="3074" width="18.28515625" style="36" customWidth="1"/>
-    <col min="3075" max="3075" width="69.7109375" style="36" customWidth="1"/>
-    <col min="3076" max="3076" width="65.28515625" style="36" customWidth="1"/>
-    <col min="3077" max="3077" width="56.5703125" style="36" customWidth="1"/>
+    <col min="2828" max="3072" width="9.33203125" style="36"/>
+    <col min="3073" max="3073" width="5.5" style="36" customWidth="1"/>
+    <col min="3074" max="3074" width="18.33203125" style="36" customWidth="1"/>
+    <col min="3075" max="3075" width="69.6640625" style="36" customWidth="1"/>
+    <col min="3076" max="3076" width="65.33203125" style="36" customWidth="1"/>
+    <col min="3077" max="3077" width="56.5" style="36" customWidth="1"/>
     <col min="3078" max="3078" width="55" style="36" customWidth="1"/>
-    <col min="3079" max="3079" width="32.42578125" style="36" customWidth="1"/>
-    <col min="3080" max="3080" width="34.28515625" style="36" customWidth="1"/>
+    <col min="3079" max="3079" width="32.5" style="36" customWidth="1"/>
+    <col min="3080" max="3080" width="34.33203125" style="36" customWidth="1"/>
     <col min="3081" max="3081" width="30" style="36" customWidth="1"/>
     <col min="3082" max="3082" width="31" style="36" customWidth="1"/>
     <col min="3083" max="3083" width="33" style="36" customWidth="1"/>
-    <col min="3084" max="3328" width="9.28515625" style="36"/>
-    <col min="3329" max="3329" width="5.42578125" style="36" customWidth="1"/>
-    <col min="3330" max="3330" width="18.28515625" style="36" customWidth="1"/>
-    <col min="3331" max="3331" width="69.7109375" style="36" customWidth="1"/>
-    <col min="3332" max="3332" width="65.28515625" style="36" customWidth="1"/>
-    <col min="3333" max="3333" width="56.5703125" style="36" customWidth="1"/>
+    <col min="3084" max="3328" width="9.33203125" style="36"/>
+    <col min="3329" max="3329" width="5.5" style="36" customWidth="1"/>
+    <col min="3330" max="3330" width="18.33203125" style="36" customWidth="1"/>
+    <col min="3331" max="3331" width="69.6640625" style="36" customWidth="1"/>
+    <col min="3332" max="3332" width="65.33203125" style="36" customWidth="1"/>
+    <col min="3333" max="3333" width="56.5" style="36" customWidth="1"/>
     <col min="3334" max="3334" width="55" style="36" customWidth="1"/>
-    <col min="3335" max="3335" width="32.42578125" style="36" customWidth="1"/>
-    <col min="3336" max="3336" width="34.28515625" style="36" customWidth="1"/>
+    <col min="3335" max="3335" width="32.5" style="36" customWidth="1"/>
+    <col min="3336" max="3336" width="34.33203125" style="36" customWidth="1"/>
     <col min="3337" max="3337" width="30" style="36" customWidth="1"/>
     <col min="3338" max="3338" width="31" style="36" customWidth="1"/>
     <col min="3339" max="3339" width="33" style="36" customWidth="1"/>
-    <col min="3340" max="3584" width="9.28515625" style="36"/>
-    <col min="3585" max="3585" width="5.42578125" style="36" customWidth="1"/>
-    <col min="3586" max="3586" width="18.28515625" style="36" customWidth="1"/>
-    <col min="3587" max="3587" width="69.7109375" style="36" customWidth="1"/>
-    <col min="3588" max="3588" width="65.28515625" style="36" customWidth="1"/>
-    <col min="3589" max="3589" width="56.5703125" style="36" customWidth="1"/>
+    <col min="3340" max="3584" width="9.33203125" style="36"/>
+    <col min="3585" max="3585" width="5.5" style="36" customWidth="1"/>
+    <col min="3586" max="3586" width="18.33203125" style="36" customWidth="1"/>
+    <col min="3587" max="3587" width="69.6640625" style="36" customWidth="1"/>
+    <col min="3588" max="3588" width="65.33203125" style="36" customWidth="1"/>
+    <col min="3589" max="3589" width="56.5" style="36" customWidth="1"/>
     <col min="3590" max="3590" width="55" style="36" customWidth="1"/>
-    <col min="3591" max="3591" width="32.42578125" style="36" customWidth="1"/>
-    <col min="3592" max="3592" width="34.28515625" style="36" customWidth="1"/>
+    <col min="3591" max="3591" width="32.5" style="36" customWidth="1"/>
+    <col min="3592" max="3592" width="34.33203125" style="36" customWidth="1"/>
     <col min="3593" max="3593" width="30" style="36" customWidth="1"/>
     <col min="3594" max="3594" width="31" style="36" customWidth="1"/>
     <col min="3595" max="3595" width="33" style="36" customWidth="1"/>
-    <col min="3596" max="3840" width="9.28515625" style="36"/>
-    <col min="3841" max="3841" width="5.42578125" style="36" customWidth="1"/>
-    <col min="3842" max="3842" width="18.28515625" style="36" customWidth="1"/>
-    <col min="3843" max="3843" width="69.7109375" style="36" customWidth="1"/>
-    <col min="3844" max="3844" width="65.28515625" style="36" customWidth="1"/>
-    <col min="3845" max="3845" width="56.5703125" style="36" customWidth="1"/>
+    <col min="3596" max="3840" width="9.33203125" style="36"/>
+    <col min="3841" max="3841" width="5.5" style="36" customWidth="1"/>
+    <col min="3842" max="3842" width="18.33203125" style="36" customWidth="1"/>
+    <col min="3843" max="3843" width="69.6640625" style="36" customWidth="1"/>
+    <col min="3844" max="3844" width="65.33203125" style="36" customWidth="1"/>
+    <col min="3845" max="3845" width="56.5" style="36" customWidth="1"/>
     <col min="3846" max="3846" width="55" style="36" customWidth="1"/>
-    <col min="3847" max="3847" width="32.42578125" style="36" customWidth="1"/>
-    <col min="3848" max="3848" width="34.28515625" style="36" customWidth="1"/>
+    <col min="3847" max="3847" width="32.5" style="36" customWidth="1"/>
+    <col min="3848" max="3848" width="34.33203125" style="36" customWidth="1"/>
     <col min="3849" max="3849" width="30" style="36" customWidth="1"/>
     <col min="3850" max="3850" width="31" style="36" customWidth="1"/>
     <col min="3851" max="3851" width="33" style="36" customWidth="1"/>
-    <col min="3852" max="4096" width="9.28515625" style="36"/>
-    <col min="4097" max="4097" width="5.42578125" style="36" customWidth="1"/>
-    <col min="4098" max="4098" width="18.28515625" style="36" customWidth="1"/>
-    <col min="4099" max="4099" width="69.7109375" style="36" customWidth="1"/>
-    <col min="4100" max="4100" width="65.28515625" style="36" customWidth="1"/>
-    <col min="4101" max="4101" width="56.5703125" style="36" customWidth="1"/>
+    <col min="3852" max="4096" width="9.33203125" style="36"/>
+    <col min="4097" max="4097" width="5.5" style="36" customWidth="1"/>
+    <col min="4098" max="4098" width="18.33203125" style="36" customWidth="1"/>
+    <col min="4099" max="4099" width="69.6640625" style="36" customWidth="1"/>
+    <col min="4100" max="4100" width="65.33203125" style="36" customWidth="1"/>
+    <col min="4101" max="4101" width="56.5" style="36" customWidth="1"/>
     <col min="4102" max="4102" width="55" style="36" customWidth="1"/>
-    <col min="4103" max="4103" width="32.42578125" style="36" customWidth="1"/>
-    <col min="4104" max="4104" width="34.28515625" style="36" customWidth="1"/>
+    <col min="4103" max="4103" width="32.5" style="36" customWidth="1"/>
+    <col min="4104" max="4104" width="34.33203125" style="36" customWidth="1"/>
     <col min="4105" max="4105" width="30" style="36" customWidth="1"/>
     <col min="4106" max="4106" width="31" style="36" customWidth="1"/>
     <col min="4107" max="4107" width="33" style="36" customWidth="1"/>
-    <col min="4108" max="4352" width="9.28515625" style="36"/>
-    <col min="4353" max="4353" width="5.42578125" style="36" customWidth="1"/>
-    <col min="4354" max="4354" width="18.28515625" style="36" customWidth="1"/>
-    <col min="4355" max="4355" width="69.7109375" style="36" customWidth="1"/>
-    <col min="4356" max="4356" width="65.28515625" style="36" customWidth="1"/>
-    <col min="4357" max="4357" width="56.5703125" style="36" customWidth="1"/>
+    <col min="4108" max="4352" width="9.33203125" style="36"/>
+    <col min="4353" max="4353" width="5.5" style="36" customWidth="1"/>
+    <col min="4354" max="4354" width="18.33203125" style="36" customWidth="1"/>
+    <col min="4355" max="4355" width="69.6640625" style="36" customWidth="1"/>
+    <col min="4356" max="4356" width="65.33203125" style="36" customWidth="1"/>
+    <col min="4357" max="4357" width="56.5" style="36" customWidth="1"/>
     <col min="4358" max="4358" width="55" style="36" customWidth="1"/>
-    <col min="4359" max="4359" width="32.42578125" style="36" customWidth="1"/>
-    <col min="4360" max="4360" width="34.28515625" style="36" customWidth="1"/>
+    <col min="4359" max="4359" width="32.5" style="36" customWidth="1"/>
+    <col min="4360" max="4360" width="34.33203125" style="36" customWidth="1"/>
     <col min="4361" max="4361" width="30" style="36" customWidth="1"/>
     <col min="4362" max="4362" width="31" style="36" customWidth="1"/>
     <col min="4363" max="4363" width="33" style="36" customWidth="1"/>
-    <col min="4364" max="4608" width="9.28515625" style="36"/>
-    <col min="4609" max="4609" width="5.42578125" style="36" customWidth="1"/>
-    <col min="4610" max="4610" width="18.28515625" style="36" customWidth="1"/>
-    <col min="4611" max="4611" width="69.7109375" style="36" customWidth="1"/>
-    <col min="4612" max="4612" width="65.28515625" style="36" customWidth="1"/>
-    <col min="4613" max="4613" width="56.5703125" style="36" customWidth="1"/>
+    <col min="4364" max="4608" width="9.33203125" style="36"/>
+    <col min="4609" max="4609" width="5.5" style="36" customWidth="1"/>
+    <col min="4610" max="4610" width="18.33203125" style="36" customWidth="1"/>
+    <col min="4611" max="4611" width="69.6640625" style="36" customWidth="1"/>
+    <col min="4612" max="4612" width="65.33203125" style="36" customWidth="1"/>
+    <col min="4613" max="4613" width="56.5" style="36" customWidth="1"/>
     <col min="4614" max="4614" width="55" style="36" customWidth="1"/>
-    <col min="4615" max="4615" width="32.42578125" style="36" customWidth="1"/>
-    <col min="4616" max="4616" width="34.28515625" style="36" customWidth="1"/>
+    <col min="4615" max="4615" width="32.5" style="36" customWidth="1"/>
+    <col min="4616" max="4616" width="34.33203125" style="36" customWidth="1"/>
     <col min="4617" max="4617" width="30" style="36" customWidth="1"/>
     <col min="4618" max="4618" width="31" style="36" customWidth="1"/>
     <col min="4619" max="4619" width="33" style="36" customWidth="1"/>
-    <col min="4620" max="4864" width="9.28515625" style="36"/>
-    <col min="4865" max="4865" width="5.42578125" style="36" customWidth="1"/>
-    <col min="4866" max="4866" width="18.28515625" style="36" customWidth="1"/>
-    <col min="4867" max="4867" width="69.7109375" style="36" customWidth="1"/>
-    <col min="4868" max="4868" width="65.28515625" style="36" customWidth="1"/>
-    <col min="4869" max="4869" width="56.5703125" style="36" customWidth="1"/>
+    <col min="4620" max="4864" width="9.33203125" style="36"/>
+    <col min="4865" max="4865" width="5.5" style="36" customWidth="1"/>
+    <col min="4866" max="4866" width="18.33203125" style="36" customWidth="1"/>
+    <col min="4867" max="4867" width="69.6640625" style="36" customWidth="1"/>
+    <col min="4868" max="4868" width="65.33203125" style="36" customWidth="1"/>
+    <col min="4869" max="4869" width="56.5" style="36" customWidth="1"/>
     <col min="4870" max="4870" width="55" style="36" customWidth="1"/>
-    <col min="4871" max="4871" width="32.42578125" style="36" customWidth="1"/>
-    <col min="4872" max="4872" width="34.28515625" style="36" customWidth="1"/>
+    <col min="4871" max="4871" width="32.5" style="36" customWidth="1"/>
+    <col min="4872" max="4872" width="34.33203125" style="36" customWidth="1"/>
     <col min="4873" max="4873" width="30" style="36" customWidth="1"/>
     <col min="4874" max="4874" width="31" style="36" customWidth="1"/>
     <col min="4875" max="4875" width="33" style="36" customWidth="1"/>
-    <col min="4876" max="5120" width="9.28515625" style="36"/>
-    <col min="5121" max="5121" width="5.42578125" style="36" customWidth="1"/>
-    <col min="5122" max="5122" width="18.28515625" style="36" customWidth="1"/>
-    <col min="5123" max="5123" width="69.7109375" style="36" customWidth="1"/>
-    <col min="5124" max="5124" width="65.28515625" style="36" customWidth="1"/>
-    <col min="5125" max="5125" width="56.5703125" style="36" customWidth="1"/>
+    <col min="4876" max="5120" width="9.33203125" style="36"/>
+    <col min="5121" max="5121" width="5.5" style="36" customWidth="1"/>
+    <col min="5122" max="5122" width="18.33203125" style="36" customWidth="1"/>
+    <col min="5123" max="5123" width="69.6640625" style="36" customWidth="1"/>
+    <col min="5124" max="5124" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5125" max="5125" width="56.5" style="36" customWidth="1"/>
     <col min="5126" max="5126" width="55" style="36" customWidth="1"/>
-    <col min="5127" max="5127" width="32.42578125" style="36" customWidth="1"/>
-    <col min="5128" max="5128" width="34.28515625" style="36" customWidth="1"/>
+    <col min="5127" max="5127" width="32.5" style="36" customWidth="1"/>
+    <col min="5128" max="5128" width="34.33203125" style="36" customWidth="1"/>
     <col min="5129" max="5129" width="30" style="36" customWidth="1"/>
     <col min="5130" max="5130" width="31" style="36" customWidth="1"/>
     <col min="5131" max="5131" width="33" style="36" customWidth="1"/>
-    <col min="5132" max="5376" width="9.28515625" style="36"/>
-    <col min="5377" max="5377" width="5.42578125" style="36" customWidth="1"/>
-    <col min="5378" max="5378" width="18.28515625" style="36" customWidth="1"/>
-    <col min="5379" max="5379" width="69.7109375" style="36" customWidth="1"/>
-    <col min="5380" max="5380" width="65.28515625" style="36" customWidth="1"/>
-    <col min="5381" max="5381" width="56.5703125" style="36" customWidth="1"/>
+    <col min="5132" max="5376" width="9.33203125" style="36"/>
+    <col min="5377" max="5377" width="5.5" style="36" customWidth="1"/>
+    <col min="5378" max="5378" width="18.33203125" style="36" customWidth="1"/>
+    <col min="5379" max="5379" width="69.6640625" style="36" customWidth="1"/>
+    <col min="5380" max="5380" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5381" max="5381" width="56.5" style="36" customWidth="1"/>
     <col min="5382" max="5382" width="55" style="36" customWidth="1"/>
-    <col min="5383" max="5383" width="32.42578125" style="36" customWidth="1"/>
-    <col min="5384" max="5384" width="34.28515625" style="36" customWidth="1"/>
+    <col min="5383" max="5383" width="32.5" style="36" customWidth="1"/>
+    <col min="5384" max="5384" width="34.33203125" style="36" customWidth="1"/>
     <col min="5385" max="5385" width="30" style="36" customWidth="1"/>
     <col min="5386" max="5386" width="31" style="36" customWidth="1"/>
     <col min="5387" max="5387" width="33" style="36" customWidth="1"/>
-    <col min="5388" max="5632" width="9.28515625" style="36"/>
-    <col min="5633" max="5633" width="5.42578125" style="36" customWidth="1"/>
-    <col min="5634" max="5634" width="18.28515625" style="36" customWidth="1"/>
-    <col min="5635" max="5635" width="69.7109375" style="36" customWidth="1"/>
-    <col min="5636" max="5636" width="65.28515625" style="36" customWidth="1"/>
-    <col min="5637" max="5637" width="56.5703125" style="36" customWidth="1"/>
+    <col min="5388" max="5632" width="9.33203125" style="36"/>
+    <col min="5633" max="5633" width="5.5" style="36" customWidth="1"/>
+    <col min="5634" max="5634" width="18.33203125" style="36" customWidth="1"/>
+    <col min="5635" max="5635" width="69.6640625" style="36" customWidth="1"/>
+    <col min="5636" max="5636" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5637" max="5637" width="56.5" style="36" customWidth="1"/>
     <col min="5638" max="5638" width="55" style="36" customWidth="1"/>
-    <col min="5639" max="5639" width="32.42578125" style="36" customWidth="1"/>
-    <col min="5640" max="5640" width="34.28515625" style="36" customWidth="1"/>
+    <col min="5639" max="5639" width="32.5" style="36" customWidth="1"/>
+    <col min="5640" max="5640" width="34.33203125" style="36" customWidth="1"/>
     <col min="5641" max="5641" width="30" style="36" customWidth="1"/>
     <col min="5642" max="5642" width="31" style="36" customWidth="1"/>
     <col min="5643" max="5643" width="33" style="36" customWidth="1"/>
-    <col min="5644" max="5888" width="9.28515625" style="36"/>
-    <col min="5889" max="5889" width="5.42578125" style="36" customWidth="1"/>
-    <col min="5890" max="5890" width="18.28515625" style="36" customWidth="1"/>
-    <col min="5891" max="5891" width="69.7109375" style="36" customWidth="1"/>
-    <col min="5892" max="5892" width="65.28515625" style="36" customWidth="1"/>
-    <col min="5893" max="5893" width="56.5703125" style="36" customWidth="1"/>
+    <col min="5644" max="5888" width="9.33203125" style="36"/>
+    <col min="5889" max="5889" width="5.5" style="36" customWidth="1"/>
+    <col min="5890" max="5890" width="18.33203125" style="36" customWidth="1"/>
+    <col min="5891" max="5891" width="69.6640625" style="36" customWidth="1"/>
+    <col min="5892" max="5892" width="65.33203125" style="36" customWidth="1"/>
+    <col min="5893" max="5893" width="56.5" style="36" customWidth="1"/>
     <col min="5894" max="5894" width="55" style="36" customWidth="1"/>
-    <col min="5895" max="5895" width="32.42578125" style="36" customWidth="1"/>
-    <col min="5896" max="5896" width="34.28515625" style="36" customWidth="1"/>
+    <col min="5895" max="5895" width="32.5" style="36" customWidth="1"/>
+    <col min="5896" max="5896" width="34.33203125" style="36" customWidth="1"/>
     <col min="5897" max="5897" width="30" style="36" customWidth="1"/>
     <col min="5898" max="5898" width="31" style="36" customWidth="1"/>
     <col min="5899" max="5899" width="33" style="36" customWidth="1"/>
-    <col min="5900" max="6144" width="9.28515625" style="36"/>
-    <col min="6145" max="6145" width="5.42578125" style="36" customWidth="1"/>
-    <col min="6146" max="6146" width="18.28515625" style="36" customWidth="1"/>
-    <col min="6147" max="6147" width="69.7109375" style="36" customWidth="1"/>
-    <col min="6148" max="6148" width="65.28515625" style="36" customWidth="1"/>
-    <col min="6149" max="6149" width="56.5703125" style="36" customWidth="1"/>
+    <col min="5900" max="6144" width="9.33203125" style="36"/>
+    <col min="6145" max="6145" width="5.5" style="36" customWidth="1"/>
+    <col min="6146" max="6146" width="18.33203125" style="36" customWidth="1"/>
+    <col min="6147" max="6147" width="69.6640625" style="36" customWidth="1"/>
+    <col min="6148" max="6148" width="65.33203125" style="36" customWidth="1"/>
+    <col min="6149" max="6149" width="56.5" style="36" customWidth="1"/>
     <col min="6150" max="6150" width="55" style="36" customWidth="1"/>
-    <col min="6151" max="6151" width="32.42578125" style="36" customWidth="1"/>
-    <col min="6152" max="6152" width="34.28515625" style="36" customWidth="1"/>
+    <col min="6151" max="6151" width="32.5" style="36" customWidth="1"/>
+    <col min="6152" max="6152" width="34.33203125" style="36" customWidth="1"/>
     <col min="6153" max="6153" width="30" style="36" customWidth="1"/>
     <col min="6154" max="6154" width="31" style="36" customWidth="1"/>
     <col min="6155" max="6155" width="33" style="36" customWidth="1"/>
-    <col min="6156" max="6400" width="9.28515625" style="36"/>
-    <col min="6401" max="6401" width="5.42578125" style="36" customWidth="1"/>
-    <col min="6402" max="6402" width="18.28515625" style="36" customWidth="1"/>
-    <col min="6403" max="6403" width="69.7109375" style="36" customWidth="1"/>
-    <col min="6404" max="6404" width="65.28515625" style="36" customWidth="1"/>
-    <col min="6405" max="6405" width="56.5703125" style="36" customWidth="1"/>
+    <col min="6156" max="6400" width="9.33203125" style="36"/>
+    <col min="6401" max="6401" width="5.5" style="36" customWidth="1"/>
+    <col min="6402" max="6402" width="18.33203125" style="36" customWidth="1"/>
+    <col min="6403" max="6403" width="69.6640625" style="36" customWidth="1"/>
+    <col min="6404" max="6404" width="65.33203125" style="36" customWidth="1"/>
+    <col min="6405" max="6405" width="56.5" style="36" customWidth="1"/>
     <col min="6406" max="6406" width="55" style="36" customWidth="1"/>
-    <col min="6407" max="6407" width="32.42578125" style="36" customWidth="1"/>
-    <col min="6408" max="6408" width="34.28515625" style="36" customWidth="1"/>
+    <col min="6407" max="6407" width="32.5" style="36" customWidth="1"/>
+    <col min="6408" max="6408" width="34.33203125" style="36" customWidth="1"/>
     <col min="6409" max="6409" width="30" style="36" customWidth="1"/>
     <col min="6410" max="6410" width="31" style="36" customWidth="1"/>
     <col min="6411" max="6411" width="33" style="36" customWidth="1"/>
-    <col min="6412" max="6656" width="9.28515625" style="36"/>
-    <col min="6657" max="6657" width="5.42578125" style="36" customWidth="1"/>
-    <col min="6658" max="6658" width="18.28515625" style="36" customWidth="1"/>
-    <col min="6659" max="6659" width="69.7109375" style="36" customWidth="1"/>
-    <col min="6660" max="6660" width="65.28515625" style="36" customWidth="1"/>
-    <col min="6661" max="6661" width="56.5703125" style="36" customWidth="1"/>
+    <col min="6412" max="6656" width="9.33203125" style="36"/>
+    <col min="6657" max="6657" width="5.5" style="36" customWidth="1"/>
+    <col min="6658" max="6658" width="18.33203125" style="36" customWidth="1"/>
+    <col min="6659" max="6659" width="69.6640625" style="36" customWidth="1"/>
+    <col min="6660" max="6660" width="65.33203125" style="36" customWidth="1"/>
+    <col min="6661" max="6661" width="56.5" style="36" customWidth="1"/>
     <col min="6662" max="6662" width="55" style="36" customWidth="1"/>
-    <col min="6663" max="6663" width="32.42578125" style="36" customWidth="1"/>
-    <col min="6664" max="6664" width="34.28515625" style="36" customWidth="1"/>
+    <col min="6663" max="6663" width="32.5" style="36" customWidth="1"/>
+    <col min="6664" max="6664" width="34.33203125" style="36" customWidth="1"/>
     <col min="6665" max="6665" width="30" style="36" customWidth="1"/>
     <col min="6666" max="6666" width="31" style="36" customWidth="1"/>
     <col min="6667" max="6667" width="33" style="36" customWidth="1"/>
-    <col min="6668" max="6912" width="9.28515625" style="36"/>
-    <col min="6913" max="6913" width="5.42578125" style="36" customWidth="1"/>
-    <col min="6914" max="6914" width="18.28515625" style="36" customWidth="1"/>
-    <col min="6915" max="6915" width="69.7109375" style="36" customWidth="1"/>
-    <col min="6916" max="6916" width="65.28515625" style="36" customWidth="1"/>
-    <col min="6917" max="6917" width="56.5703125" style="36" customWidth="1"/>
+    <col min="6668" max="6912" width="9.33203125" style="36"/>
+    <col min="6913" max="6913" width="5.5" style="36" customWidth="1"/>
+    <col min="6914" max="6914" width="18.33203125" style="36" customWidth="1"/>
+    <col min="6915" max="6915" width="69.6640625" style="36" customWidth="1"/>
+    <col min="6916" max="6916" width="65.33203125" style="36" customWidth="1"/>
+    <col min="6917" max="6917" width="56.5" style="36" customWidth="1"/>
     <col min="6918" max="6918" width="55" style="36" customWidth="1"/>
-    <col min="6919" max="6919" width="32.42578125" style="36" customWidth="1"/>
-    <col min="6920" max="6920" width="34.28515625" style="36" customWidth="1"/>
+    <col min="6919" max="6919" width="32.5" style="36" customWidth="1"/>
+    <col min="6920" max="6920" width="34.33203125" style="36" customWidth="1"/>
     <col min="6921" max="6921" width="30" style="36" customWidth="1"/>
     <col min="6922" max="6922" width="31" style="36" customWidth="1"/>
     <col min="6923" max="6923" width="33" style="36" customWidth="1"/>
-    <col min="6924" max="7168" width="9.28515625" style="36"/>
-    <col min="7169" max="7169" width="5.42578125" style="36" customWidth="1"/>
-    <col min="7170" max="7170" width="18.28515625" style="36" customWidth="1"/>
-    <col min="7171" max="7171" width="69.7109375" style="36" customWidth="1"/>
-    <col min="7172" max="7172" width="65.28515625" style="36" customWidth="1"/>
-    <col min="7173" max="7173" width="56.5703125" style="36" customWidth="1"/>
+    <col min="6924" max="7168" width="9.33203125" style="36"/>
+    <col min="7169" max="7169" width="5.5" style="36" customWidth="1"/>
+    <col min="7170" max="7170" width="18.33203125" style="36" customWidth="1"/>
+    <col min="7171" max="7171" width="69.6640625" style="36" customWidth="1"/>
+    <col min="7172" max="7172" width="65.33203125" style="36" customWidth="1"/>
+    <col min="7173" max="7173" width="56.5" style="36" customWidth="1"/>
     <col min="7174" max="7174" width="55" style="36" customWidth="1"/>
-    <col min="7175" max="7175" width="32.42578125" style="36" customWidth="1"/>
-    <col min="7176" max="7176" width="34.28515625" style="36" customWidth="1"/>
+    <col min="7175" max="7175" width="32.5" style="36" customWidth="1"/>
+    <col min="7176" max="7176" width="34.33203125" style="36" customWidth="1"/>
     <col min="7177" max="7177" width="30" style="36" customWidth="1"/>
     <col min="7178" max="7178" width="31" style="36" customWidth="1"/>
     <col min="7179" max="7179" width="33" style="36" customWidth="1"/>
-    <col min="7180" max="7424" width="9.28515625" style="36"/>
-    <col min="7425" max="7425" width="5.42578125" style="36" customWidth="1"/>
-    <col min="7426" max="7426" width="18.28515625" style="36" customWidth="1"/>
-    <col min="7427" max="7427" width="69.7109375" style="36" customWidth="1"/>
-    <col min="7428" max="7428" width="65.28515625" style="36" customWidth="1"/>
-    <col min="7429" max="7429" width="56.5703125" style="36" customWidth="1"/>
+    <col min="7180" max="7424" width="9.33203125" style="36"/>
+    <col min="7425" max="7425" width="5.5" style="36" customWidth="1"/>
+    <col min="7426" max="7426" width="18.33203125" style="36" customWidth="1"/>
+    <col min="7427" max="7427" width="69.6640625" style="36" customWidth="1"/>
+    <col min="7428" max="7428" width="65.33203125" style="36" customWidth="1"/>
+    <col min="7429" max="7429" width="56.5" style="36" customWidth="1"/>
     <col min="7430" max="7430" width="55" style="36" customWidth="1"/>
-    <col min="7431" max="7431" width="32.42578125" style="36" customWidth="1"/>
-    <col min="7432" max="7432" width="34.28515625" style="36" customWidth="1"/>
+    <col min="7431" max="7431" width="32.5" style="36" customWidth="1"/>
+    <col min="7432" max="7432" width="34.33203125" style="36" customWidth="1"/>
     <col min="7433" max="7433" width="30" style="36" customWidth="1"/>
     <col min="7434" max="7434" width="31" style="36" customWidth="1"/>
     <col min="7435" max="7435" width="33" style="36" customWidth="1"/>
-    <col min="7436" max="7680" width="9.28515625" style="36"/>
-    <col min="7681" max="7681" width="5.42578125" style="36" customWidth="1"/>
-    <col min="7682" max="7682" width="18.28515625" style="36" customWidth="1"/>
-    <col min="7683" max="7683" width="69.7109375" style="36" customWidth="1"/>
-    <col min="7684" max="7684" width="65.28515625" style="36" customWidth="1"/>
-    <col min="7685" max="7685" width="56.5703125" style="36" customWidth="1"/>
+    <col min="7436" max="7680" width="9.33203125" style="36"/>
+    <col min="7681" max="7681" width="5.5" style="36" customWidth="1"/>
+    <col min="7682" max="7682" width="18.33203125" style="36" customWidth="1"/>
+    <col min="7683" max="7683" width="69.6640625" style="36" customWidth="1"/>
+    <col min="7684" max="7684" width="65.33203125" style="36" customWidth="1"/>
+    <col min="7685" max="7685" width="56.5" style="36" customWidth="1"/>
     <col min="7686" max="7686" width="55" style="36" customWidth="1"/>
-    <col min="7687" max="7687" width="32.42578125" style="36" customWidth="1"/>
-    <col min="7688" max="7688" width="34.28515625" style="36" customWidth="1"/>
+    <col min="7687" max="7687" width="32.5" style="36" customWidth="1"/>
+    <col min="7688" max="7688" width="34.33203125" style="36" customWidth="1"/>
     <col min="7689" max="7689" width="30" style="36" customWidth="1"/>
     <col min="7690" max="7690" width="31" style="36" customWidth="1"/>
     <col min="7691" max="7691" width="33" style="36" customWidth="1"/>
-    <col min="7692" max="7936" width="9.28515625" style="36"/>
-    <col min="7937" max="7937" width="5.42578125" style="36" customWidth="1"/>
-    <col min="7938" max="7938" width="18.28515625" style="36" customWidth="1"/>
-    <col min="7939" max="7939" width="69.7109375" style="36" customWidth="1"/>
-    <col min="7940" max="7940" width="65.28515625" style="36" customWidth="1"/>
-    <col min="7941" max="7941" width="56.5703125" style="36" customWidth="1"/>
+    <col min="7692" max="7936" width="9.33203125" style="36"/>
+    <col min="7937" max="7937" width="5.5" style="36" customWidth="1"/>
+    <col min="7938" max="7938" width="18.33203125" style="36" customWidth="1"/>
+    <col min="7939" max="7939" width="69.6640625" style="36" customWidth="1"/>
+    <col min="7940" max="7940" width="65.33203125" style="36" customWidth="1"/>
+    <col min="7941" max="7941" width="56.5" style="36" customWidth="1"/>
     <col min="7942" max="7942" width="55" style="36" customWidth="1"/>
-    <col min="7943" max="7943" width="32.42578125" style="36" customWidth="1"/>
-    <col min="7944" max="7944" width="34.28515625" style="36" customWidth="1"/>
+    <col min="7943" max="7943" width="32.5" style="36" customWidth="1"/>
+    <col min="7944" max="7944" width="34.33203125" style="36" customWidth="1"/>
     <col min="7945" max="7945" width="30" style="36" customWidth="1"/>
     <col min="7946" max="7946" width="31" style="36" customWidth="1"/>
     <col min="7947" max="7947" width="33" style="36" customWidth="1"/>
-    <col min="7948" max="8192" width="9.28515625" style="36"/>
-    <col min="8193" max="8193" width="5.42578125" style="36" customWidth="1"/>
-    <col min="8194" max="8194" width="18.28515625" style="36" customWidth="1"/>
-    <col min="8195" max="8195" width="69.7109375" style="36" customWidth="1"/>
-    <col min="8196" max="8196" width="65.28515625" style="36" customWidth="1"/>
-    <col min="8197" max="8197" width="56.5703125" style="36" customWidth="1"/>
+    <col min="7948" max="8192" width="9.33203125" style="36"/>
+    <col min="8193" max="8193" width="5.5" style="36" customWidth="1"/>
+    <col min="8194" max="8194" width="18.33203125" style="36" customWidth="1"/>
+    <col min="8195" max="8195" width="69.6640625" style="36" customWidth="1"/>
+    <col min="8196" max="8196" width="65.33203125" style="36" customWidth="1"/>
+    <col min="8197" max="8197" width="56.5" style="36" customWidth="1"/>
     <col min="8198" max="8198" width="55" style="36" customWidth="1"/>
-    <col min="8199" max="8199" width="32.42578125" style="36" customWidth="1"/>
-    <col min="8200" max="8200" width="34.28515625" style="36" customWidth="1"/>
+    <col min="8199" max="8199" width="32.5" style="36" customWidth="1"/>
+    <col min="8200" max="8200" width="34.33203125" style="36" customWidth="1"/>
     <col min="8201" max="8201" width="30" style="36" customWidth="1"/>
     <col min="8202" max="8202" width="31" style="36" customWidth="1"/>
     <col min="8203" max="8203" width="33" style="36" customWidth="1"/>
-    <col min="8204" max="8448" width="9.28515625" style="36"/>
-    <col min="8449" max="8449" width="5.42578125" style="36" customWidth="1"/>
-    <col min="8450" max="8450" width="18.28515625" style="36" customWidth="1"/>
-    <col min="8451" max="8451" width="69.7109375" style="36" customWidth="1"/>
-    <col min="8452" max="8452" width="65.28515625" style="36" customWidth="1"/>
-    <col min="8453" max="8453" width="56.5703125" style="36" customWidth="1"/>
+    <col min="8204" max="8448" width="9.33203125" style="36"/>
+    <col min="8449" max="8449" width="5.5" style="36" customWidth="1"/>
+    <col min="8450" max="8450" width="18.33203125" style="36" customWidth="1"/>
+    <col min="8451" max="8451" width="69.6640625" style="36" customWidth="1"/>
+    <col min="8452" max="8452" width="65.33203125" style="36" customWidth="1"/>
+    <col min="8453" max="8453" width="56.5" style="36" customWidth="1"/>
     <col min="8454" max="8454" width="55" style="36" customWidth="1"/>
-    <col min="8455" max="8455" width="32.42578125" style="36" customWidth="1"/>
-    <col min="8456" max="8456" width="34.28515625" style="36" customWidth="1"/>
+    <col min="8455" max="8455" width="32.5" style="36" customWidth="1"/>
+    <col min="8456" max="8456" width="34.33203125" style="36" customWidth="1"/>
     <col min="8457" max="8457" width="30" style="36" customWidth="1"/>
     <col min="8458" max="8458" width="31" style="36" customWidth="1"/>
     <col min="8459" max="8459" width="33" style="36" customWidth="1"/>
-    <col min="8460" max="8704" width="9.28515625" style="36"/>
-    <col min="8705" max="8705" width="5.42578125" style="36" customWidth="1"/>
-    <col min="8706" max="8706" width="18.28515625" style="36" customWidth="1"/>
-    <col min="8707" max="8707" width="69.7109375" style="36" customWidth="1"/>
-    <col min="8708" max="8708" width="65.28515625" style="36" customWidth="1"/>
-    <col min="8709" max="8709" width="56.5703125" style="36" customWidth="1"/>
+    <col min="8460" max="8704" width="9.33203125" style="36"/>
+    <col min="8705" max="8705" width="5.5" style="36" customWidth="1"/>
+    <col min="8706" max="8706" width="18.33203125" style="36" customWidth="1"/>
+    <col min="8707" max="8707" width="69.6640625" style="36" customWidth="1"/>
+    <col min="8708" max="8708" width="65.33203125" style="36" customWidth="1"/>
+    <col min="8709" max="8709" width="56.5" style="36" customWidth="1"/>
     <col min="8710" max="8710" width="55" style="36" customWidth="1"/>
-    <col min="8711" max="8711" width="32.42578125" style="36" customWidth="1"/>
-    <col min="8712" max="8712" width="34.28515625" style="36" customWidth="1"/>
+    <col min="8711" max="8711" width="32.5" style="36" customWidth="1"/>
+    <col min="8712" max="8712" width="34.33203125" style="36" customWidth="1"/>
     <col min="8713" max="8713" width="30" style="36" customWidth="1"/>
     <col min="8714" max="8714" width="31" style="36" customWidth="1"/>
     <col min="8715" max="8715" width="33" style="36" customWidth="1"/>
-    <col min="8716" max="8960" width="9.28515625" style="36"/>
-    <col min="8961" max="8961" width="5.42578125" style="36" customWidth="1"/>
-    <col min="8962" max="8962" width="18.28515625" style="36" customWidth="1"/>
-    <col min="8963" max="8963" width="69.7109375" style="36" customWidth="1"/>
-    <col min="8964" max="8964" width="65.28515625" style="36" customWidth="1"/>
-    <col min="8965" max="8965" width="56.5703125" style="36" customWidth="1"/>
+    <col min="8716" max="8960" width="9.33203125" style="36"/>
+    <col min="8961" max="8961" width="5.5" style="36" customWidth="1"/>
+    <col min="8962" max="8962" width="18.33203125" style="36" customWidth="1"/>
+    <col min="8963" max="8963" width="69.6640625" style="36" customWidth="1"/>
+    <col min="8964" max="8964" width="65.33203125" style="36" customWidth="1"/>
+    <col min="8965" max="8965" width="56.5" style="36" customWidth="1"/>
     <col min="8966" max="8966" width="55" style="36" customWidth="1"/>
-    <col min="8967" max="8967" width="32.42578125" style="36" customWidth="1"/>
-    <col min="8968" max="8968" width="34.28515625" style="36" customWidth="1"/>
+    <col min="8967" max="8967" width="32.5" style="36" customWidth="1"/>
+    <col min="8968" max="8968" width="34.33203125" style="36" customWidth="1"/>
     <col min="8969" max="8969" width="30" style="36" customWidth="1"/>
     <col min="8970" max="8970" width="31" style="36" customWidth="1"/>
     <col min="8971" max="8971" width="33" style="36" customWidth="1"/>
-    <col min="8972" max="9216" width="9.28515625" style="36"/>
-    <col min="9217" max="9217" width="5.42578125" style="36" customWidth="1"/>
-    <col min="9218" max="9218" width="18.28515625" style="36" customWidth="1"/>
-    <col min="9219" max="9219" width="69.7109375" style="36" customWidth="1"/>
-    <col min="9220" max="9220" width="65.28515625" style="36" customWidth="1"/>
-    <col min="9221" max="9221" width="56.5703125" style="36" customWidth="1"/>
+    <col min="8972" max="9216" width="9.33203125" style="36"/>
+    <col min="9217" max="9217" width="5.5" style="36" customWidth="1"/>
+    <col min="9218" max="9218" width="18.33203125" style="36" customWidth="1"/>
+    <col min="9219" max="9219" width="69.6640625" style="36" customWidth="1"/>
+    <col min="9220" max="9220" width="65.33203125" style="36" customWidth="1"/>
+    <col min="9221" max="9221" width="56.5" style="36" customWidth="1"/>
     <col min="9222" max="9222" width="55" style="36" customWidth="1"/>
-    <col min="9223" max="9223" width="32.42578125" style="36" customWidth="1"/>
-    <col min="9224" max="9224" width="34.28515625" style="36" customWidth="1"/>
+    <col min="9223" max="9223" width="32.5" style="36" customWidth="1"/>
+    <col min="9224" max="9224" width="34.33203125" style="36" customWidth="1"/>
     <col min="9225" max="9225" width="30" style="36" customWidth="1"/>
     <col min="9226" max="9226" width="31" style="36" customWidth="1"/>
     <col min="9227" max="9227" width="33" style="36" customWidth="1"/>
-    <col min="9228" max="9472" width="9.28515625" style="36"/>
-    <col min="9473" max="9473" width="5.42578125" style="36" customWidth="1"/>
-    <col min="9474" max="9474" width="18.28515625" style="36" customWidth="1"/>
-    <col min="9475" max="9475" width="69.7109375" style="36" customWidth="1"/>
-    <col min="9476" max="9476" width="65.28515625" style="36" customWidth="1"/>
-    <col min="9477" max="9477" width="56.5703125" style="36" customWidth="1"/>
+    <col min="9228" max="9472" width="9.33203125" style="36"/>
+    <col min="9473" max="9473" width="5.5" style="36" customWidth="1"/>
+    <col min="9474" max="9474" width="18.33203125" style="36" customWidth="1"/>
+    <col min="9475" max="9475" width="69.6640625" style="36" customWidth="1"/>
+    <col min="9476" max="9476" width="65.33203125" style="36" customWidth="1"/>
+    <col min="9477" max="9477" width="56.5" style="36" customWidth="1"/>
     <col min="9478" max="9478" width="55" style="36" customWidth="1"/>
-    <col min="9479" max="9479" width="32.42578125" style="36" customWidth="1"/>
-    <col min="9480" max="9480" width="34.28515625" style="36" customWidth="1"/>
+    <col min="9479" max="9479" width="32.5" style="36" customWidth="1"/>
+    <col min="9480" max="9480" width="34.33203125" style="36" customWidth="1"/>
     <col min="9481" max="9481" width="30" style="36" customWidth="1"/>
     <col min="9482" max="9482" width="31" style="36" customWidth="1"/>
     <col min="9483" max="9483" width="33" style="36" customWidth="1"/>
-    <col min="9484" max="9728" width="9.28515625" style="36"/>
-    <col min="9729" max="9729" width="5.42578125" style="36" customWidth="1"/>
-    <col min="9730" max="9730" width="18.28515625" style="36" customWidth="1"/>
-    <col min="9731" max="9731" width="69.7109375" style="36" customWidth="1"/>
-    <col min="9732" max="9732" width="65.28515625" style="36" customWidth="1"/>
-    <col min="9733" max="9733" width="56.5703125" style="36" customWidth="1"/>
+    <col min="9484" max="9728" width="9.33203125" style="36"/>
+    <col min="9729" max="9729" width="5.5" style="36" customWidth="1"/>
+    <col min="9730" max="9730" width="18.33203125" style="36" customWidth="1"/>
+    <col min="9731" max="9731" width="69.6640625" style="36" customWidth="1"/>
+    <col min="9732" max="9732" width="65.33203125" style="36" customWidth="1"/>
+    <col min="9733" max="9733" width="56.5" style="36" customWidth="1"/>
     <col min="9734" max="9734" width="55" style="36" customWidth="1"/>
-    <col min="9735" max="9735" width="32.42578125" style="36" customWidth="1"/>
-    <col min="9736" max="9736" width="34.28515625" style="36" customWidth="1"/>
+    <col min="9735" max="9735" width="32.5" style="36" customWidth="1"/>
+    <col min="9736" max="9736" width="34.33203125" style="36" customWidth="1"/>
     <col min="9737" max="9737" width="30" style="36" customWidth="1"/>
     <col min="9738" max="9738" width="31" style="36" customWidth="1"/>
     <col min="9739" max="9739" width="33" style="36" customWidth="1"/>
-    <col min="9740" max="9984" width="9.28515625" style="36"/>
-    <col min="9985" max="9985" width="5.42578125" style="36" customWidth="1"/>
-    <col min="9986" max="9986" width="18.28515625" style="36" customWidth="1"/>
-    <col min="9987" max="9987" width="69.7109375" style="36" customWidth="1"/>
-    <col min="9988" max="9988" width="65.28515625" style="36" customWidth="1"/>
-    <col min="9989" max="9989" width="56.5703125" style="36" customWidth="1"/>
+    <col min="9740" max="9984" width="9.33203125" style="36"/>
+    <col min="9985" max="9985" width="5.5" style="36" customWidth="1"/>
+    <col min="9986" max="9986" width="18.33203125" style="36" customWidth="1"/>
+    <col min="9987" max="9987" width="69.6640625" style="36" customWidth="1"/>
+    <col min="9988" max="9988" width="65.33203125" style="36" customWidth="1"/>
+    <col min="9989" max="9989" width="56.5" style="36" customWidth="1"/>
     <col min="9990" max="9990" width="55" style="36" customWidth="1"/>
-    <col min="9991" max="9991" width="32.42578125" style="36" customWidth="1"/>
-    <col min="9992" max="9992" width="34.28515625" style="36" customWidth="1"/>
+    <col min="9991" max="9991" width="32.5" style="36" customWidth="1"/>
+    <col min="9992" max="9992" width="34.33203125" style="36" customWidth="1"/>
     <col min="9993" max="9993" width="30" style="36" customWidth="1"/>
     <col min="9994" max="9994" width="31" style="36" customWidth="1"/>
     <col min="9995" max="9995" width="33" style="36" customWidth="1"/>
-    <col min="9996" max="10240" width="9.28515625" style="36"/>
-    <col min="10241" max="10241" width="5.42578125" style="36" customWidth="1"/>
-    <col min="10242" max="10242" width="18.28515625" style="36" customWidth="1"/>
-    <col min="10243" max="10243" width="69.7109375" style="36" customWidth="1"/>
-    <col min="10244" max="10244" width="65.28515625" style="36" customWidth="1"/>
-    <col min="10245" max="10245" width="56.5703125" style="36" customWidth="1"/>
+    <col min="9996" max="10240" width="9.33203125" style="36"/>
+    <col min="10241" max="10241" width="5.5" style="36" customWidth="1"/>
+    <col min="10242" max="10242" width="18.33203125" style="36" customWidth="1"/>
+    <col min="10243" max="10243" width="69.6640625" style="36" customWidth="1"/>
+    <col min="10244" max="10244" width="65.33203125" style="36" customWidth="1"/>
+    <col min="10245" max="10245" width="56.5" style="36" customWidth="1"/>
     <col min="10246" max="10246" width="55" style="36" customWidth="1"/>
-    <col min="10247" max="10247" width="32.42578125" style="36" customWidth="1"/>
-    <col min="10248" max="10248" width="34.28515625" style="36" customWidth="1"/>
+    <col min="10247" max="10247" width="32.5" style="36" customWidth="1"/>
+    <col min="10248" max="10248" width="34.33203125" style="36" customWidth="1"/>
     <col min="10249" max="10249" width="30" style="36" customWidth="1"/>
     <col min="10250" max="10250" width="31" style="36" customWidth="1"/>
     <col min="10251" max="10251" width="33" style="36" customWidth="1"/>
-    <col min="10252" max="10496" width="9.28515625" style="36"/>
-    <col min="10497" max="10497" width="5.42578125" style="36" customWidth="1"/>
-    <col min="10498" max="10498" width="18.28515625" style="36" customWidth="1"/>
-    <col min="10499" max="10499" width="69.7109375" style="36" customWidth="1"/>
-    <col min="10500" max="10500" width="65.28515625" style="36" customWidth="1"/>
-    <col min="10501" max="10501" width="56.5703125" style="36" customWidth="1"/>
+    <col min="10252" max="10496" width="9.33203125" style="36"/>
+    <col min="10497" max="10497" width="5.5" style="36" customWidth="1"/>
+    <col min="10498" max="10498" width="18.33203125" style="36" customWidth="1"/>
+    <col min="10499" max="10499" width="69.6640625" style="36" customWidth="1"/>
+    <col min="10500" max="10500" width="65.33203125" style="36" customWidth="1"/>
+    <col min="10501" max="10501" width="56.5" style="36" customWidth="1"/>
     <col min="10502" max="10502" width="55" style="36" customWidth="1"/>
-    <col min="10503" max="10503" width="32.42578125" style="36" customWidth="1"/>
-    <col min="10504" max="10504" width="34.28515625" style="36" customWidth="1"/>
+    <col min="10503" max="10503" width="32.5" style="36" customWidth="1"/>
+    <col min="10504" max="10504" width="34.33203125" style="36" customWidth="1"/>
     <col min="10505" max="10505" width="30" style="36" customWidth="1"/>
     <col min="10506" max="10506" width="31" style="36" customWidth="1"/>
     <col min="10507" max="10507" width="33" style="36" customWidth="1"/>
-    <col min="10508" max="10752" width="9.28515625" style="36"/>
-    <col min="10753" max="10753" width="5.42578125" style="36" customWidth="1"/>
-    <col min="10754" max="10754" width="18.28515625" style="36" customWidth="1"/>
-    <col min="10755" max="10755" width="69.7109375" style="36" customWidth="1"/>
-    <col min="10756" max="10756" width="65.28515625" style="36" customWidth="1"/>
-    <col min="10757" max="10757" width="56.5703125" style="36" customWidth="1"/>
+    <col min="10508" max="10752" width="9.33203125" style="36"/>
+    <col min="10753" max="10753" width="5.5" style="36" customWidth="1"/>
+    <col min="10754" max="10754" width="18.33203125" style="36" customWidth="1"/>
+    <col min="10755" max="10755" width="69.6640625" style="36" customWidth="1"/>
+    <col min="10756" max="10756" width="65.33203125" style="36" customWidth="1"/>
+    <col min="10757" max="10757" width="56.5" style="36" customWidth="1"/>
     <col min="10758" max="10758" width="55" style="36" customWidth="1"/>
-    <col min="10759" max="10759" width="32.42578125" style="36" customWidth="1"/>
-    <col min="10760" max="10760" width="34.28515625" style="36" customWidth="1"/>
+    <col min="10759" max="10759" width="32.5" style="36" customWidth="1"/>
+    <col min="10760" max="10760" width="34.33203125" style="36" customWidth="1"/>
     <col min="10761" max="10761" width="30" style="36" customWidth="1"/>
     <col min="10762" max="10762" width="31" style="36" customWidth="1"/>
     <col min="10763" max="10763" width="33" style="36" customWidth="1"/>
-    <col min="10764" max="11008" width="9.28515625" style="36"/>
-    <col min="11009" max="11009" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11010" max="11010" width="18.28515625" style="36" customWidth="1"/>
-    <col min="11011" max="11011" width="69.7109375" style="36" customWidth="1"/>
-    <col min="11012" max="11012" width="65.28515625" style="36" customWidth="1"/>
-    <col min="11013" max="11013" width="56.5703125" style="36" customWidth="1"/>
+    <col min="10764" max="11008" width="9.33203125" style="36"/>
+    <col min="11009" max="11009" width="5.5" style="36" customWidth="1"/>
+    <col min="11010" max="11010" width="18.33203125" style="36" customWidth="1"/>
+    <col min="11011" max="11011" width="69.6640625" style="36" customWidth="1"/>
+    <col min="11012" max="11012" width="65.33203125" style="36" customWidth="1"/>
+    <col min="11013" max="11013" width="56.5" style="36" customWidth="1"/>
     <col min="11014" max="11014" width="55" style="36" customWidth="1"/>
-    <col min="11015" max="11015" width="32.42578125" style="36" customWidth="1"/>
-    <col min="11016" max="11016" width="34.28515625" style="36" customWidth="1"/>
+    <col min="11015" max="11015" width="32.5" style="36" customWidth="1"/>
+    <col min="11016" max="11016" width="34.33203125" style="36" customWidth="1"/>
     <col min="11017" max="11017" width="30" style="36" customWidth="1"/>
     <col min="11018" max="11018" width="31" style="36" customWidth="1"/>
     <col min="11019" max="11019" width="33" style="36" customWidth="1"/>
-    <col min="11020" max="11264" width="9.28515625" style="36"/>
-    <col min="11265" max="11265" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11266" max="11266" width="18.28515625" style="36" customWidth="1"/>
-    <col min="11267" max="11267" width="69.7109375" style="36" customWidth="1"/>
-    <col min="11268" max="11268" width="65.28515625" style="36" customWidth="1"/>
-    <col min="11269" max="11269" width="56.5703125" style="36" customWidth="1"/>
+    <col min="11020" max="11264" width="9.33203125" style="36"/>
+    <col min="11265" max="11265" width="5.5" style="36" customWidth="1"/>
+    <col min="11266" max="11266" width="18.33203125" style="36" customWidth="1"/>
+    <col min="11267" max="11267" width="69.6640625" style="36" customWidth="1"/>
+    <col min="11268" max="11268" width="65.33203125" style="36" customWidth="1"/>
+    <col min="11269" max="11269" width="56.5" style="36" customWidth="1"/>
     <col min="11270" max="11270" width="55" style="36" customWidth="1"/>
-    <col min="11271" max="11271" width="32.42578125" style="36" customWidth="1"/>
-    <col min="11272" max="11272" width="34.28515625" style="36" customWidth="1"/>
+    <col min="11271" max="11271" width="32.5" style="36" customWidth="1"/>
+    <col min="11272" max="11272" width="34.33203125" style="36" customWidth="1"/>
     <col min="11273" max="11273" width="30" style="36" customWidth="1"/>
     <col min="11274" max="11274" width="31" style="36" customWidth="1"/>
     <col min="11275" max="11275" width="33" style="36" customWidth="1"/>
-    <col min="11276" max="11520" width="9.28515625" style="36"/>
-    <col min="11521" max="11521" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11522" max="11522" width="18.28515625" style="36" customWidth="1"/>
-    <col min="11523" max="11523" width="69.7109375" style="36" customWidth="1"/>
-    <col min="11524" max="11524" width="65.28515625" style="36" customWidth="1"/>
-    <col min="11525" max="11525" width="56.5703125" style="36" customWidth="1"/>
+    <col min="11276" max="11520" width="9.33203125" style="36"/>
+    <col min="11521" max="11521" width="5.5" style="36" customWidth="1"/>
+    <col min="11522" max="11522" width="18.33203125" style="36" customWidth="1"/>
+    <col min="11523" max="11523" width="69.6640625" style="36" customWidth="1"/>
+    <col min="11524" max="11524" width="65.33203125" style="36" customWidth="1"/>
+    <col min="11525" max="11525" width="56.5" style="36" customWidth="1"/>
     <col min="11526" max="11526" width="55" style="36" customWidth="1"/>
-    <col min="11527" max="11527" width="32.42578125" style="36" customWidth="1"/>
-    <col min="11528" max="11528" width="34.28515625" style="36" customWidth="1"/>
+    <col min="11527" max="11527" width="32.5" style="36" customWidth="1"/>
+    <col min="11528" max="11528" width="34.33203125" style="36" customWidth="1"/>
     <col min="11529" max="11529" width="30" style="36" customWidth="1"/>
     <col min="11530" max="11530" width="31" style="36" customWidth="1"/>
     <col min="11531" max="11531" width="33" style="36" customWidth="1"/>
-    <col min="11532" max="11776" width="9.28515625" style="36"/>
-    <col min="11777" max="11777" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11778" max="11778" width="18.28515625" style="36" customWidth="1"/>
-    <col min="11779" max="11779" width="69.7109375" style="36" customWidth="1"/>
-    <col min="11780" max="11780" width="65.28515625" style="36" customWidth="1"/>
-    <col min="11781" max="11781" width="56.5703125" style="36" customWidth="1"/>
+    <col min="11532" max="11776" width="9.33203125" style="36"/>
+    <col min="11777" max="11777" width="5.5" style="36" customWidth="1"/>
+    <col min="11778" max="11778" width="18.33203125" style="36" customWidth="1"/>
+    <col min="11779" max="11779" width="69.6640625" style="36" customWidth="1"/>
+    <col min="11780" max="11780" width="65.33203125" style="36" customWidth="1"/>
+    <col min="11781" max="11781" width="56.5" style="36" customWidth="1"/>
     <col min="11782" max="11782" width="55" style="36" customWidth="1"/>
-    <col min="11783" max="11783" width="32.42578125" style="36" customWidth="1"/>
-    <col min="11784" max="11784" width="34.28515625" style="36" customWidth="1"/>
+    <col min="11783" max="11783" width="32.5" style="36" customWidth="1"/>
+    <col min="11784" max="11784" width="34.33203125" style="36" customWidth="1"/>
     <col min="11785" max="11785" width="30" style="36" customWidth="1"/>
     <col min="11786" max="11786" width="31" style="36" customWidth="1"/>
     <col min="11787" max="11787" width="33" style="36" customWidth="1"/>
-    <col min="11788" max="12032" width="9.28515625" style="36"/>
-    <col min="12033" max="12033" width="5.42578125" style="36" customWidth="1"/>
-    <col min="12034" max="12034" width="18.28515625" style="36" customWidth="1"/>
-    <col min="12035" max="12035" width="69.7109375" style="36" customWidth="1"/>
-    <col min="12036" max="12036" width="65.28515625" style="36" customWidth="1"/>
-    <col min="12037" max="12037" width="56.5703125" style="36" customWidth="1"/>
+    <col min="11788" max="12032" width="9.33203125" style="36"/>
+    <col min="12033" max="12033" width="5.5" style="36" customWidth="1"/>
+    <col min="12034" max="12034" width="18.33203125" style="36" customWidth="1"/>
+    <col min="12035" max="12035" width="69.6640625" style="36" customWidth="1"/>
+    <col min="12036" max="12036" width="65.33203125" style="36" customWidth="1"/>
+    <col min="12037" max="12037" width="56.5" style="36" customWidth="1"/>
     <col min="12038" max="12038" width="55" style="36" customWidth="1"/>
-    <col min="12039" max="12039" width="32.42578125" style="36" customWidth="1"/>
-    <col min="12040" max="12040" width="34.28515625" style="36" customWidth="1"/>
+    <col min="12039" max="12039" width="32.5" style="36" customWidth="1"/>
+    <col min="12040" max="12040" width="34.33203125" style="36" customWidth="1"/>
     <col min="12041" max="12041" width="30" style="36" customWidth="1"/>
     <col min="12042" max="12042" width="31" style="36" customWidth="1"/>
     <col min="12043" max="12043" width="33" style="36" customWidth="1"/>
-    <col min="12044" max="12288" width="9.28515625" style="36"/>
-    <col min="12289" max="12289" width="5.42578125" style="36" customWidth="1"/>
-    <col min="12290" max="12290" width="18.28515625" style="36" customWidth="1"/>
-    <col min="12291" max="12291" width="69.7109375" style="36" customWidth="1"/>
-    <col min="12292" max="12292" width="65.28515625" style="36" customWidth="1"/>
-    <col min="12293" max="12293" width="56.5703125" style="36" customWidth="1"/>
+    <col min="12044" max="12288" width="9.33203125" style="36"/>
+    <col min="12289" max="12289" width="5.5" style="36" customWidth="1"/>
+    <col min="12290" max="12290" width="18.33203125" style="36" customWidth="1"/>
+    <col min="12291" max="12291" width="69.6640625" style="36" customWidth="1"/>
+    <col min="12292" max="12292" width="65.33203125" style="36" customWidth="1"/>
+    <col min="12293" max="12293" width="56.5" style="36" customWidth="1"/>
     <col min="12294" max="12294" width="55" style="36" customWidth="1"/>
-    <col min="12295" max="12295" width="32.42578125" style="36" customWidth="1"/>
-    <col min="12296" max="12296" width="34.28515625" style="36" customWidth="1"/>
+    <col min="12295" max="12295" width="32.5" style="36" customWidth="1"/>
+    <col min="12296" max="12296" width="34.33203125" style="36" customWidth="1"/>
     <col min="12297" max="12297" width="30" style="36" customWidth="1"/>
     <col min="12298" max="12298" width="31" style="36" customWidth="1"/>
     <col min="12299" max="12299" width="33" style="36" customWidth="1"/>
-    <col min="12300" max="12544" width="9.28515625" style="36"/>
-    <col min="12545" max="12545" width="5.42578125" style="36" customWidth="1"/>
-    <col min="12546" max="12546" width="18.28515625" style="36" customWidth="1"/>
-    <col min="12547" max="12547" width="69.7109375" style="36" customWidth="1"/>
-    <col min="12548" max="12548" width="65.28515625" style="36" customWidth="1"/>
-    <col min="12549" max="12549" width="56.5703125" style="36" customWidth="1"/>
+    <col min="12300" max="12544" width="9.33203125" style="36"/>
+    <col min="12545" max="12545" width="5.5" style="36" customWidth="1"/>
+    <col min="12546" max="12546" width="18.33203125" style="36" customWidth="1"/>
+    <col min="12547" max="12547" width="69.6640625" style="36" customWidth="1"/>
+    <col min="12548" max="12548" width="65.33203125" style="36" customWidth="1"/>
+    <col min="12549" max="12549" width="56.5" style="36" customWidth="1"/>
     <col min="12550" max="12550" width="55" style="36" customWidth="1"/>
-    <col min="12551" max="12551" width="32.42578125" style="36" customWidth="1"/>
-    <col min="12552" max="12552" width="34.28515625" style="36" customWidth="1"/>
+    <col min="12551" max="12551" width="32.5" style="36" customWidth="1"/>
+    <col min="12552" max="12552" width="34.33203125" style="36" customWidth="1"/>
     <col min="12553" max="12553" width="30" style="36" customWidth="1"/>
     <col min="12554" max="12554" width="31" style="36" customWidth="1"/>
     <col min="12555" max="12555" width="33" style="36" customWidth="1"/>
-    <col min="12556" max="12800" width="9.28515625" style="36"/>
-    <col min="12801" max="12801" width="5.42578125" style="36" customWidth="1"/>
-    <col min="12802" max="12802" width="18.28515625" style="36" customWidth="1"/>
-    <col min="12803" max="12803" width="69.7109375" style="36" customWidth="1"/>
-    <col min="12804" max="12804" width="65.28515625" style="36" customWidth="1"/>
-    <col min="12805" max="12805" width="56.5703125" style="36" customWidth="1"/>
+    <col min="12556" max="12800" width="9.33203125" style="36"/>
+    <col min="12801" max="12801" width="5.5" style="36" customWidth="1"/>
+    <col min="12802" max="12802" width="18.33203125" style="36" customWidth="1"/>
+    <col min="12803" max="12803" width="69.6640625" style="36" customWidth="1"/>
+    <col min="12804" max="12804" width="65.33203125" style="36" customWidth="1"/>
+    <col min="12805" max="12805" width="56.5" style="36" customWidth="1"/>
     <col min="12806" max="12806" width="55" style="36" customWidth="1"/>
-    <col min="12807" max="12807" width="32.42578125" style="36" customWidth="1"/>
-    <col min="12808" max="12808" width="34.28515625" style="36" customWidth="1"/>
+    <col min="12807" max="12807" width="32.5" style="36" customWidth="1"/>
+    <col min="12808" max="12808" width="34.33203125" style="36" customWidth="1"/>
     <col min="12809" max="12809" width="30" style="36" customWidth="1"/>
     <col min="12810" max="12810" width="31" style="36" customWidth="1"/>
     <col min="12811" max="12811" width="33" style="36" customWidth="1"/>
-    <col min="12812" max="13056" width="9.28515625" style="36"/>
-    <col min="13057" max="13057" width="5.42578125" style="36" customWidth="1"/>
-    <col min="13058" max="13058" width="18.28515625" style="36" customWidth="1"/>
-    <col min="13059" max="13059" width="69.7109375" style="36" customWidth="1"/>
-    <col min="13060" max="13060" width="65.28515625" style="36" customWidth="1"/>
-    <col min="13061" max="13061" width="56.5703125" style="36" customWidth="1"/>
+    <col min="12812" max="13056" width="9.33203125" style="36"/>
+    <col min="13057" max="13057" width="5.5" style="36" customWidth="1"/>
+    <col min="13058" max="13058" width="18.33203125" style="36" customWidth="1"/>
+    <col min="13059" max="13059" width="69.6640625" style="36" customWidth="1"/>
+    <col min="13060" max="13060" width="65.33203125" style="36" customWidth="1"/>
+    <col min="13061" max="13061" width="56.5" style="36" customWidth="1"/>
     <col min="13062" max="13062" width="55" style="36" customWidth="1"/>
-    <col min="13063" max="13063" width="32.42578125" style="36" customWidth="1"/>
-    <col min="13064" max="13064" width="34.28515625" style="36" customWidth="1"/>
+    <col min="13063" max="13063" width="32.5" style="36" customWidth="1"/>
+    <col min="13064" max="13064" width="34.33203125" style="36" customWidth="1"/>
     <col min="13065" max="13065" width="30" style="36" customWidth="1"/>
     <col min="13066" max="13066" width="31" style="36" customWidth="1"/>
     <col min="13067" max="13067" width="33" style="36" customWidth="1"/>
-    <col min="13068" max="13312" width="9.28515625" style="36"/>
-    <col min="13313" max="13313" width="5.42578125" style="36" customWidth="1"/>
-    <col min="13314" max="13314" width="18.28515625" style="36" customWidth="1"/>
-    <col min="13315" max="13315" width="69.7109375" style="36" customWidth="1"/>
-    <col min="13316" max="13316" width="65.28515625" style="36" customWidth="1"/>
-    <col min="13317" max="13317" width="56.5703125" style="36" customWidth="1"/>
+    <col min="13068" max="13312" width="9.33203125" style="36"/>
+    <col min="13313" max="13313" width="5.5" style="36" customWidth="1"/>
+    <col min="13314" max="13314" width="18.33203125" style="36" customWidth="1"/>
+    <col min="13315" max="13315" width="69.6640625" style="36" customWidth="1"/>
+    <col min="13316" max="13316" width="65.33203125" style="36" customWidth="1"/>
+    <col min="13317" max="13317" width="56.5" style="36" customWidth="1"/>
     <col min="13318" max="13318" width="55" style="36" customWidth="1"/>
-    <col min="13319" max="13319" width="32.42578125" style="36" customWidth="1"/>
-    <col min="13320" max="13320" width="34.28515625" style="36" customWidth="1"/>
+    <col min="13319" max="13319" width="32.5" style="36" customWidth="1"/>
+    <col min="13320" max="13320" width="34.33203125" style="36" customWidth="1"/>
     <col min="13321" max="13321" width="30" style="36" customWidth="1"/>
     <col min="13322" max="13322" width="31" style="36" customWidth="1"/>
     <col min="13323" max="13323" width="33" style="36" customWidth="1"/>
-    <col min="13324" max="13568" width="9.28515625" style="36"/>
-    <col min="13569" max="13569" width="5.42578125" style="36" customWidth="1"/>
-    <col min="13570" max="13570" width="18.28515625" style="36" customWidth="1"/>
-    <col min="13571" max="13571" width="69.7109375" style="36" customWidth="1"/>
-    <col min="13572" max="13572" width="65.28515625" style="36" customWidth="1"/>
-    <col min="13573" max="13573" width="56.5703125" style="36" customWidth="1"/>
+    <col min="13324" max="13568" width="9.33203125" style="36"/>
+    <col min="13569" max="13569" width="5.5" style="36" customWidth="1"/>
+    <col min="13570" max="13570" width="18.33203125" style="36" customWidth="1"/>
+    <col min="13571" max="13571" width="69.6640625" style="36" customWidth="1"/>
+    <col min="13572" max="13572" width="65.33203125" style="36" customWidth="1"/>
+    <col min="13573" max="13573" width="56.5" style="36" customWidth="1"/>
     <col min="13574" max="13574" width="55" style="36" customWidth="1"/>
-    <col min="13575" max="13575" width="32.42578125" style="36" customWidth="1"/>
-    <col min="13576" max="13576" width="34.28515625" style="36" customWidth="1"/>
+    <col min="13575" max="13575" width="32.5" style="36" customWidth="1"/>
+    <col min="13576" max="13576" width="34.33203125" style="36" customWidth="1"/>
     <col min="13577" max="13577" width="30" style="36" customWidth="1"/>
     <col min="13578" max="13578" width="31" style="36" customWidth="1"/>
     <col min="13579" max="13579" width="33" style="36" customWidth="1"/>
-    <col min="13580" max="13824" width="9.28515625" style="36"/>
-    <col min="13825" max="13825" width="5.42578125" style="36" customWidth="1"/>
-    <col min="13826" max="13826" width="18.28515625" style="36" customWidth="1"/>
-    <col min="13827" max="13827" width="69.7109375" style="36" customWidth="1"/>
-    <col min="13828" max="13828" width="65.28515625" style="36" customWidth="1"/>
-    <col min="13829" max="13829" width="56.5703125" style="36" customWidth="1"/>
+    <col min="13580" max="13824" width="9.33203125" style="36"/>
+    <col min="13825" max="13825" width="5.5" style="36" customWidth="1"/>
+    <col min="13826" max="13826" width="18.33203125" style="36" customWidth="1"/>
+    <col min="13827" max="13827" width="69.6640625" style="36" customWidth="1"/>
+    <col min="13828" max="13828" width="65.33203125" style="36" customWidth="1"/>
+    <col min="13829" max="13829" width="56.5" style="36" customWidth="1"/>
     <col min="13830" max="13830" width="55" style="36" customWidth="1"/>
-    <col min="13831" max="13831" width="32.42578125" style="36" customWidth="1"/>
-    <col min="13832" max="13832" width="34.28515625" style="36" customWidth="1"/>
+    <col min="13831" max="13831" width="32.5" style="36" customWidth="1"/>
+    <col min="13832" max="13832" width="34.33203125" style="36" customWidth="1"/>
     <col min="13833" max="13833" width="30" style="36" customWidth="1"/>
     <col min="13834" max="13834" width="31" style="36" customWidth="1"/>
     <col min="13835" max="13835" width="33" style="36" customWidth="1"/>
-    <col min="13836" max="14080" width="9.28515625" style="36"/>
-    <col min="14081" max="14081" width="5.42578125" style="36" customWidth="1"/>
-    <col min="14082" max="14082" width="18.28515625" style="36" customWidth="1"/>
-    <col min="14083" max="14083" width="69.7109375" style="36" customWidth="1"/>
-    <col min="14084" max="14084" width="65.28515625" style="36" customWidth="1"/>
-    <col min="14085" max="14085" width="56.5703125" style="36" customWidth="1"/>
+    <col min="13836" max="14080" width="9.33203125" style="36"/>
+    <col min="14081" max="14081" width="5.5" style="36" customWidth="1"/>
+    <col min="14082" max="14082" width="18.33203125" style="36" customWidth="1"/>
+    <col min="14083" max="14083" width="69.6640625" style="36" customWidth="1"/>
+    <col min="14084" max="14084" width="65.33203125" style="36" customWidth="1"/>
+    <col min="14085" max="14085" width="56.5" style="36" customWidth="1"/>
     <col min="14086" max="14086" width="55" style="36" customWidth="1"/>
-    <col min="14087" max="14087" width="32.42578125" style="36" customWidth="1"/>
-    <col min="14088" max="14088" width="34.28515625" style="36" customWidth="1"/>
+    <col min="14087" max="14087" width="32.5" style="36" customWidth="1"/>
+    <col min="14088" max="14088" width="34.33203125" style="36" customWidth="1"/>
     <col min="14089" max="14089" width="30" style="36" customWidth="1"/>
     <col min="14090" max="14090" width="31" style="36" customWidth="1"/>
     <col min="14091" max="14091" width="33" style="36" customWidth="1"/>
-    <col min="14092" max="14336" width="9.28515625" style="36"/>
-    <col min="14337" max="14337" width="5.42578125" style="36" customWidth="1"/>
-    <col min="14338" max="14338" width="18.28515625" style="36" customWidth="1"/>
-    <col min="14339" max="14339" width="69.7109375" style="36" customWidth="1"/>
-    <col min="14340" max="14340" width="65.28515625" style="36" customWidth="1"/>
-    <col min="14341" max="14341" width="56.5703125" style="36" customWidth="1"/>
+    <col min="14092" max="14336" width="9.33203125" style="36"/>
+    <col min="14337" max="14337" width="5.5" style="36" customWidth="1"/>
+    <col min="14338" max="14338" width="18.33203125" style="36" customWidth="1"/>
+    <col min="14339" max="14339" width="69.6640625" style="36" customWidth="1"/>
+    <col min="14340" max="14340" width="65.33203125" style="36" customWidth="1"/>
+    <col min="14341" max="14341" width="56.5" style="36" customWidth="1"/>
     <col min="14342" max="14342" width="55" style="36" customWidth="1"/>
-    <col min="14343" max="14343" width="32.42578125" style="36" customWidth="1"/>
-    <col min="14344" max="14344" width="34.28515625" style="36" customWidth="1"/>
+    <col min="14343" max="14343" width="32.5" style="36" customWidth="1"/>
+    <col min="14344" max="14344" width="34.33203125" style="36" customWidth="1"/>
     <col min="14345" max="14345" width="30" style="36" customWidth="1"/>
     <col min="14346" max="14346" width="31" style="36" customWidth="1"/>
     <col min="14347" max="14347" width="33" style="36" customWidth="1"/>
-    <col min="14348" max="14592" width="9.28515625" style="36"/>
-    <col min="14593" max="14593" width="5.42578125" style="36" customWidth="1"/>
-    <col min="14594" max="14594" width="18.28515625" style="36" customWidth="1"/>
-    <col min="14595" max="14595" width="69.7109375" style="36" customWidth="1"/>
-    <col min="14596" max="14596" width="65.28515625" style="36" customWidth="1"/>
-    <col min="14597" max="14597" width="56.5703125" style="36" customWidth="1"/>
+    <col min="14348" max="14592" width="9.33203125" style="36"/>
+    <col min="14593" max="14593" width="5.5" style="36" customWidth="1"/>
+    <col min="14594" max="14594" width="18.33203125" style="36" customWidth="1"/>
+    <col min="14595" max="14595" width="69.6640625" style="36" customWidth="1"/>
+    <col min="14596" max="14596" width="65.33203125" style="36" customWidth="1"/>
+    <col min="14597" max="14597" width="56.5" style="36" customWidth="1"/>
     <col min="14598" max="14598" width="55" style="36" customWidth="1"/>
-    <col min="14599" max="14599" width="32.42578125" style="36" customWidth="1"/>
-    <col min="14600" max="14600" width="34.28515625" style="36" customWidth="1"/>
+    <col min="14599" max="14599" width="32.5" style="36" customWidth="1"/>
+    <col min="14600" max="14600" width="34.33203125" style="36" customWidth="1"/>
     <col min="14601" max="14601" width="30" style="36" customWidth="1"/>
     <col min="14602" max="14602" width="31" style="36" customWidth="1"/>
     <col min="14603" max="14603" width="33" style="36" customWidth="1"/>
-    <col min="14604" max="14848" width="9.28515625" style="36"/>
-    <col min="14849" max="14849" width="5.42578125" style="36" customWidth="1"/>
-    <col min="14850" max="14850" width="18.28515625" style="36" customWidth="1"/>
-    <col min="14851" max="14851" width="69.7109375" style="36" customWidth="1"/>
-    <col min="14852" max="14852" width="65.28515625" style="36" customWidth="1"/>
-    <col min="14853" max="14853" width="56.5703125" style="36" customWidth="1"/>
+    <col min="14604" max="14848" width="9.33203125" style="36"/>
+    <col min="14849" max="14849" width="5.5" style="36" customWidth="1"/>
+    <col min="14850" max="14850" width="18.33203125" style="36" customWidth="1"/>
+    <col min="14851" max="14851" width="69.6640625" style="36" customWidth="1"/>
+    <col min="14852" max="14852" width="65.33203125" style="36" customWidth="1"/>
+    <col min="14853" max="14853" width="56.5" style="36" customWidth="1"/>
     <col min="14854" max="14854" width="55" style="36" customWidth="1"/>
-    <col min="14855" max="14855" width="32.42578125" style="36" customWidth="1"/>
-    <col min="14856" max="14856" width="34.28515625" style="36" customWidth="1"/>
+    <col min="14855" max="14855" width="32.5" style="36" customWidth="1"/>
+    <col min="14856" max="14856" width="34.33203125" style="36" customWidth="1"/>
     <col min="14857" max="14857" width="30" style="36" customWidth="1"/>
     <col min="14858" max="14858" width="31" style="36" customWidth="1"/>
     <col min="14859" max="14859" width="33" style="36" customWidth="1"/>
-    <col min="14860" max="15104" width="9.28515625" style="36"/>
-    <col min="15105" max="15105" width="5.42578125" style="36" customWidth="1"/>
-    <col min="15106" max="15106" width="18.28515625" style="36" customWidth="1"/>
-    <col min="15107" max="15107" width="69.7109375" style="36" customWidth="1"/>
-    <col min="15108" max="15108" width="65.28515625" style="36" customWidth="1"/>
-    <col min="15109" max="15109" width="56.5703125" style="36" customWidth="1"/>
+    <col min="14860" max="15104" width="9.33203125" style="36"/>
+    <col min="15105" max="15105" width="5.5" style="36" customWidth="1"/>
+    <col min="15106" max="15106" width="18.33203125" style="36" customWidth="1"/>
+    <col min="15107" max="15107" width="69.6640625" style="36" customWidth="1"/>
+    <col min="15108" max="15108" width="65.33203125" style="36" customWidth="1"/>
+    <col min="15109" max="15109" width="56.5" style="36" customWidth="1"/>
     <col min="15110" max="15110" width="55" style="36" customWidth="1"/>
-    <col min="15111" max="15111" width="32.42578125" style="36" customWidth="1"/>
-    <col min="15112" max="15112" width="34.28515625" style="36" customWidth="1"/>
+    <col min="15111" max="15111" width="32.5" style="36" customWidth="1"/>
+    <col min="15112" max="15112" width="34.33203125" style="36" customWidth="1"/>
     <col min="15113" max="15113" width="30" style="36" customWidth="1"/>
     <col min="15114" max="15114" width="31" style="36" customWidth="1"/>
     <col min="15115" max="15115" width="33" style="36" customWidth="1"/>
-    <col min="15116" max="15360" width="9.28515625" style="36"/>
-    <col min="15361" max="15361" width="5.42578125" style="36" customWidth="1"/>
-    <col min="15362" max="15362" width="18.28515625" style="36" customWidth="1"/>
-    <col min="15363" max="15363" width="69.7109375" style="36" customWidth="1"/>
-    <col min="15364" max="15364" width="65.28515625" style="36" customWidth="1"/>
-    <col min="15365" max="15365" width="56.5703125" style="36" customWidth="1"/>
+    <col min="15116" max="15360" width="9.33203125" style="36"/>
+    <col min="15361" max="15361" width="5.5" style="36" customWidth="1"/>
+    <col min="15362" max="15362" width="18.33203125" style="36" customWidth="1"/>
+    <col min="15363" max="15363" width="69.6640625" style="36" customWidth="1"/>
+    <col min="15364" max="15364" width="65.33203125" style="36" customWidth="1"/>
+    <col min="15365" max="15365" width="56.5" style="36" customWidth="1"/>
     <col min="15366" max="15366" width="55" style="36" customWidth="1"/>
-    <col min="15367" max="15367" width="32.42578125" style="36" customWidth="1"/>
-    <col min="15368" max="15368" width="34.28515625" style="36" customWidth="1"/>
+    <col min="15367" max="15367" width="32.5" style="36" customWidth="1"/>
+    <col min="15368" max="15368" width="34.33203125" style="36" customWidth="1"/>
     <col min="15369" max="15369" width="30" style="36" customWidth="1"/>
     <col min="15370" max="15370" width="31" style="36" customWidth="1"/>
     <col min="15371" max="15371" width="33" style="36" customWidth="1"/>
-    <col min="15372" max="15616" width="9.28515625" style="36"/>
-    <col min="15617" max="15617" width="5.42578125" style="36" customWidth="1"/>
-    <col min="15618" max="15618" width="18.28515625" style="36" customWidth="1"/>
-    <col min="15619" max="15619" width="69.7109375" style="36" customWidth="1"/>
-    <col min="15620" max="15620" width="65.28515625" style="36" customWidth="1"/>
-    <col min="15621" max="15621" width="56.5703125" style="36" customWidth="1"/>
+    <col min="15372" max="15616" width="9.33203125" style="36"/>
+    <col min="15617" max="15617" width="5.5" style="36" customWidth="1"/>
+    <col min="15618" max="15618" width="18.33203125" style="36" customWidth="1"/>
+    <col min="15619" max="15619" width="69.6640625" style="36" customWidth="1"/>
+    <col min="15620" max="15620" width="65.33203125" style="36" customWidth="1"/>
+    <col min="15621" max="15621" width="56.5" style="36" customWidth="1"/>
     <col min="15622" max="15622" width="55" style="36" customWidth="1"/>
-    <col min="15623" max="15623" width="32.42578125" style="36" customWidth="1"/>
-    <col min="15624" max="15624" width="34.28515625" style="36" customWidth="1"/>
+    <col min="15623" max="15623" width="32.5" style="36" customWidth="1"/>
+    <col min="15624" max="15624" width="34.33203125" style="36" customWidth="1"/>
     <col min="15625" max="15625" width="30" style="36" customWidth="1"/>
     <col min="15626" max="15626" width="31" style="36" customWidth="1"/>
     <col min="15627" max="15627" width="33" style="36" customWidth="1"/>
-    <col min="15628" max="15872" width="9.28515625" style="36"/>
-    <col min="15873" max="15873" width="5.42578125" style="36" customWidth="1"/>
-    <col min="15874" max="15874" width="18.28515625" style="36" customWidth="1"/>
-    <col min="15875" max="15875" width="69.7109375" style="36" customWidth="1"/>
-    <col min="15876" max="15876" width="65.28515625" style="36" customWidth="1"/>
-    <col min="15877" max="15877" width="56.5703125" style="36" customWidth="1"/>
+    <col min="15628" max="15872" width="9.33203125" style="36"/>
+    <col min="15873" max="15873" width="5.5" style="36" customWidth="1"/>
+    <col min="15874" max="15874" width="18.33203125" style="36" customWidth="1"/>
+    <col min="15875" max="15875" width="69.6640625" style="36" customWidth="1"/>
+    <col min="15876" max="15876" width="65.33203125" style="36" customWidth="1"/>
+    <col min="15877" max="15877" width="56.5" style="36" customWidth="1"/>
     <col min="15878" max="15878" width="55" style="36" customWidth="1"/>
-    <col min="15879" max="15879" width="32.42578125" style="36" customWidth="1"/>
-    <col min="15880" max="15880" width="34.28515625" style="36" customWidth="1"/>
+    <col min="15879" max="15879" width="32.5" style="36" customWidth="1"/>
+    <col min="15880" max="15880" width="34.33203125" style="36" customWidth="1"/>
     <col min="15881" max="15881" width="30" style="36" customWidth="1"/>
     <col min="15882" max="15882" width="31" style="36" customWidth="1"/>
     <col min="15883" max="15883" width="33" style="36" customWidth="1"/>
-    <col min="15884" max="16128" width="9.28515625" style="36"/>
-    <col min="16129" max="16129" width="5.42578125" style="36" customWidth="1"/>
-    <col min="16130" max="16130" width="18.28515625" style="36" customWidth="1"/>
-    <col min="16131" max="16131" width="69.7109375" style="36" customWidth="1"/>
-    <col min="16132" max="16132" width="65.28515625" style="36" customWidth="1"/>
-    <col min="16133" max="16133" width="56.5703125" style="36" customWidth="1"/>
+    <col min="15884" max="16128" width="9.33203125" style="36"/>
+    <col min="16129" max="16129" width="5.5" style="36" customWidth="1"/>
+    <col min="16130" max="16130" width="18.33203125" style="36" customWidth="1"/>
+    <col min="16131" max="16131" width="69.6640625" style="36" customWidth="1"/>
+    <col min="16132" max="16132" width="65.33203125" style="36" customWidth="1"/>
+    <col min="16133" max="16133" width="56.5" style="36" customWidth="1"/>
     <col min="16134" max="16134" width="55" style="36" customWidth="1"/>
-    <col min="16135" max="16135" width="32.42578125" style="36" customWidth="1"/>
-    <col min="16136" max="16136" width="34.28515625" style="36" customWidth="1"/>
+    <col min="16135" max="16135" width="32.5" style="36" customWidth="1"/>
+    <col min="16136" max="16136" width="34.33203125" style="36" customWidth="1"/>
     <col min="16137" max="16137" width="30" style="36" customWidth="1"/>
     <col min="16138" max="16138" width="31" style="36" customWidth="1"/>
     <col min="16139" max="16139" width="33" style="36" customWidth="1"/>
-    <col min="16140" max="16384" width="9.28515625" style="36"/>
+    <col min="16140" max="16384" width="9.33203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="13">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
         <v>124</v>
@@ -5802,12 +6067,12 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="48.75" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -5831,12 +6096,12 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
     </row>
-    <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="44.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -5860,15 +6125,15 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="37.5" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -5892,10 +6157,10 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="174" customHeight="1">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:26" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="117">
       <c r="B7" s="37" t="s">
         <v>129</v>
       </c>
@@ -5906,7 +6171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="180" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="37" t="s">
         <v>129</v>
@@ -5936,7 +6201,7 @@
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5964,7 +6229,7 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="29.25" customHeight="1">
       <c r="A10" s="34"/>
       <c r="C10" s="37" t="s">
         <v>132</v>
@@ -5993,7 +6258,7 @@
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="45.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="C11" s="37" t="s">
         <v>133</v>
@@ -6022,7 +6287,7 @@
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="58.5" customHeight="1">
       <c r="B14" s="36" t="s">
         <v>134</v>
       </c>
@@ -6033,7 +6298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="81" customHeight="1">
       <c r="B15" s="36" t="s">
         <v>137</v>
       </c>
@@ -6044,7 +6309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="48" customHeight="1">
       <c r="B16" s="36" t="s">
         <v>140</v>
       </c>
@@ -6055,7 +6320,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="77.25" customHeight="1">
       <c r="B17" s="36" t="s">
         <v>143</v>
       </c>
@@ -6066,7 +6331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="90" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>146</v>
       </c>
@@ -6074,7 +6339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="42" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="42" customFormat="1" ht="68.25" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>148</v>
@@ -6106,7 +6371,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
     </row>
-    <row r="20" spans="1:26" s="42" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="42" customFormat="1" ht="117.75" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
         <v>150</v>
@@ -6142,7 +6407,7 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" s="42" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="42" customFormat="1" ht="82.5" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="39" t="s">
         <v>154</v>
@@ -6176,7 +6441,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" s="42" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="42" customFormat="1" ht="117">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>157</v>
@@ -6224,7 +6489,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" s="44" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="44" customFormat="1" ht="113.25" customHeight="1">
       <c r="A23" s="43"/>
       <c r="B23" s="39" t="s">
         <v>157</v>
@@ -6270,7 +6535,7 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="131.25" customHeight="1">
       <c r="B24" s="45" t="s">
         <v>175</v>
       </c>
@@ -6290,7 +6555,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="78">
       <c r="B25" s="45" t="s">
         <v>175</v>
       </c>
@@ -6301,7 +6566,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="104">
       <c r="B26" s="45" t="s">
         <v>183</v>
       </c>
@@ -6309,7 +6574,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="181.5" customHeight="1">
       <c r="B28" s="45" t="s">
         <v>185</v>
       </c>
@@ -6318,7 +6583,7 @@
       </c>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:26" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="208">
       <c r="B29" s="45" t="s">
         <v>185</v>
       </c>
@@ -6335,7 +6600,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="54" customHeight="1">
       <c r="B31" s="45" t="s">
         <v>191</v>
       </c>
@@ -6346,7 +6611,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="81" customHeight="1">
       <c r="B32" s="45" t="s">
         <v>191</v>
       </c>
@@ -6354,7 +6619,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="39">
       <c r="B33" s="45" t="s">
         <v>191</v>
       </c>
@@ -6362,7 +6627,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="13">
       <c r="B35" s="36" t="s">
         <v>196</v>
       </c>
@@ -6382,29 +6647,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" s="49" customFormat="1" ht="53.5" customHeight="1">
       <c r="B3" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="49" t="s">
+    </row>
+    <row r="4" spans="2:3" s="49" customFormat="1" ht="69" customHeight="1">
+      <c r="B4" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="49" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
